--- a/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="122">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -108,12 +108,18 @@
     <t xml:space="preserve">L&amp;T Spaza Affordable</t>
   </si>
   <si>
+    <t xml:space="preserve">Price, Survey, Availability, SOS, Count</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">SSD IC</t>
   </si>
   <si>
+    <t xml:space="preserve">Price, Survey, Availability</t>
+  </si>
+  <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
@@ -135,15 +141,27 @@
     <t xml:space="preserve">Pricing Compliance</t>
   </si>
   <si>
+    <t xml:space="preserve">Price</t>
+  </si>
+  <si>
     <t xml:space="preserve">Activation</t>
   </si>
   <si>
+    <t xml:space="preserve">Survey</t>
+  </si>
+  <si>
     <t xml:space="preserve">Availability and Pricing of ALL Key Packs </t>
   </si>
   <si>
+    <t xml:space="preserve">??</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOC: Sparletta, Twist and Stills</t>
   </si>
   <si>
+    <t xml:space="preserve">Planogram</t>
+  </si>
+  <si>
     <t xml:space="preserve">Atomic KPI Name</t>
   </si>
   <si>
@@ -283,9 +301,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pricing Board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey</t>
   </si>
   <si>
     <t xml:space="preserve">type avia</t>
@@ -407,7 +422,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -429,12 +444,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -492,7 +501,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -516,17 +525,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -587,14 +592,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -672,7 +676,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5953488372093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,23 +784,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.4279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.353488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.7813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.9767441860465"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8418604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.8883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -803,16 +809,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -822,21 +831,27 @@
       <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="n">
         <v>11</v>
       </c>
     </row>
@@ -845,13 +860,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="n">
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -860,13 +878,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -875,13 +896,16 @@
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -890,13 +914,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -905,13 +932,16 @@
         <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -920,56 +950,68 @@
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="F11" s="7" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -997,9 +1039,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.5953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.0697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,18 +1049,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>100</v>
@@ -1049,19 +1091,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.353488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.8093023255814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.553488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.66046511627907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.8744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="50.4558139534884"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.7767441860465"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.78604651162791"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="51.9302325581395"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1069,118 +1111,118 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D3" s="12" t="n">
         <v>200</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1190,201 +1232,201 @@
         <v>5</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>7</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>9</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>13</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>10.5</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>12.99</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>14</v>
@@ -1393,21 +1435,21 @@
         <v>3</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>17</v>
@@ -1416,13 +1458,13 @@
         <v>3</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1450,14 +1492,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="56.8558139534884"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="58.5767441860465"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,25 +1507,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1491,304 +1533,304 @@
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>72</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1816,23 +1858,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.9116279069768"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.1302325581395"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.4"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="5.90697674418605"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.0279069767442"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="60.9162790697674"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.02790697674419"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.306976744186"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="62.6372093023256"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,52 +1882,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,19 +1935,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1</v>
@@ -1914,13 +1956,13 @@
         <v>2</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1928,10 +1970,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>12</v>
@@ -1943,142 +1985,142 @@
         <v>5</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2106,19 +2148,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.7813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.1348837209302"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.506976744186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.7488372093023"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2126,40 +2168,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,25 +2209,25 @@
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>50</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>30</v>
@@ -2194,10 +2236,10 @@
         <v>5</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2225,12 +2267,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2238,22 +2280,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2261,7 +2303,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>4</v>
@@ -2270,13 +2312,13 @@
         <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2284,7 +2326,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -2293,13 +2335,13 @@
         <v>6</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2307,7 +2349,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -2316,13 +2358,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Set" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="121">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t xml:space="preserve">Availability and Pricing of ALL Key Packs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">??</t>
   </si>
   <si>
     <t xml:space="preserve">DOC: Sparletta, Twist and Stills</t>
@@ -676,8 +673,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.8279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.1813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,19 +783,19 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4093023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.9767441860465"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.8883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.5162790697674"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7116279069767"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.9395348837209"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.9953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,16 +974,14 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1002,10 +997,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>24</v>
@@ -1039,9 +1034,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.0697674418605"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.6697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,18 +1044,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>100</v>
@@ -1091,19 +1086,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.7767441860465"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.78604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.246511627907"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="51.9302325581395"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.8697674418605"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.90697674418605"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="53.4093023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,66 +1106,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="K2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,37 +1173,37 @@
         <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="D3" s="12" t="n">
         <v>200</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,13 +1211,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1232,13 +1227,13 @@
         <v>5</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,19 +1241,19 @@
         <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>7</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,19 +1261,19 @@
         <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,19 +1281,19 @@
         <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,19 +1301,19 @@
         <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1326,19 +1321,19 @@
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>9</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,19 +1341,19 @@
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>13</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1366,19 +1361,19 @@
         <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>10.5</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,19 +1381,19 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>12.99</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1406,19 +1401,19 @@
         <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,7 +1421,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>14</v>
@@ -1435,13 +1430,13 @@
         <v>3</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,7 +1444,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>17</v>
@@ -1458,13 +1453,13 @@
         <v>3</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1486,20 +1481,20 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="58.5767441860465"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="60.4232558139535"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,25 +1502,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1533,19 +1528,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1553,16 +1548,16 @@
         <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,16 +1565,16 @@
         <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,16 +1582,16 @@
         <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,16 +1599,16 @@
         <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1621,16 +1616,16 @@
         <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,19 +1633,19 @@
         <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1658,19 +1653,19 @@
         <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,19 +1673,19 @@
         <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,19 +1693,19 @@
         <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1853,28 +1848,28 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="79.1302325581395"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.4651162790698"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.52093023255814"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.02790697674419"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.306976744186"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="62.6372093023256"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.15348837209302"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.553488372093"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="64.4837209302326"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,52 +1877,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,19 +1930,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>89</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1</v>
@@ -1956,13 +1951,13 @@
         <v>2</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,10 +1965,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>12</v>
@@ -1985,13 +1980,13 @@
         <v>5</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1999,25 +1994,25 @@
         <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>98</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,19 +2020,19 @@
         <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2045,19 +2040,19 @@
         <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,19 +2060,19 @@
         <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2085,19 +2080,19 @@
         <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2105,22 +2100,22 @@
         <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2148,19 +2143,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.506976744186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.7488372093023"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.1348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1209302325581"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3674418604651"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,40 +2163,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="K1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,25 +2204,25 @@
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>50</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>30</v>
@@ -2236,10 +2231,10 @@
         <v>5</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2267,12 +2262,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,22 +2275,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="D1" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2303,7 +2298,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>4</v>
@@ -2312,13 +2307,13 @@
         <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2326,7 +2321,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -2335,13 +2330,13 @@
         <v>6</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2349,7 +2344,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -2358,13 +2353,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Planogram" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Price" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Survey" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Availability" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Availability" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Survey" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="SOS" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Count" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="131">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -166,9 +166,6 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler</t>
-  </si>
-  <si>
     <t xml:space="preserve">Price communication for all packs in coolers (CCBSA &amp; Dealer Owned Cooler)</t>
   </si>
   <si>
@@ -244,6 +241,57 @@
     <t xml:space="preserve">Price compliance of 2L Twist or 2.25L Diets PET</t>
   </si>
   <si>
+    <t xml:space="preserve">type avia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand strips in coolers (CCBSA &amp; Dealer Owned Coolers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS atrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least one brand strip for every unique SKU under the specific brand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 2 facings per SKU in coolers (CCBSA &amp; Dealer Owned)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability SKU facing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All CCB Products should have at least 2 facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Availabililty of 200ml CAN/300mlRGB/300 ml PET &amp; 440ml Can (CC, SP,FA, ST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCBSA Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Diets Availability of 200ml CAN/300 ml PET &amp;  440 ml Can (CZ,STZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD FC Availabililty of 1.25L,1.5L (CC, SP,FA, ST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Diets Availability of: 1.5L in (CZ,STZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills - Energy Availability of Burn 500ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (BA, BAF,JJ,) Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every unique SKU should have at least 2 facings</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expected Result</t>
   </si>
   <si>
@@ -274,57 +322,6 @@
     <t xml:space="preserve">Pricing Board</t>
   </si>
   <si>
-    <t xml:space="preserve">type avia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand strips in coolers (CCBSA &amp; Dealer Owned Coolers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability POS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS atrr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least one brand strip for every unique SKU under the specific brand </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min 2 facings per SKU in coolers (CCBSA &amp; Dealer Owned)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability SKU facing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All CCB Products should have at least 2 facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Availabililty of 200ml CAN/300mlRGB/300 ml PET &amp; 440ml Can (CC, SP,FA, ST)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCBSA Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Diets Availability of 200ml CAN/300 ml PET &amp;  440 ml Can (CZ,STZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD FC Availabililty of 1.25L,1.5L (CC, SP,FA, ST)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Diets Availability of: 1.5L in (CZ,STZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills - Energy Availability of Burn 500ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (BA, BAF,JJ,) Cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Every unique SKU should have at least 2 facings</t>
-  </si>
-  <si>
     <t xml:space="preserve">Condition 1 - Numerator</t>
   </si>
   <si>
@@ -358,7 +355,7 @@
     <t xml:space="preserve">Score </t>
   </si>
   <si>
-    <t xml:space="preserve">CCBSA Quad Cola ≥ 50% of CCBSA SSD's - cold of which Diets/Zeros/Lights≥30%</t>
+    <t xml:space="preserve">CCBSA Quad Cola &gt;= 50% of CCBSA SSDs - cold of which Diets/Zeros/Lights&gt;=30%</t>
   </si>
   <si>
     <t xml:space="preserve">Quad Cola</t>
@@ -376,16 +373,13 @@
     <t xml:space="preserve">Diets</t>
   </si>
   <si>
-    <t xml:space="preserve">Attirbute 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spaza Affordable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gen D Affordable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"dealer owned" cooler with SOVI &gt; 50% in Energy &amp; SOVI &gt; 35% in Water catgeory, with pricing communication.</t>
+    <t xml:space="preserve">Attribute 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gen D Affordable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dealer owned cooler with SOVI &gt; 50% in Energy &amp; SOVI &gt; 35% in Water catgeory, with pricing communication.</t>
   </si>
   <si>
     <t xml:space="preserve">DOC Cooler</t>
@@ -436,7 +430,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -458,12 +452,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -508,7 +496,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -532,10 +520,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -599,14 +583,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -678,19 +661,19 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.4279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9302325581395"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.353488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.7813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.7813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.1627906976744"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.3488372093023"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.6232558139535"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.9953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,9 +912,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.5953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.6372093023256"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,25 +958,25 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.353488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="67.8093023255814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.553488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.73953488372093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="50.4558139534884"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="85.7720930232558"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.9348837209302"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.9953488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="63.6232558139535"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,28 +1028,28 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="L2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,37 +1057,37 @@
         <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="E3" s="9" t="n">
         <v>200</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1112,13 +1095,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1128,13 +1111,13 @@
         <v>5</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,19 +1125,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>7</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,19 +1145,19 @@
         <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,19 +1165,19 @@
         <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,19 +1185,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1222,19 +1205,19 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>9</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,19 +1225,19 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,19 +1245,19 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>10.5</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1282,19 +1265,19 @@
         <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>12.99</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1302,19 +1285,19 @@
         <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,13 +1305,13 @@
         <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>14</v>
@@ -1337,13 +1320,13 @@
         <v>3</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,7 +1334,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="12"/>
       <c r="J15" s="0" t="n">
@@ -1361,13 +1344,13 @@
         <v>3</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1387,22 +1370,30 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="56.8558139534884"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="97.2186046511628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1209302325581"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.7488372093023"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.29302325581395"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="77.1581395348837"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,327 +1404,242 @@
         <v>31</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>44</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>52</v>
+        <v>78</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>52</v>
+        <v>78</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>52</v>
+        <v>78</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>52</v>
+        <v>78</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>52</v>
+        <v>78</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>52</v>
+      <c r="K8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>26</v>
+        <v>78</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1753,30 +1659,22 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.9116279069768"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.90697674418605"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="60.9162790697674"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="71.9906976744186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.9953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,242 +1685,327 @@
         <v>31</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>52</v>
+      <c r="F4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>98</v>
+      <c r="C11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2042,32 +2025,32 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.8511627906977"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.3953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.8418604651163"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.1348837209302"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="92.2976744186047"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1209302325581"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.0604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.3674418604651"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="26.2139534883721"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0418604651163"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.38604651162791"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2078,37 +2061,37 @@
         <v>34</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>42</v>
@@ -2120,42 +2103,42 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>116</v>
-      </c>
       <c r="K2" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>30</v>
@@ -2164,48 +2147,48 @@
         <v>5</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>116</v>
-      </c>
       <c r="K3" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>30</v>
@@ -2214,10 +2197,10 @@
         <v>4</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2225,45 +2208,46 @@
         <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="G4" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="J4" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="L4" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>35</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2284,27 +2268,27 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7488372093023"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.9953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>31</v>
@@ -2313,7 +2297,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>42</v>
@@ -2330,10 +2314,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4</v>
@@ -2342,10 +2326,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,10 +2337,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>3</v>
@@ -2365,10 +2349,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,10 +2360,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -2388,10 +2372,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="132">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -244,6 +244,9 @@
     <t xml:space="preserve">type avia</t>
   </si>
   <si>
+    <t xml:space="preserve">Template Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brand strips in coolers (CCBSA &amp; Dealer Owned Coolers)</t>
   </si>
   <si>
@@ -397,10 +400,10 @@
     <t xml:space="preserve">Water, KO PRODUCTS</t>
   </si>
   <si>
+    <t xml:space="preserve">Category, Manufacturer_name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template Name</t>
   </si>
   <si>
     <t xml:space="preserve">Min 4 x Cooler Doors</t>
@@ -667,13 +670,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.7813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.1627906976744"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.3488372093023"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.6232558139535"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.1348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.3953488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.5813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.9767441860465"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,9 +915,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.6372093023256"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.0558139534884"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.4837209302326"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,19 +967,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="85.7720930232558"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.9348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="7.26046511627907"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="63.6232558139535"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="88.3581395348837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="7.38604651162791"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.7348837209302"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="65.4697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,28 +1375,28 @@
   </sheetPr>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="97.2186046511628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.7488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.26046511627907"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="100.172093023256"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6093023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.38604651162791"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.38604651162791"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="7.26046511627907"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.89302325581395"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="77.1581395348837"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="7.38604651162791"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="79.3767441860465"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,7 +1410,7 @@
         <v>71</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>35</v>
@@ -1451,20 +1454,20 @@
         <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -1481,7 +1484,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1489,10 +1492,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>47</v>
@@ -1510,7 +1513,7 @@
         <v>51</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1518,13 +1521,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>61</v>
@@ -1544,10 +1547,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>2</v>
@@ -1564,10 +1567,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>2</v>
@@ -1584,10 +1587,10 @@
         <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>2</v>
@@ -1604,10 +1607,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>2</v>
@@ -1624,10 +1627,10 @@
         <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>2</v>
@@ -1639,7 +1642,7 @@
         <v>51</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1661,20 +1664,21 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="71.9906976744186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.8186046511628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.2046511627907"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,10 +1689,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>41</v>
@@ -1708,10 +1712,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>10</v>
@@ -1728,10 +1732,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>50</v>
@@ -1745,10 +1749,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>50</v>
@@ -1762,10 +1766,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>50</v>
@@ -1779,10 +1783,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>50</v>
@@ -1796,10 +1800,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>50</v>
@@ -1813,10 +1817,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>3</v>
@@ -1833,10 +1837,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>3</v>
@@ -1853,10 +1857,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>3</v>
@@ -1873,10 +1877,10 @@
         <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>3</v>
@@ -2027,27 +2031,27 @@
   </sheetPr>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="92.2976744186047"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.0604651162791"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.3674418604651"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="26.2139534883721"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0418604651163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.38604651162791"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1162790697674"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.2651162790698"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7953488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.3488372093023"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="29.4139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="26.9488372093023"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.7813953488372"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="36.0558139534884"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2061,37 +2065,37 @@
         <v>34</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>42</v>
@@ -2108,37 +2112,37 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>113</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>30</v>
@@ -2158,37 +2162,37 @@
         <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>113</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>30</v>
@@ -2200,7 +2204,7 @@
         <v>50</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2208,37 +2212,37 @@
         <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>50</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>35</v>
@@ -2273,14 +2277,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6093023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2288,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>31</v>
@@ -2297,7 +2301,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>42</v>
@@ -2317,7 +2321,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4</v>
@@ -2329,7 +2333,7 @@
         <v>50</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,7 +2344,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>3</v>
@@ -2352,7 +2356,7 @@
         <v>50</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,7 +2367,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -2375,7 +2379,7 @@
         <v>50</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="169">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -208,7 +208,7 @@
     <t xml:space="preserve">CCBSA Cooler, DOC Cooler</t>
   </si>
   <si>
-    <t xml:space="preserve">manufacturer </t>
+    <t xml:space="preserve">manufacturer_name</t>
   </si>
   <si>
     <t xml:space="preserve">KO PRODUCTS</t>
@@ -217,13 +217,106 @@
     <t xml:space="preserve">L&amp;T</t>
   </si>
   <si>
+    <t xml:space="preserve">At least one price should be present for every unique SKU in every Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price compliance of 200ml Can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_ean_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000011114,5449000018601,5449000159151,5449000247285,5449000246264</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spaza Affordable</t>
   </si>
   <si>
-    <t xml:space="preserve">At least one price should be present for every unique SKU in every Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gen D Affordable </t>
+    <t xml:space="preserve">At least one unique price in all of the scene types should reach the needed target or below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price compliance of 300ml PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87126037,54492691,40822921,40822327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price compliance of 440ml Can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000140906,5449000106476,5449000234605,5449000195715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000230188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price compliance of 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000000439,5449000052926,5449000180919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price compliance of 1.25L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000009746,5449000025234,6001134705506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price compliance of 1.5L Sprite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000234629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price compliance of 1.5L PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000180896,5449000133335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price compliance of Burn 500ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5060466519237,5060466515819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price compliance of Sparletta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6001134297308,5449000166241,6001134087305,5449000117977,6001134687307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price compliance: 2L Twist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000098580,5449000060082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price compliance: 2L or 2.25L Diets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000037978,5449000061768,5449000202048,5449000172167,5449000202147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gen D Affordable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey Q CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler Outside or 1st Inside </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Spaza Mainstream</t>
@@ -238,87 +331,6 @@
     <t xml:space="preserve">Gen D Premium</t>
   </si>
   <si>
-    <t xml:space="preserve">Price compliance of 200ml Can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FANTA ORANGE, COCA COLA, SPRITE, STONEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least one unique price in all of the scene types should reach the needed target or below</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance of 300ml PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance of 440ml Can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COCA COLA ZERO, STONEY ZERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance of 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FANTA ORANGE, COCA COLA, STONEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance of 1.25L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance of 1.5L Sprite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPRITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance of 1.5L PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance of Burn 500ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance of Sparletta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance: 2L Twist </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price compliance: 2L or 2.25L Diets </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey Q CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler Outside or 1st Inside </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gen D Affordable</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cooler Decals per door</t>
   </si>
   <si>
@@ -376,51 +388,36 @@
     <t xml:space="preserve">CCBSA Cooler</t>
   </si>
   <si>
-    <t xml:space="preserve">DIETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alt_code_1</t>
+    <t xml:space="preserve">5449000095046,5449000052407,5449000056276,5449000664716,5000112635362,5449000016560,5449000052131,5449000040039,5449000050205,5449000050090,5449000664709,5449000037978,5449000133328,5449000131805,5449000131812,5449000157751,5449000157768,5449000664693,5000112635560,5000112561838,5449000061768,5449000202048,5449000120960,5449000120977,5449000664761,5000112635430,5449000236371,54008014,5449000236388,5449000106704,5449000116093,5449000664785,5000112635409,5449000172167,5449000230188,5449000664792,5449000019691,5449000002969,5449000006844,5449000202147</t>
   </si>
   <si>
     <t xml:space="preserve">SSD</t>
   </si>
   <si>
-    <t xml:space="preserve">Category</t>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA, ST, TW, SCHW &gt;25% out of all KO Products (CCBSA Cooler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000234612,5449000027559,5449000234636,54492691,5449000234599,5449000234674,5449000234582,5449000234605,5449000234643,5449000106704,5449000116093,5449000664785,5000112635409,5449000172167,5449000122544,6001134297308,5449000106261,5449000106278,5449000664884,5449000166241,6001134005507,6001134087305,5449000106322,5449000106339,5449000664846,5449000165848,5449000117977,5449000112767,6001134687307,5449000106292,5449000106308,5449000664853,5449000112774,5449000010070,5449000069429,5449000140562,5449000664723,5449000006271,5449000025234,5449000010049,40822921,5449000011527,5449000056689,5449000664754,90377235,5449000106476,5449000110305,5449000003768,90338663,5449000003201,5449000017086,5449000664747,5000112635416,5449000202048,5449000120960,5449000120977,5449000664761,5000112635430,5449000096104,5449000096807,5449000140760,5449000140777,5449000064998,5449000045515,5449000046598,5449000046604,5449000064165,5449000046581,5449000046567,6001133000138,5449000014917,5449000096098,5449000096913,5449000044808,5449000096111,5449000096784,5449000236371,54008014,5449000236388,5449000251701,5449000171351,5449000251749,5449000246479,5449000064950,6001134705506,6001134707302,5449000106421,40822327,5449000195715,5449000664808,5449000230188,5449000664792,5449000119506,5449000180889,5449000098580,5449000140791,5449000664839,6001134395509,5449000060075,5449000060082,5449000046413,5449000664822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL SSD IC, SSD FC, Twist and Stills must be greater than 50% of All Competitor SSD IC &amp; SSD FC Flavours and Stills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCBSA &amp; DOC Coolers</t>
   </si>
   <si>
     <t xml:space="preserve">Spaza Affordable </t>
   </si>
   <si>
-    <t xml:space="preserve">FA, ST, TW, SCHW &gt;25% out of all KO Products (CCBSA Cooler)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FANTA ORANGE, STONEY, TWIST, SCHWEPPES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL SSD IC, SSD FC, Twist and Stills must be greater than 50% of All Competitor SSD IC &amp; SSD FC Flavours and Stills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCBSA &amp; DOC Coolers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Min 4 x Cooler Doors</t>
   </si>
   <si>
-    <t xml:space="preserve">Gold</t>
-  </si>
-  <si>
     <t xml:space="preserve">Min 3 x Cooler Doors</t>
   </si>
   <si>
-    <t xml:space="preserve">Silver</t>
-  </si>
-  <si>
     <t xml:space="preserve">Min 1 x Cooler Doors</t>
   </si>
   <si>
@@ -436,7 +433,7 @@
     <t xml:space="preserve">Availability POS</t>
   </si>
   <si>
-    <t xml:space="preserve">Product type</t>
+    <t xml:space="preserve">product_type</t>
   </si>
   <si>
     <t xml:space="preserve">POS</t>
@@ -460,15 +457,24 @@
     <t xml:space="preserve">SSD IC Availabililty of 200ml CAN, 300 ml PET, 440ml Can (CC, SP,FA, ST)</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000011114,5449000018601,5449000159151,5449000247285,5449000246264,87126037,54492691,40822921,40822327,5449000140906,5449000106476,5449000234605,5449000195715</t>
+  </si>
+  <si>
     <t xml:space="preserve">All recognized KO Products should have at least 2 facings in ALL of the scene types</t>
   </si>
   <si>
     <t xml:space="preserve">SSD IC Diets Availability of 200ml CAN, 300 ml PET,  440 ml Can (CZ,STZ) </t>
   </si>
   <si>
+    <t xml:space="preserve">90375149,5449000052131,5449000224453,5449000246295,5449000157751,5449000230188</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSD FC Availabililty of 1.25L,1.5L (CC, SP,FA, ST)</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000009746,5449000025234,5449000027559,6001134705506,5449000000439,5449000234629,5449000052926,5449000180919</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSD IC Diets Availability of: 1.5L in (CZ,STZ)</t>
   </si>
   <si>
@@ -484,7 +490,10 @@
     <t xml:space="preserve">Energy Pricing Poster</t>
   </si>
   <si>
-    <t xml:space="preserve">Product Name</t>
+    <t xml:space="preserve">product_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn A2 R10</t>
   </si>
   <si>
     <t xml:space="preserve">POSM recognition</t>
@@ -493,19 +502,37 @@
     <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (BA) Cold</t>
   </si>
   <si>
+    <t xml:space="preserve">90492853</t>
+  </si>
+  <si>
     <t xml:space="preserve">Every unique SKU should have at least 2 facings</t>
   </si>
   <si>
     <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (BAF) Cold</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000117830,5449000117823,5449000117809,5449000117816,5449000117793</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (PP) Cold</t>
   </si>
   <si>
+    <t xml:space="preserve">5060466513204,5060466513112,5060466513174,5060466513051,5060466513082</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (JJ,) Cold</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000211910,5449000211972,5449000212818,5449000212870,5449000211880,5449000211859,5449000212849,5449000212788,5449000212009,5449000211941</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pricing Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pricing Board - Why Pay More</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC &amp; FC  Pricing Posters</t>
   </si>
 </sst>
 </file>
@@ -516,7 +543,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -541,6 +568,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -617,7 +651,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -654,7 +688,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -662,8 +700,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -674,12 +728,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -763,21 +825,21 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4093023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.106976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.8883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="20.7953488372093"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="18.706976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.5162790697674"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.1488372093023"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.8279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.9953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.2883720930233"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="19.3209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1114,18 +1176,18 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5627906976744"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2976744186047"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.4232558139535"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.506976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1171,38 +1233,38 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q8" activeCellId="0" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="69.7767441860465"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.2883720930233"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.553488372093"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.6604651162791"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="77.5302325581395"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="71.8697674418605"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="71.7441860465116"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.6418604651163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.24651162790698"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="79.8651162790698"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1215,7 +1277,7 @@
       <c r="D1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -1256,239 +1318,291 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="9" t="s">
         <v>61</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="O2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="8" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="C3" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="0" t="s">
+      <c r="D3" s="12" t="s">
         <v>65</v>
       </c>
+      <c r="E3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="O3" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>14</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>58</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>66</v>
+      <c r="D4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>58</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="D5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="N5" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="O5" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>14</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="10" t="s">
+      <c r="D6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>58</v>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>69</v>
+      <c r="D7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="11" t="n">
-        <v>200</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="D8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>75</v>
       </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>63</v>
+      <c r="L8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>22</v>
@@ -1497,48 +1611,40 @@
         <v>14</v>
       </c>
       <c r="Q8" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="11" t="n">
-        <v>300</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="0" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>63</v>
+      <c r="L9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>22</v>
@@ -1547,48 +1653,40 @@
         <v>14</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="11" t="n">
-        <v>440</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="0" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>63</v>
+      <c r="L10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>22</v>
@@ -1597,48 +1695,40 @@
         <v>14</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>79</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="11" t="n">
-        <v>440</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="D11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="0" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>63</v>
+      <c r="L11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>22</v>
@@ -1647,44 +1737,38 @@
         <v>14</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>81</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="11" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="D12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
       <c r="J12" s="0" t="n">
         <v>13</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>63</v>
+      <c r="L12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>22</v>
@@ -1693,265 +1777,602 @@
         <v>14</v>
       </c>
       <c r="Q12" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="C23" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="11" t="n">
-        <v>1250</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="0" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K13" s="0" t="n">
+      <c r="F26" s="12"/>
+      <c r="G26" s="11"/>
+      <c r="J26" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="K26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="L26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="11" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="C27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="P14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="11" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="J16" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="J17" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="J18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="J19" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>63</v>
+      <c r="L27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1968,23 +2389,23 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.5767441860465"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.4232558139535"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.693023255814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1992,10 +2413,10 @@
         <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>54</v>
@@ -2010,130 +2431,118 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>69</v>
+      <c r="F7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2141,326 +2550,326 @@
         <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="F8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="F9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="F10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="F11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="F12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="F17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>38</v>
       </c>
@@ -2485,32 +2894,32 @@
   </sheetPr>
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S5" activeCellId="0" sqref="S5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.986046511628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.5348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5813953488372"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="23.506976744186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.9209302325581"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.7488372093023"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0186046511628"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.1348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="107.186046511628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.4558139534884"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4418604651163"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="24.1209302325581"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.6558139534884"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.3674418604651"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.4139534883721"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2521,34 +2930,34 @@
         <v>47</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>42</v>
@@ -2569,27 +2978,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="171" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>65</v>
@@ -2597,11 +3006,8 @@
       <c r="N2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>120</v>
+      <c r="O2" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>22</v>
@@ -2610,27 +3016,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>61</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>25</v>
@@ -2638,11 +3044,8 @@
       <c r="N3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>120</v>
+      <c r="O3" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>22</v>
@@ -2651,7 +3054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
@@ -2664,11 +3067,11 @@
       <c r="H4" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="11" t="s">
         <v>62</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>22</v>
@@ -2694,35 +3097,35 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2976744186047"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.6325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -2748,14 +3151,14 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>127</v>
+      <c r="B2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4</v>
@@ -2766,11 +3169,11 @@
       <c r="F2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>63</v>
+      <c r="G2" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>22</v>
@@ -2780,13 +3183,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>129</v>
       </c>
       <c r="D3" s="0" t="n">
@@ -2798,28 +3201,28 @@
       <c r="F3" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>63</v>
+      <c r="G3" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="H3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>130</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -2830,16 +3233,112 @@
       <c r="F4" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>63</v>
+      <c r="G4" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2860,35 +3359,35 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P13" activeCellId="0" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.706976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="65.4837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.4279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0883720930233"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.1488372093023"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.4372093023256"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.8279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="47.5023255813954"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.47441860465116"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.02790697674419"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.6325581395349"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.553488372093"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.4372093023256"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="70.6372093023256"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.15348837209302"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.7674418604651"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="72.7302325581395"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2896,7 +3395,7 @@
         <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>47</v>
@@ -2904,7 +3403,7 @@
       <c r="E1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -2944,667 +3443,823 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>141</v>
-      </c>
       <c r="D3" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="F3" s="0"/>
       <c r="K3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="M3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="11"/>
       <c r="P3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="14" t="s">
+      <c r="Q3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" s="11" customFormat="true" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" s="11" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" s="11" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="0" t="n">
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="0" t="s">
+      <c r="L12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="14"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="F13" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="K16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" s="11" customFormat="true" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="D17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R5" s="14"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="L17" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" s="11" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="D18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="M6" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="14"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="L18" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="D19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R7" s="14"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="L19" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="14"/>
-    </row>
-    <row r="9" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="K9" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" s="8" t="s">
+      <c r="M20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="K10" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="K11" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="K12" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="K13" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="C21" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="K14" s="9" t="n">
+      <c r="D21" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="K21" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="9" t="n">
+      <c r="L21" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="K15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="M21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R21" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="K16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="K17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="K18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="K19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>153</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="R3:R8"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="194">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -43,22 +43,22 @@
     <t xml:space="preserve">Dependancy</t>
   </si>
   <si>
-    <t xml:space="preserve">L&amp;T Spaza Affordable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;T Gen D Affordable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;T Spaza Mainstream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;T Gen D Mainstream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;T Spaza Premium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;T Gen D Premium</t>
+    <t xml:space="preserve">L&amp;T SPAZA AFFORDABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L&amp;T GENERAL DEALER AFFORDABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L&amp;T SPAZA MAINSTREAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L&amp;T GENERAL DEALER MAINSTREAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L&amp;T SPAZA PREMIUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L&amp;T GENERAL DEALER PREMIUM</t>
   </si>
   <si>
     <t xml:space="preserve">COOLERS &amp; MERCHANDISING</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">Atomic KPI Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Template Display Name </t>
+    <t xml:space="preserve">Template Display Name</t>
   </si>
   <si>
     <t xml:space="preserve">Target</t>
@@ -229,7 +229,7 @@
     <t xml:space="preserve">5449000011114,5449000018601,5449000159151,5449000247285,5449000246264</t>
   </si>
   <si>
-    <t xml:space="preserve">Spaza Affordable</t>
+    <t xml:space="preserve">SPAZA AFFORDABLE</t>
   </si>
   <si>
     <t xml:space="preserve">At least one unique price in all of the scene types should reach the needed target or below</t>
@@ -247,10 +247,10 @@
     <t xml:space="preserve">5449000140906,5449000106476,5449000234605,5449000195715</t>
   </si>
   <si>
-    <t xml:space="preserve">Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver</t>
+    <t xml:space="preserve">GOLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVER</t>
   </si>
   <si>
     <t xml:space="preserve">5449000230188</t>
@@ -304,7 +304,7 @@
     <t xml:space="preserve">5449000037978,5449000061768,5449000202048,5449000172167,5449000202147</t>
   </si>
   <si>
-    <t xml:space="preserve">Gen D Affordable</t>
+    <t xml:space="preserve">GENERAL DEALER AFFORDABLE</t>
   </si>
   <si>
     <t xml:space="preserve">Expected Result</t>
@@ -319,16 +319,16 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Spaza Mainstream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gen D Mainstream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spaza Premium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gen D Premium</t>
+    <t xml:space="preserve">SPAZA MAINSTREAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENERAL DEALER MAINSTREAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPAZA PREMIUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENERAL DEALER PREMIUM</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler Decals per door</t>
@@ -343,196 +343,271 @@
     <t xml:space="preserve">Signage available and in good condition</t>
   </si>
   <si>
+    <t xml:space="preserve">New Product Development(NPD)/Promotional Poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x IC (300ml PET) Combo  &amp;  1 x FC (1.25L) Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparletta 2L Bulk Display with Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD 1.25L Bulk Display with Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 1 - Numerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 1 - Numerator Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 1 - Denominator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 1 - Denominator Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 1 - Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 2 - Numerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 2 - Numerator Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 2 - Denominator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 2 - Denominator Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 2 - Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diets &gt; 65% out of all CCBSA SSD (CCBSA Cooler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCBSA Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alt_code_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA, ST, TW, SCHW &gt;25% out of all KO Products (CCBSA Cooler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FANTA ORANGE, STONEY, TWIST, SCHWEPPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL SSD IC, SSD FC, Twist and Stills must be greater than 50% of All Competitor SSD IC &amp; SSD FC Flavours and Stills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCBSA &amp; DOC Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 4 x Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 3 x Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 1 x Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRONZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type avia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand strips in coolers (CCBSA &amp; Dealer Owned Coolers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least one brand strip for every unique SKU under the specific brand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 2 facings per SKU in coolers (CCBSA &amp; Dealer Owned)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability SKU facing And</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All recognized KO Products should have at least 2 facings in every cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Availabililty of 200ml CAN, 300 ml PET, 440ml Can (CC, SP,FA, ST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000011114,5449000018601,5449000159151,5449000247285,5449000246264,87126037,54492691,40822921,40822327,5449000140906,5449000106476,5449000234605,5449000195715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All recognized KO Products should have at least 2 facings in ALL of the scene types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Availabililty of: 200ml CAN, 300 ml PET (CC, SP,FA or ST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000011114,5449000018601,5449000159151,5449000247285,5449000246264,87126037,54492691,40822921,40822327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Diets Availability of 200ml CAN, 300 ml PET,  440 ml Can (CZ,STZ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">90375149,5449000052131,5449000224453,5449000246295,5449000157751,5449000230188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90375149,5449000052131,5449000224453,5449000246295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD FC Availabililty of 1.25L,1.5L (CC, SP,FA, ST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000009746,5449000025234,5449000027559,6001134705506,5449000000439,5449000234629,5449000052926,5449000180919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Diets Availability of: 1.5L in (CZ,STZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills - Energy Burn 500ml Availability </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Energy Pricing Poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Pricing Poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn A2 R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (BA) Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90492853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every unique SKU should have at least 2 facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (BAF) Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000117830,5449000117823,5449000117809,5449000117816,5449000117793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (PP) Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5060466513204,5060466513112,5060466513174,5060466513051,5060466513082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (JJ,) Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000211910,5449000211972,5449000212818,5449000212870,5449000211880,5449000211859,5449000212849,5449000212788,5449000212009,5449000211941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pricing Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pricing Board - Why Pay More</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC &amp; FC  Pricing Posters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC OBM 300ML PET,IC OBM 330ML CAN,IC OBM 440ML CAN,IC OBM 440ML PET,FC OBM 1.5L PET,FC OBM 1.25L RGB,FC OBM 1L PET,FC OBM 2.25L PET,FC OBM 2L PET</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sparletta Call Out - Pricing Poster</t>
   </si>
   <si>
-    <t xml:space="preserve">New Product Development(NPD)/Promotional Poster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x IC (300ml PET) Combo  &amp;  1 x FC (1.25L) Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 1 - Numerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 1 - Numerator Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 1 - Denominator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 1 - Denominator Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 1 - Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 2 - Numerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 2 - Numerator Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 2 - Denominator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 2 - Denominator Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 2 - Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diets &gt; 65% out of all CCBSA SSD (CCBSA Cooler)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCBSA Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000095046,5449000052407,5449000056276,5449000664716,5000112635362,5449000016560,5449000052131,5449000040039,5449000050205,5449000050090,5449000664709,5449000037978,5449000133328,5449000131805,5449000131812,5449000157751,5449000157768,5449000664693,5000112635560,5000112561838,5449000061768,5449000202048,5449000120960,5449000120977,5449000664761,5000112635430,5449000236371,54008014,5449000236388,5449000106704,5449000116093,5449000664785,5000112635409,5449000172167,5449000230188,5449000664792,5449000019691,5449000002969,5449000006844,5449000202147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA, ST, TW, SCHW &gt;25% out of all KO Products (CCBSA Cooler)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000234612,5449000027559,5449000234636,54492691,5449000234599,5449000234674,5449000234582,5449000234605,5449000234643,5449000106704,5449000116093,5449000664785,5000112635409,5449000172167,5449000122544,6001134297308,5449000106261,5449000106278,5449000664884,5449000166241,6001134005507,6001134087305,5449000106322,5449000106339,5449000664846,5449000165848,5449000117977,5449000112767,6001134687307,5449000106292,5449000106308,5449000664853,5449000112774,5449000010070,5449000069429,5449000140562,5449000664723,5449000006271,5449000025234,5449000010049,40822921,5449000011527,5449000056689,5449000664754,90377235,5449000106476,5449000110305,5449000003768,90338663,5449000003201,5449000017086,5449000664747,5000112635416,5449000202048,5449000120960,5449000120977,5449000664761,5000112635430,5449000096104,5449000096807,5449000140760,5449000140777,5449000064998,5449000045515,5449000046598,5449000046604,5449000064165,5449000046581,5449000046567,6001133000138,5449000014917,5449000096098,5449000096913,5449000044808,5449000096111,5449000096784,5449000236371,54008014,5449000236388,5449000251701,5449000171351,5449000251749,5449000246479,5449000064950,6001134705506,6001134707302,5449000106421,40822327,5449000195715,5449000664808,5449000230188,5449000664792,5449000119506,5449000180889,5449000098580,5449000140791,5449000664839,6001134395509,5449000060075,5449000060082,5449000046413,5449000664822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL SSD IC, SSD FC, Twist and Stills must be greater than 50% of All Competitor SSD IC &amp; SSD FC Flavours and Stills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCBSA &amp; DOC Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spaza Affordable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min 4 x Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min 3 x Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min 1 x Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type avia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand strips in coolers (CCBSA &amp; Dealer Owned Coolers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability POS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand (new label)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least one brand strip for every unique SKU under the specific brand </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min 2 facings per SKU in coolers (CCBSA &amp; Dealer Owned)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability SKU facing And</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All recognized KO Products should have at least 2 facings in every cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Availabililty of 200ml CAN, 300 ml PET, 440ml Can (CC, SP,FA, ST)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000011114,5449000018601,5449000159151,5449000247285,5449000246264,87126037,54492691,40822921,40822327,5449000140906,5449000106476,5449000234605,5449000195715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All recognized KO Products should have at least 2 facings in ALL of the scene types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Diets Availability of 200ml CAN, 300 ml PET,  440 ml Can (CZ,STZ) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">90375149,5449000052131,5449000224453,5449000246295,5449000157751,5449000230188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD FC Availabililty of 1.25L,1.5L (CC, SP,FA, ST)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000009746,5449000025234,5449000027559,6001134705506,5449000000439,5449000234629,5449000052926,5449000180919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Diets Availability of: 1.5L in (CZ,STZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills - Energy Burn 500ml Availability </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Energy Pricing Poster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability POSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Pricing Poster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn A2 R10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSM recognition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (BA) Cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90492853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Every unique SKU should have at least 2 facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (BAF) Cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000117830,5449000117823,5449000117809,5449000117816,5449000117793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (PP) Cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5060466513204,5060466513112,5060466513174,5060466513051,5060466513082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (JJ,) Cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000211910,5449000211972,5449000212818,5449000212870,5449000211880,5449000211859,5449000212849,5449000212788,5449000212009,5449000211941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pricing Board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pricing Board - Why Pay More</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC &amp; FC  Pricing Posters</t>
+    <t xml:space="preserve">Sparletta Call Out Pricing Poster 1,Sparletta Call Out Pricing Poster 2,Sparletta Call Out Pricing Poster 3,Sparletta Call Out Pricing Poster 4,Sparletta Call Out Pricing Poster 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Availabililty of: 300 ml PET,440ml Can (CC, SP,FA, ST), 440ml PET (CC, SP, FA or ST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87126037,54492691,40822921,40822327,5449000140906,5449000106476,5449000234605,5449000195715,5449000664686,5449000664754,5449000234643,5449000664808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC pack sizes: 300 ml PET,440ml can (CC, SP,FA or ST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87126037,54492691,40822921,40822327,5449000140906,5449000106476,5449000234605,5449000195715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Diets Brands/Packs: 300ml PET  (CZ), 440 ml Can, 440ml PET (CZ,STZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90375149,5449000157751,5449000230188,5449000664716,5449000664709,5449000664693,5449000664761,5449000664785,5449000664792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Diets Brands/Packs: 300ml PET  (CZ), 440 ml Can (CZ,STZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90375149,5449000157751,5449000230188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD FC pack sizes:1.25L(CC),1.5L,2L  (CC, SP,FA, ST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000009746,5449000025234,5449000027559,6001134705506,5449000000439,5449000234629,5449000052926,5449000180919,5449000009067,5449000010049,5449000234636,6001134707302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD FC pack sizes: 1.25L (CC),1.5L  (CC, SP, ST or FA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Diets Brands/Packs: 1.5L in (CZ/STZ),  2L (CZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000180896,5449000133335,5449000037978,5449000061768,5449000202048,5449000172167,5449000202147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Diets Brands/Packs: 1.5L in (CZ/SZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills Availability of Burn in 500ml Can &amp; PP in 440ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5060466519237,5060466515819,5060466513204,5060466513112,5060466513174,5060466513051,5060466513082</t>
   </si>
 </sst>
 </file>
@@ -543,7 +618,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -565,12 +640,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -622,7 +691,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -646,12 +715,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -700,7 +765,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -710,14 +775,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -740,19 +797,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -824,22 +876,23 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.5162790697674"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.1488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.8279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.9953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.2883720930233"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="19.3209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.6279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2558139534884"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.9348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.2279069767442"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9813953488372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.7953488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.7813953488372"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.1813953488372"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="19.9348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,8 +1052,12 @@
       <c r="F7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>3</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1127,7 +1184,9 @@
       <c r="F13" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="n">
+        <v>14</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1150,7 +1209,9 @@
       <c r="F14" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1175,19 +1236,19 @@
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.506976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1233,35 +1294,34 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="71.8697674418605"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="71.7441860465116"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.6418604651163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.24651162790698"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="79.8651162790698"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.0744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="74.0837209302326"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="73.8372093023256"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9953488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.49302325581395"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.0418604651163"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.4883720930233"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="82.3302325581395"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,7 +1903,15 @@
       <c r="M14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Q14" s="8"/>
+      <c r="O14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -1873,7 +1941,15 @@
       <c r="M15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Q15" s="8"/>
+      <c r="O15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -1902,6 +1978,15 @@
       </c>
       <c r="M16" s="11" t="s">
         <v>67</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,6 +2451,120 @@
         <v>14</v>
       </c>
       <c r="Q27" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2386,23 +2585,23 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.4232558139535"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.693023255814"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.1441860465116"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.7209302325581"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.0604651162791"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.4883720930233"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2484,6 +2683,9 @@
         <v>96</v>
       </c>
       <c r="D4" s="8"/>
+      <c r="E4" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="F4" s="11" t="s">
         <v>62</v>
       </c>
@@ -2682,14 +2884,14 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>62</v>
@@ -2699,19 +2901,16 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>32</v>
+      <c r="A16" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>96</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="F16" s="11" t="s">
         <v>62</v>
       </c>
@@ -2720,160 +2919,175 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>37</v>
+      <c r="A17" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="8"/>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="F17" s="11" t="s">
         <v>62</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="D18" s="8"/>
+      <c r="E18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="D19" s="8"/>
+      <c r="E19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="D20" s="8"/>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="D21" s="8"/>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>38</v>
+      <c r="A22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="D22" s="8"/>
+      <c r="F22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D38" s="8"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2892,31 +3106,31 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.1348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="107.186046511628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.4558139534884"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4418604651163"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="24.1209302325581"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.153488372093"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.6558139534884"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.3674418604651"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.4139534883721"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="110.386046511628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.9302325581395"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.3023255813953"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="24.8604651162791"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.5209302325581"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.106976744186"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="32.4883720930233"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.693023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2930,34 +3144,34 @@
         <v>47</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>42</v>
@@ -2978,27 +3192,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="171" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>65</v>
+      <c r="D2" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>122</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>65</v>
@@ -3016,21 +3230,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>65</v>
+        <v>120</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>61</v>
@@ -3059,10 +3273,10 @@
         <v>35</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H4" s="8" t="n">
         <v>50</v>
@@ -3071,12 +3285,48 @@
         <v>62</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="S4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3097,35 +3347,35 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.0418604651163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.4883720930233"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -3151,14 +3401,14 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>128</v>
+      <c r="B2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4</v>
@@ -3183,14 +3433,14 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>129</v>
+      <c r="B3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>3</v>
@@ -3215,14 +3465,14 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>130</v>
+      <c r="B4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -3237,7 +3487,7 @@
         <v>67</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>22</v>
@@ -3247,14 +3497,14 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>128</v>
+      <c r="B5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>4</v>
@@ -3279,14 +3529,14 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>129</v>
+      <c r="B6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>3</v>
@@ -3311,14 +3561,14 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>130</v>
+      <c r="B7" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -3333,12 +3583,108 @@
         <v>92</v>
       </c>
       <c r="H7" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="0" t="s">
+      <c r="D9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="0" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3359,32 +3705,32 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P13" activeCellId="0" sqref="P13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P31" activeCellId="0" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.4372093023256"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.8279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="47.5023255813954"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.7720930232558"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.9023255813953"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.6883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="61.4093023255814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.72093023255814"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.15348837209302"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.7674418604651"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="72.7302325581395"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.4883720930233"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.1348837209302"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="74.9441860465116"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3395,7 +3741,7 @@
         <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>47</v>
@@ -3448,22 +3794,22 @@
         <v>12</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -3486,7 +3832,7 @@
         <v>14</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3494,10 +3840,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>59</v>
@@ -3519,28 +3865,28 @@
       <c r="Q3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" s="11" customFormat="true" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R3" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" s="11" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="D4" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>143</v>
+      <c r="F4" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="K4" s="11" t="n">
         <v>2</v>
@@ -3554,6 +3900,9 @@
       <c r="N4" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="O4" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="P4" s="11" t="s">
         <v>22</v>
       </c>
@@ -3561,33 +3910,33 @@
         <v>14</v>
       </c>
       <c r="R4" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" s="11" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="5" s="11" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>146</v>
-      </c>
       <c r="K5" s="11" t="n">
         <v>2</v>
       </c>
       <c r="L5" s="11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>62</v>
@@ -3595,6 +3944,9 @@
       <c r="N5" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="O5" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="P5" s="11" t="s">
         <v>22</v>
       </c>
@@ -3602,18 +3954,18 @@
         <v>14</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" s="11" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" s="11" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>147</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>59</v>
@@ -3621,14 +3973,14 @@
       <c r="E6" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="19" t="s">
         <v>148</v>
       </c>
       <c r="K6" s="11" t="n">
         <v>2</v>
       </c>
       <c r="L6" s="11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>62</v>
@@ -3636,6 +3988,9 @@
       <c r="N6" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="O6" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="P6" s="11" t="s">
         <v>22</v>
       </c>
@@ -3643,18 +3998,18 @@
         <v>14</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" s="11" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>149</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>59</v>
@@ -3662,14 +4017,14 @@
       <c r="E7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>83</v>
+      <c r="F7" s="19" t="s">
+        <v>150</v>
       </c>
       <c r="K7" s="11" t="n">
         <v>2</v>
       </c>
       <c r="L7" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>62</v>
@@ -3677,6 +4032,9 @@
       <c r="N7" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="O7" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="P7" s="11" t="s">
         <v>22</v>
       </c>
@@ -3684,27 +4042,33 @@
         <v>14</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" s="11" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>85</v>
-      </c>
       <c r="K8" s="11" t="n">
         <v>2</v>
+      </c>
+      <c r="L8" s="11" t="n">
+        <v>8</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>62</v>
@@ -3712,6 +4076,9 @@
       <c r="N8" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="O8" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="P8" s="11" t="s">
         <v>22</v>
       </c>
@@ -3719,33 +4086,33 @@
         <v>14</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>155</v>
-      </c>
       <c r="K9" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>62</v>
@@ -3753,6 +4120,9 @@
       <c r="N9" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="O9" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="P9" s="11" t="s">
         <v>22</v>
       </c>
@@ -3760,18 +4130,18 @@
         <v>14</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>157</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>59</v>
@@ -3779,14 +4149,18 @@
       <c r="E10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="K10" s="0" t="n">
+      <c r="F10" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11" t="n">
         <v>2</v>
       </c>
       <c r="L10" s="11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>62</v>
@@ -3801,18 +4175,18 @@
         <v>14</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>160</v>
+      <c r="A11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>59</v>
@@ -3820,14 +4194,14 @@
       <c r="E11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="K11" s="0" t="n">
+      <c r="F11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="11" t="n">
         <v>2</v>
       </c>
       <c r="L11" s="11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>62</v>
@@ -3836,24 +4210,21 @@
         <v>67</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>140</v>
+        <v>21</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>59</v>
@@ -3861,14 +4232,11 @@
       <c r="E12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" s="11" t="n">
-        <v>1</v>
+      <c r="F12" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>62</v>
@@ -3877,39 +4245,39 @@
         <v>67</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>140</v>
+        <v>23</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>2</v>
+        <v>159</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="11" t="n">
+        <v>1</v>
       </c>
       <c r="L13" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>62</v>
@@ -3918,39 +4286,39 @@
         <v>67</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>167</v>
+        <v>65</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="K14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" s="11" t="n">
         <v>1</v>
-      </c>
-      <c r="L14" s="11" t="n">
-        <v>2</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>62</v>
@@ -3958,9 +4326,6 @@
       <c r="N14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="P14" s="11" t="s">
         <v>22</v>
       </c>
@@ -3968,33 +4333,33 @@
         <v>14</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>167</v>
-      </c>
       <c r="K15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="11" t="n">
         <v>1</v>
-      </c>
-      <c r="L15" s="11" t="n">
-        <v>2</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>62</v>
@@ -4002,41 +4367,40 @@
       <c r="N15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="O15" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="P15" s="11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="22"/>
       <c r="K16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" s="11" t="n">
         <v>1</v>
-      </c>
-      <c r="L16" s="11" t="n">
-        <v>2</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>62</v>
@@ -4044,90 +4408,90 @@
       <c r="N16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="O16" s="0" t="s">
-        <v>131</v>
-      </c>
       <c r="P16" s="11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="11" t="s">
         <v>14</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" s="11" customFormat="true" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="D17" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="K17" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" s="11" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>59</v>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>171</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="K18" s="11" t="n">
-        <v>2</v>
+        <v>159</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L18" s="11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>62</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>92</v>
+        <v>67</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="P18" s="11" t="s">
         <v>22</v>
@@ -4136,39 +4500,42 @@
         <v>14</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>59</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>171</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" s="11" t="n">
-        <v>2</v>
+        <v>159</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L19" s="11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>62</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>92</v>
+        <v>67</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>22</v>
@@ -4177,33 +4544,42 @@
         <v>14</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>173</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="K20" s="11" t="n">
+        <v>159</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="11" t="n">
         <v>2</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>62</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>92</v>
+        <v>67</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="P20" s="11" t="s">
         <v>22</v>
@@ -4212,33 +4588,33 @@
         <v>14</v>
       </c>
       <c r="R20" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" s="11" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>152</v>
+      <c r="C21" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>155</v>
+        <v>65</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="K21" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M21" s="11" t="s">
         <v>62</v>
@@ -4246,6 +4622,9 @@
       <c r="N21" s="11" t="s">
         <v>92</v>
       </c>
+      <c r="O21" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="P21" s="11" t="s">
         <v>22</v>
       </c>
@@ -4253,7 +4632,1333 @@
         <v>14</v>
       </c>
       <c r="R21" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" s="11" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" s="11" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" s="11" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" s="11" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L25" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>156</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q38" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R42" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L44" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q44" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R44" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L45" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q45" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="P46" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q46" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q48" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="P49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q49" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R50" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P51" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K52" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -415,7 +415,7 @@
     <t xml:space="preserve">ALL SSD IC, SSD FC, Twist and Stills must be greater than 50% of All Competitor SSD IC &amp; SSD FC Flavours and Stills</t>
   </si>
   <si>
-    <t xml:space="preserve">CCBSA &amp; DOC Coolers</t>
+    <t xml:space="preserve">CCBSA,DOC Coolers</t>
   </si>
   <si>
     <t xml:space="preserve">Min 4 x Cooler Doors</t>
@@ -877,22 +877,22 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.6279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2558139534884"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.9348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.2279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9813953488372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.7953488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.7813953488372"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.1813953488372"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="19.9348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.7348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.3627906976744"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.9209302325581"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4418604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.4558139534884"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.7209302325581"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.7813953488372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.3953488372093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.1627906976744"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,16 +1236,16 @@
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,27 +1301,28 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.0744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="74.0837209302326"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="73.8372093023256"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9953488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.4883720930233"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="82.3302325581395"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="76.2976744186047"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="76.0511627906977"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.4697674418605"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="84.7906976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2593,15 +2594,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.1441860465116"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.7209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.0604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.4883720930233"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.9906976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2139534883721"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.306976744186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3108,29 +3109,29 @@
   </sheetPr>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="110.386046511628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.9302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.3023255813953"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="24.8604651162791"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.5209302325581"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.106976744186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.2744186046512"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="32.4883720930233"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.693023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.4697674418605"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="113.711627906977"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.4093023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.0418604651163"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.3813953488372"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.8418604651163"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.1348837209302"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.0604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3355,17 +3356,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.4883720930233"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.5488372093023"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,30 +3708,29 @@
   </sheetPr>
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P31" activeCellId="0" sqref="P31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.7720930232558"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.9023255813953"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.6883720930233"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="61.4093023255814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.8325581395349"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.7674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.5488372093023"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="63.2558139534884"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.6139534883721"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.4883720930233"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.1348837209302"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="74.9441860465116"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="77.2837209302326"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4368,7 +4368,7 @@
         <v>67</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="11" t="s">
         <v>14</v>
@@ -4409,7 +4409,7 @@
         <v>67</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="11" t="s">
         <v>14</v>
@@ -4450,7 +4450,7 @@
         <v>67</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="11" t="s">
         <v>14</v>

--- a/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,9 @@
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$R$76</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Price!$A$1:$Q$66</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Price!$A$1:$Q$66</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Price!$A$1:$Q$66</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$R$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$R$76</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -103,7 +105,7 @@
     <t xml:space="preserve">SSD FC Diets</t>
   </si>
   <si>
-    <t xml:space="preserve">Stills - Energy </t>
+    <t xml:space="preserve">Stills – Energy</t>
   </si>
   <si>
     <t xml:space="preserve">Stills - Energy Poster</t>
@@ -304,7 +306,7 @@
     <t xml:space="preserve">6001134297308,5449000166241,6001134087305,5449000117977,6001134687307</t>
   </si>
   <si>
-    <t xml:space="preserve">Price compliance: 2L Twist </t>
+    <t xml:space="preserve">Price compliance: 2L Twist</t>
   </si>
   <si>
     <t xml:space="preserve">5449000098580,5449000060082</t>
@@ -526,6 +528,9 @@
     <t xml:space="preserve">90375149,5449000052131,5449000224453,5449000246295,5449000157751,5449000230188</t>
   </si>
   <si>
+    <t xml:space="preserve">SSD IC Diets Availability of: 200ml CAN, 300 ml PET CZ,STZ)</t>
+  </si>
+  <si>
     <t xml:space="preserve">90375149,5449000052131,5449000224453,5449000246295</t>
   </si>
   <si>
@@ -647,9 +652,6 @@
   </si>
   <si>
     <t xml:space="preserve">SSD Diets Brands/Packs: 1.5L in (CZ/SZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills - Energy</t>
   </si>
   <si>
     <t xml:space="preserve">Stills Availability of Burn in 500ml Can &amp; PP in 440ml</t>
@@ -978,27 +980,27 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.7348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.3627906976744"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.9209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.7209302325581"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.7813953488372"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.3953488372093"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="37.1627906976744"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.1953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.8279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0093023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.1953488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.9953488372093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.6279069767442"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.2558139534884"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1282,7 +1284,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1306,7 +1308,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -1336,7 +1338,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1383,16 +1385,16 @@
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1443,36 +1445,36 @@
   </sheetPr>
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B52" activeCellId="0" sqref="B52"/>
+      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="A63" activeCellId="0" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="76.2976744186047"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="76.0511627906977"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.4697674418605"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.73953488372093"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="33.4744186046512"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="84.7906976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="80.8511627906977"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="80.6046511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="52.5488372093023"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.4418604651163"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="89.8372093023256"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1525,7 +1527,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
@@ -1558,7 +1560,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
@@ -1600,7 +1602,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
@@ -1642,7 +1644,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
@@ -1687,7 +1689,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
@@ -1732,7 +1734,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
@@ -1777,7 +1779,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
@@ -1822,7 +1824,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
@@ -1864,7 +1866,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
@@ -1906,7 +1908,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1948,7 +1950,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
@@ -1988,7 +1990,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>23</v>
       </c>
@@ -2023,7 +2025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>29</v>
       </c>
@@ -2061,7 +2063,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>31</v>
       </c>
@@ -2099,7 +2101,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>31</v>
       </c>
@@ -2137,7 +2139,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
@@ -2179,7 +2181,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -2221,7 +2223,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
@@ -2266,7 +2268,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
@@ -2311,7 +2313,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
@@ -2356,7 +2358,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
@@ -2401,7 +2403,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
@@ -2443,7 +2445,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
@@ -2485,7 +2487,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -2527,7 +2529,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -2567,7 +2569,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>23</v>
       </c>
@@ -2602,7 +2604,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>29</v>
       </c>
@@ -2678,7 +2680,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>31</v>
       </c>
@@ -2716,7 +2718,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
         <v>18</v>
       </c>
@@ -2758,7 +2760,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
         <v>18</v>
       </c>
@@ -2800,7 +2802,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
         <v>18</v>
       </c>
@@ -2845,7 +2847,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
         <v>18</v>
       </c>
@@ -2890,7 +2892,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
         <v>20</v>
       </c>
@@ -2933,7 +2935,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
         <v>21</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
         <v>21</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
         <v>21</v>
       </c>
@@ -3050,7 +3052,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
         <v>22</v>
       </c>
@@ -3088,7 +3090,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
         <v>21</v>
       </c>
@@ -3126,7 +3128,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
         <v>22</v>
       </c>
@@ -3167,7 +3169,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
         <v>21</v>
       </c>
@@ -3208,7 +3210,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
         <v>22</v>
       </c>
@@ -3249,7 +3251,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>23</v>
       </c>
@@ -3288,7 +3290,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>23</v>
       </c>
@@ -3327,7 +3329,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>29</v>
       </c>
@@ -3403,7 +3405,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>31</v>
       </c>
@@ -3441,7 +3443,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
         <v>18</v>
       </c>
@@ -3483,7 +3485,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
         <v>18</v>
       </c>
@@ -3525,7 +3527,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
         <v>18</v>
       </c>
@@ -3570,7 +3572,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
         <v>18</v>
       </c>
@@ -3615,7 +3617,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
         <v>20</v>
       </c>
@@ -3658,7 +3660,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
         <v>21</v>
       </c>
@@ -3696,7 +3698,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
         <v>21</v>
       </c>
@@ -3737,7 +3739,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
         <v>21</v>
       </c>
@@ -3775,7 +3777,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
         <v>22</v>
       </c>
@@ -3813,7 +3815,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
         <v>21</v>
       </c>
@@ -3851,7 +3853,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="11" t="s">
         <v>22</v>
       </c>
@@ -3892,7 +3894,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="s">
         <v>21</v>
       </c>
@@ -3933,7 +3935,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
         <v>22</v>
       </c>
@@ -3974,7 +3976,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>23</v>
       </c>
@@ -4013,7 +4015,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>23</v>
       </c>
@@ -4052,7 +4054,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>29</v>
       </c>
@@ -4094,7 +4096,7 @@
       <c r="A65" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C65" s="0" t="s">
@@ -4128,7 +4130,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>31</v>
       </c>
@@ -4170,7 +4172,7 @@
   <autoFilter ref="A1:Q66"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4187,24 +4189,24 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.9906976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2139534883721"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.306976744186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.4744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.9302325581395"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3209302325581"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.4418604651163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -4230,7 +4232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>13</v>
       </c>
@@ -4253,7 +4255,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
@@ -4276,7 +4278,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>13</v>
       </c>
@@ -4299,7 +4301,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -4322,7 +4324,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>13</v>
       </c>
@@ -4342,7 +4344,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
@@ -4362,7 +4364,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>33</v>
       </c>
@@ -4383,7 +4385,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>33</v>
       </c>
@@ -4406,7 +4408,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>33</v>
       </c>
@@ -4427,7 +4429,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -4447,7 +4449,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>33</v>
       </c>
@@ -4470,7 +4472,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>33</v>
       </c>
@@ -4493,7 +4495,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>33</v>
       </c>
@@ -4516,7 +4518,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
@@ -4536,7 +4538,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>33</v>
       </c>
@@ -4555,7 +4557,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>33</v>
       </c>
@@ -4591,34 +4593,34 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.4697674418605"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="113.711627906977"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.4093023255814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.0418604651163"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.3813953488372"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.8418604651163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.89302325581395"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="33.4744186046512"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.0604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.0558139534884"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="120.725581395349"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.6093023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6418604651163"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="27.0744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.7348837209302"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.2279069767442"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.4418604651163"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.9813953488372"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.13953488372093"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="35.4418604651163"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.553488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -4677,7 +4679,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>13</v>
       </c>
@@ -4715,7 +4717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
@@ -4753,11 +4755,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="11" t="s">
         <v>141</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -4787,7 +4789,6 @@
       <c r="S4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AMJ4" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4808,26 +4809,26 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.5488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.4744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.0279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.4418604651163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -4859,7 +4860,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
@@ -4891,7 +4892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
@@ -4923,7 +4924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
@@ -4955,7 +4956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
         <v>13</v>
       </c>
@@ -4987,7 +4988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
         <v>13</v>
       </c>
@@ -5019,7 +5020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
         <v>13</v>
       </c>
@@ -5051,7 +5052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
         <v>13</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
         <v>13</v>
       </c>
@@ -5115,7 +5116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
         <v>13</v>
       </c>
@@ -5147,7 +5148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
@@ -5179,7 +5180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
         <v>13</v>
       </c>
@@ -5211,7 +5212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -5260,25 +5261,37 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:76"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.3581395348837"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.5023255813953"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="10.5023255813953"/>
-    <col collapsed="false" hidden="false" max="18" min="7" style="0" width="10.5023255813953"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.4046511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6418604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="177.33023255814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.87441860465116"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.61395348837209"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.87441860465116"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.61395348837209"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.24651162790698"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.4883720930233"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="75.1906976744186"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -5334,7 +5347,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
@@ -5380,7 +5393,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
@@ -5414,7 +5427,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="11" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
@@ -5457,10 +5470,8 @@
       <c r="R4" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AMI4" s="0"/>
-      <c r="AMJ4" s="0"/>
-    </row>
-    <row r="5" s="11" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" s="11" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
@@ -5503,10 +5514,8 @@
       <c r="R5" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AMI5" s="0"/>
-      <c r="AMJ5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
@@ -5550,7 +5559,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
@@ -5594,7 +5603,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
@@ -5638,12 +5647,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>155</v>
@@ -5655,7 +5664,7 @@
         <v>66</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K9" s="11" t="n">
         <v>2</v>
@@ -5682,12 +5691,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>155</v>
@@ -5699,7 +5708,7 @@
         <v>66</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -5727,12 +5736,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>155</v>
@@ -5768,12 +5777,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
@@ -5804,24 +5813,24 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>169</v>
-      </c>
       <c r="E13" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K13" s="11" t="n">
         <v>1</v>
@@ -5842,15 +5851,15 @@
         <v>15</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>155</v>
@@ -5862,7 +5871,7 @@
         <v>66</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>2</v>
@@ -5883,15 +5892,15 @@
         <v>15</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>155</v>
@@ -5903,7 +5912,7 @@
         <v>66</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>2</v>
@@ -5927,12 +5936,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>155</v>
@@ -5944,7 +5953,7 @@
         <v>66</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>2</v>
@@ -5968,12 +5977,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>155</v>
@@ -5985,7 +5994,7 @@
         <v>66</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>2</v>
@@ -6009,24 +6018,24 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>1</v>
@@ -6050,27 +6059,27 @@
         <v>15</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>1</v>
@@ -6094,27 +6103,27 @@
         <v>15</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>1</v>
@@ -6138,10 +6147,10 @@
         <v>15</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" s="11" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" s="11" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
@@ -6184,10 +6193,8 @@
       <c r="R21" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AMI21" s="0"/>
-      <c r="AMJ21" s="0"/>
-    </row>
-    <row r="22" s="11" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" s="11" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
@@ -6230,10 +6237,8 @@
       <c r="R22" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AMI22" s="0"/>
-      <c r="AMJ22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>18</v>
       </c>
@@ -6277,7 +6282,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
@@ -6321,7 +6326,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
         <v>20</v>
       </c>
@@ -6365,12 +6370,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>155</v>
@@ -6382,7 +6387,7 @@
         <v>66</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K26" s="11" t="n">
         <v>2</v>
@@ -6409,12 +6414,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>155</v>
@@ -6426,7 +6431,7 @@
         <v>66</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -6454,12 +6459,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>155</v>
@@ -6495,12 +6500,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
@@ -6531,24 +6536,24 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>169</v>
-      </c>
       <c r="E30" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K30" s="11" t="n">
         <v>1</v>
@@ -6569,15 +6574,15 @@
         <v>15</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>155</v>
@@ -6589,7 +6594,7 @@
         <v>66</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>2</v>
@@ -6610,15 +6615,15 @@
         <v>15</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>155</v>
@@ -6630,7 +6635,7 @@
         <v>66</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>2</v>
@@ -6654,12 +6659,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>155</v>
@@ -6671,7 +6676,7 @@
         <v>66</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>2</v>
@@ -6695,12 +6700,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>155</v>
@@ -6712,7 +6717,7 @@
         <v>66</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>2</v>
@@ -6736,24 +6741,24 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>1</v>
@@ -6774,27 +6779,27 @@
         <v>15</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>1</v>
@@ -6818,27 +6823,27 @@
         <v>15</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>1</v>
@@ -6862,27 +6867,27 @@
         <v>15</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>1</v>
@@ -6906,15 +6911,15 @@
         <v>15</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>155</v>
@@ -6926,7 +6931,7 @@
         <v>66</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>2</v>
@@ -6953,12 +6958,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>155</v>
@@ -6970,7 +6975,7 @@
         <v>66</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>2</v>
@@ -6997,12 +7002,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>155</v>
@@ -7014,7 +7019,7 @@
         <v>66</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>2</v>
@@ -7041,12 +7046,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>155</v>
@@ -7058,7 +7063,7 @@
         <v>66</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>2</v>
@@ -7085,12 +7090,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>155</v>
@@ -7102,7 +7107,7 @@
         <v>66</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>2</v>
@@ -7129,12 +7134,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>155</v>
@@ -7146,7 +7151,7 @@
         <v>66</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>2</v>
@@ -7173,12 +7178,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>155</v>
@@ -7190,7 +7195,7 @@
         <v>66</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>2</v>
@@ -7217,12 +7222,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>155</v>
@@ -7234,7 +7239,7 @@
         <v>66</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>2</v>
@@ -7261,12 +7266,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>155</v>
@@ -7278,7 +7283,7 @@
         <v>66</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>2</v>
@@ -7305,12 +7310,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>155</v>
@@ -7322,7 +7327,7 @@
         <v>66</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>2</v>
@@ -7349,12 +7354,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>155</v>
@@ -7366,7 +7371,7 @@
         <v>66</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>2</v>
@@ -7393,12 +7398,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>155</v>
@@ -7439,7 +7444,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>206</v>
@@ -7475,24 +7480,24 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C52" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>169</v>
-      </c>
       <c r="E52" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K52" s="11" t="n">
         <v>1</v>
@@ -7513,10 +7518,10 @@
         <v>15</v>
       </c>
       <c r="R52" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>27</v>
       </c>
@@ -7533,7 +7538,7 @@
         <v>66</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>2</v>
@@ -7554,10 +7559,10 @@
         <v>15</v>
       </c>
       <c r="R53" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>27</v>
       </c>
@@ -7574,7 +7579,7 @@
         <v>66</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>2</v>
@@ -7595,10 +7600,10 @@
         <v>15</v>
       </c>
       <c r="R54" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>27</v>
       </c>
@@ -7615,7 +7620,7 @@
         <v>66</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>2</v>
@@ -7636,10 +7641,10 @@
         <v>15</v>
       </c>
       <c r="R55" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>27</v>
       </c>
@@ -7677,10 +7682,10 @@
         <v>15</v>
       </c>
       <c r="R56" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>27</v>
       </c>
@@ -7718,15 +7723,15 @@
         <v>15</v>
       </c>
       <c r="R57" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>155</v>
@@ -7738,7 +7743,7 @@
         <v>66</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>2</v>
@@ -7765,12 +7770,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>155</v>
@@ -7782,7 +7787,7 @@
         <v>66</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>2</v>
@@ -7809,12 +7814,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>155</v>
@@ -7826,7 +7831,7 @@
         <v>66</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>2</v>
@@ -7853,12 +7858,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>155</v>
@@ -7870,7 +7875,7 @@
         <v>66</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>2</v>
@@ -7897,12 +7902,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>155</v>
@@ -7914,7 +7919,7 @@
         <v>66</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>2</v>
@@ -7941,12 +7946,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>155</v>
@@ -7958,7 +7963,7 @@
         <v>66</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>2</v>
@@ -7985,12 +7990,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>155</v>
@@ -8002,7 +8007,7 @@
         <v>66</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>2</v>
@@ -8029,12 +8034,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>155</v>
@@ -8046,7 +8051,7 @@
         <v>66</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K65" s="0" t="n">
         <v>2</v>
@@ -8073,12 +8078,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>155</v>
@@ -8090,7 +8095,7 @@
         <v>66</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>2</v>
@@ -8117,12 +8122,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>155</v>
@@ -8134,7 +8139,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>2</v>
@@ -8161,12 +8166,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>155</v>
@@ -8178,7 +8183,7 @@
         <v>66</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>2</v>
@@ -8205,12 +8210,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>155</v>
@@ -8251,7 +8256,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>206</v>
@@ -8287,24 +8292,24 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C71" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D71" s="11" t="s">
-        <v>169</v>
-      </c>
       <c r="E71" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K71" s="11" t="n">
         <v>1</v>
@@ -8325,10 +8330,10 @@
         <v>15</v>
       </c>
       <c r="R71" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>27</v>
       </c>
@@ -8345,7 +8350,7 @@
         <v>66</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K72" s="0" t="n">
         <v>2</v>
@@ -8366,10 +8371,10 @@
         <v>15</v>
       </c>
       <c r="R72" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>27</v>
       </c>
@@ -8386,7 +8391,7 @@
         <v>66</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K73" s="0" t="n">
         <v>2</v>
@@ -8407,10 +8412,10 @@
         <v>15</v>
       </c>
       <c r="R73" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>27</v>
       </c>
@@ -8427,7 +8432,7 @@
         <v>66</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K74" s="0" t="n">
         <v>2</v>
@@ -8448,10 +8453,10 @@
         <v>15</v>
       </c>
       <c r="R74" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>27</v>
       </c>
@@ -8489,10 +8494,10 @@
         <v>15</v>
       </c>
       <c r="R75" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>27</v>
       </c>
@@ -8530,7 +8535,7 @@
         <v>15</v>
       </c>
       <c r="R76" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,8 +21,10 @@
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Price!$A$1:$Q$66</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Price!$A$1:$Q$66</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Price!$A$1:$Q$66</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Price!$A$1:$Q$66</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$R$76</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$R$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$R$76</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -986,18 +988,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.1953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.8279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0093023255814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.1953488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.9953488372093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.6279069767442"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.2558139534884"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.5488372093023"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.1813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.1162790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0418604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.0604651162791"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.2279069767442"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.2418604651163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="40.3627906976744"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,10 +1393,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.0744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1455,23 +1457,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="80.8511627906977"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="80.6046511627907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="52.5488372093023"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.9348837209302"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.4418604651163"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="89.8372093023256"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="83.3116279069767"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="83.0651162790698"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="54.0232558139535"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="36.5488372093023"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="92.5441860465116"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4195,15 +4197,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.9302325581395"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.4418604651163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.8976744186047"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.5488372093023"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4601,23 +4603,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.0558139534884"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="120.725581395349"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.4883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.6093023255814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6418604651163"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="27.0744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.7348837209302"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.2279069767442"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.4418604651163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.9813953488372"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.13953488372093"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="35.4418604651163"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.553488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.2883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="124.413953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.3302325581395"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="27.9348837209302"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.4744186046512"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="34.2093023255814"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.3023255813953"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="36.5488372093023"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.8"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4809,23 +4811,23 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.0279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.4418604651163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.5488372093023"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5263,32 +5265,32 @@
   </sheetPr>
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G19" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P35" activeCellId="0" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.4046511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="177.33023255814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.87441860465116"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.61395348837209"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.87441860465116"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.61395348837209"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.24651162790698"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.4883720930233"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="75.1906976744186"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.9906976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.106976744186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="182.748837209302"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.49302325581395"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="77.5302325581395"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6650,7 +6652,7 @@
         <v>94</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q32" s="11" t="s">
         <v>15</v>
@@ -6691,7 +6693,7 @@
         <v>94</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q33" s="11" t="s">
         <v>15</v>
@@ -6732,7 +6734,7 @@
         <v>94</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q34" s="11" t="s">
         <v>15</v>

--- a/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,9 +22,13 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Price!$A$1:$Q$66</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Price!$A$1:$Q$66</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Price!$A$1:$Q$66</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Price!$A$1:$Q$66</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Price!$A$1:$Q$66</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$R$76</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$R$76</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$R$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$R$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Availability!$A$1:$R$76</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -107,7 +111,7 @@
     <t xml:space="preserve">SSD FC Diets</t>
   </si>
   <si>
-    <t xml:space="preserve">Stills – Energy</t>
+    <t xml:space="preserve">Stills-Energy</t>
   </si>
   <si>
     <t xml:space="preserve">Stills - Energy Poster</t>
@@ -461,10 +465,10 @@
     <t xml:space="preserve">brand_name</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD IC, SSD FC, Twist and Stills greater than 50% of Competitor SSD IC &amp; SSD FC Flavours and Stills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCBSA, DOC Coolers</t>
+    <t xml:space="preserve">SSD IC, SSD FC, Twist and Stills greater than 50% of Competitor of category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCBSA Cooler, DOC Coolers</t>
   </si>
   <si>
     <t xml:space="preserve">Min 4 x Cooler Doors</t>
@@ -983,23 +987,23 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.5488372093023"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.1813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.1162790697674"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.0604651162791"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.2279069767442"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.2418604651163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="40.3627906976744"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.1348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.7627906976744"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.5813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5348837209302"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.6883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.7209302325581"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="42.8279069767442"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,10 +1397,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.0744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,32 +1452,32 @@
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="A63" activeCellId="0" sqref="A63"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="83.3116279069767"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="83.0651162790698"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="54.0232558139535"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="36.5488372093023"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="92.5441860465116"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="88.3581395348837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="88.2372093023256"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="57.2232558139535"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.7348837209302"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.6418604651163"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="98.0790697674419"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,8 +1996,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -2571,8 +2575,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -3253,8 +3257,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="11" t="s">
@@ -3292,8 +3296,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -3978,8 +3982,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -4017,8 +4021,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B63" s="11" t="s">
@@ -4197,15 +4201,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.8976744186047"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.5488372093023"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.2046511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.6418604651163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4595,31 +4599,31 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.2883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="124.413953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.3302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5023255813953"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.4744186046512"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="34.2093023255814"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.3023255813953"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="33.9674418604651"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.26046511627907"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="36.5488372093023"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.8"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.9953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="132.046511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7023255813953"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.7767441860465"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.3488372093023"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="29.4139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.9488372093023"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="36.3023255813953"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.7813953488372"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="36.0558139534884"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="38.6418604651163"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4792,6 +4796,8 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4817,17 +4823,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.5488372093023"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6093023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.6418604651163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5265,32 +5271,32 @@
   </sheetPr>
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G19" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P35" activeCellId="0" sqref="P35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="87.9906976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.106976744186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5023255813953"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="182.748837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.4744186046512"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="77.5302325581395"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="24.4883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="93.5255813953488"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3488372093023"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="193.944186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.49302325581395"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.49302325581395"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.98139534883721"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="35.4418604651163"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="82.3302325581395"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="25.9674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5780,7 +5786,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -6502,8 +6508,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -7445,7 +7451,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B51" s="0" t="s">
@@ -8257,7 +8263,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B70" s="0" t="s">

--- a/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
@@ -17,18 +17,13 @@
     <sheet name="Availability" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$R$76</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Price!$A$1:$Q$66</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Price!$A$1:$Q$66</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Price!$A$1:$Q$66</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Price!$A$1:$Q$66</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Price!$A$1:$Q$66</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Price!$A$1:$Q$66</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Price!$A$1:$Q$66</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$R$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$R$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$R$116</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$R$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$R$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$R$116</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$R$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Availability!$A$1:$R$76</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -40,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="243">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -306,7 +301,7 @@
     <t xml:space="preserve">5060466519237,5060466515819</t>
   </si>
   <si>
-    <t xml:space="preserve">Sparletta at or below</t>
+    <t xml:space="preserve">Price compliance: Sparletta</t>
   </si>
   <si>
     <t xml:space="preserve">6001134297308,5449000166241,6001134087305,5449000117977,6001134687307</t>
@@ -366,6 +361,30 @@
     <t xml:space="preserve">GENERAL DEALER MAINSTREAM</t>
   </si>
   <si>
+    <t xml:space="preserve">SPAZA PREMIUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price compliance of 1.5L Coke, CORE flavours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000000439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price compliance of Monster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5060335634399,5060166698874,5060335632715,5060337501804,5060337501842,5060337501880,5060337509411,5060517881962,5060517881900,5060517881931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price compliance of PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5060466513204,5060466513112,5060466513174,5060466513051,5060466513082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENERAL DEALER PREMIUM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expected Result</t>
   </si>
   <si>
@@ -378,12 +397,6 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">SPAZA PREMIUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENERAL DEALER PREMIUM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Signage available and in good condition</t>
   </si>
   <si>
@@ -408,6 +421,18 @@
     <t xml:space="preserve">FC Meal/Snack Combo</t>
   </si>
   <si>
+    <t xml:space="preserve">SSD 1.5L Bulk Display with Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills FC Stand; BA, TZ, FUZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x Energy PP/Monster Poster with pricing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD 2L Bulk Display with Price</t>
+  </si>
+  <si>
     <t xml:space="preserve">Condition 1 - Numerator</t>
   </si>
   <si>
@@ -585,9 +610,6 @@
     <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (PP) Cold</t>
   </si>
   <si>
-    <t xml:space="preserve">5060466513204,5060466513112,5060466513174,5060466513051,5060466513082</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (JJ,) Cold</t>
   </si>
   <si>
@@ -685,6 +707,63 @@
   </si>
   <si>
     <t xml:space="preserve">6001048003323,6001048000902,6001048004481,6001048001640,6001048001763,6001048003385,6001048000933,6001048004511,6001048003354,6001048000988,6001048004542,6001048004573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Availabililty of:  440ml can, 440ml PET (CC,SP,FA, ST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000140906,5449000106476,5449000234605,5449000195715,5449000664686,5449000664754,5449000234643,5449000664808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Diets Brands/Packs: 440ml Can and 440 ml PET (CZ,STZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000157751,5449000230188,5449000664716,5449000664709,5449000664693,5449000664761,5449000664785,5449000664792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Diets Brands/Packs: 440 ml PET (CZ,STZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000664716,5449000664709,5449000664693,5449000664761,5449000664785,5449000664792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD FC pack sizes: 1.5L,2L  (CC,SP,FA, ST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000000439,5449000234629,5449000052926,5449000180919,5449000009067,5449000010049,5449000234636,6001134707302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD FC pack sizes: 1.5L (CC, SP or FA or ST), 2L (CC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000000439,5449000234629,5449000052926,5449000180919, 5449000009067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD FC Diets Brands/Packs: 1.5,2L in (CZ,STZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills Availability of Monster in 500ml Can &amp; PP in 440ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5060335634399,5060166698874,5060335632715,5060337501804,5060337501842,5060337501880,5060337509411,5060517881962,5060517881900,5060517881931,5060466513204,5060466513112,5060466513174,5060466513051,5060466513082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP/Monster Energy pricing Poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills Availability of (JJ) Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (VA) Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000123268,5449000107664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (PA) Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills Brands/Packs: 330ml/ 440ml/500ml (Appletiser) Cold</t>
   </si>
 </sst>
 </file>
@@ -732,7 +811,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,6 +834,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -806,7 +891,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -867,8 +952,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -897,6 +994,14 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -952,7 +1057,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -971,14 +1076,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -987,26 +1084,26 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.1348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.7627906976744"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.5813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.153488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.6883720930233"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.7209302325581"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="42.8279069767442"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.1953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.7813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.9813953488372"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.1953488372093"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="45.4093023255814"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.3209302325581"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1190,9 +1287,15 @@
       <c r="I7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="J7" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
@@ -1290,7 +1393,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1314,7 +1417,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -1340,11 +1443,17 @@
       <c r="I13" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="L13" s="4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1368,7 +1477,9 @@
         <v>11</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
@@ -1392,15 +1503,15 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,38 +1560,38 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q66"/>
+  <dimension ref="1:92"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="88.3581395348837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="88.2372093023256"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="57.2232558139535"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.7348837209302"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.6418604651163"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="98.0790697674419"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4837209302326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.8883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="93.7720930232558"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="60.7906976744186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.2139534883721"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="40.8558139534884"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="103.986046511628"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1533,7 +1644,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
@@ -1566,7 +1677,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
@@ -1608,7 +1719,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
@@ -1650,7 +1761,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
@@ -1695,7 +1806,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
@@ -1740,7 +1851,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
@@ -1785,7 +1896,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
@@ -1830,7 +1941,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
@@ -1872,7 +1983,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
@@ -1914,7 +2025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1956,7 +2067,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
@@ -2031,11 +2142,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -2069,7 +2180,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>31</v>
       </c>
@@ -2107,7 +2218,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>31</v>
       </c>
@@ -2145,7 +2256,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
@@ -2187,7 +2298,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -2229,7 +2340,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
@@ -2274,7 +2385,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
@@ -2319,7 +2430,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
@@ -2364,7 +2475,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
@@ -2409,7 +2520,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
@@ -2451,7 +2562,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
@@ -2493,7 +2604,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -2535,7 +2646,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -2610,11 +2721,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C28" s="0" t="s">
@@ -2686,7 +2797,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>31</v>
       </c>
@@ -2724,7 +2835,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
         <v>18</v>
       </c>
@@ -2737,7 +2848,7 @@
       <c r="D31" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F31" s="12"/>
@@ -2766,7 +2877,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
         <v>18</v>
       </c>
@@ -2779,7 +2890,7 @@
       <c r="D32" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="16" t="s">
         <v>73</v>
       </c>
       <c r="F32" s="12"/>
@@ -2808,7 +2919,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
         <v>18</v>
       </c>
@@ -2821,7 +2932,7 @@
       <c r="D33" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="16" t="s">
         <v>97</v>
       </c>
       <c r="F33" s="12"/>
@@ -2853,7 +2964,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
         <v>18</v>
       </c>
@@ -2866,7 +2977,7 @@
       <c r="D34" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="16" t="s">
         <v>97</v>
       </c>
       <c r="F34" s="12"/>
@@ -2898,7 +3009,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
         <v>20</v>
       </c>
@@ -2911,7 +3022,7 @@
       <c r="D35" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="16" t="s">
         <v>98</v>
       </c>
       <c r="F35" s="12"/>
@@ -2941,7 +3052,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
         <v>21</v>
       </c>
@@ -2979,7 +3090,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
         <v>21</v>
       </c>
@@ -3020,7 +3131,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
         <v>21</v>
       </c>
@@ -3058,7 +3169,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
         <v>22</v>
       </c>
@@ -3096,7 +3207,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
         <v>21</v>
       </c>
@@ -3134,7 +3245,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
         <v>22</v>
       </c>
@@ -3175,7 +3286,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
         <v>21</v>
       </c>
@@ -3216,7 +3327,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
         <v>22</v>
       </c>
@@ -3276,9 +3387,6 @@
       <c r="J44" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="K44" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L44" s="11" t="s">
         <v>63</v>
       </c>
@@ -3315,9 +3423,6 @@
       <c r="J45" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="K45" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L45" s="11" t="s">
         <v>63</v>
       </c>
@@ -3335,11 +3440,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C46" s="0" t="s">
@@ -3411,7 +3516,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>31</v>
       </c>
@@ -3449,7 +3554,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
         <v>18</v>
       </c>
@@ -3462,7 +3567,7 @@
       <c r="D49" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F49" s="12"/>
@@ -3491,7 +3596,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
         <v>18</v>
       </c>
@@ -3504,7 +3609,7 @@
       <c r="D50" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="16" t="s">
         <v>73</v>
       </c>
       <c r="F50" s="12"/>
@@ -3533,7 +3638,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
         <v>18</v>
       </c>
@@ -3546,7 +3651,7 @@
       <c r="D51" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="16" t="s">
         <v>97</v>
       </c>
       <c r="F51" s="12"/>
@@ -3578,7 +3683,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
         <v>18</v>
       </c>
@@ -3591,7 +3696,7 @@
       <c r="D52" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="16" t="s">
         <v>97</v>
       </c>
       <c r="F52" s="12"/>
@@ -3623,7 +3728,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
         <v>20</v>
       </c>
@@ -3636,7 +3741,7 @@
       <c r="D53" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="16" t="s">
         <v>98</v>
       </c>
       <c r="F53" s="12"/>
@@ -3666,7 +3771,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
         <v>21</v>
       </c>
@@ -3704,7 +3809,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
         <v>21</v>
       </c>
@@ -3745,7 +3850,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
         <v>21</v>
       </c>
@@ -3783,7 +3888,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
         <v>22</v>
       </c>
@@ -3821,7 +3926,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
         <v>21</v>
       </c>
@@ -3859,7 +3964,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="11" t="s">
         <v>22</v>
       </c>
@@ -3900,7 +4005,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="s">
         <v>21</v>
       </c>
@@ -3941,7 +4046,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
         <v>22</v>
       </c>
@@ -4001,9 +4106,6 @@
       <c r="J62" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="K62" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L62" s="11" t="s">
         <v>63</v>
       </c>
@@ -4040,9 +4142,6 @@
       <c r="J63" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="K63" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L63" s="11" t="s">
         <v>63</v>
       </c>
@@ -4060,11 +4159,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C64" s="0" t="s">
@@ -4136,7 +4235,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>31</v>
       </c>
@@ -4174,8 +4273,995 @@
         <v>69</v>
       </c>
     </row>
+    <row r="67" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J67" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K67" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O67" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P67" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q67" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AMJ67" s="0"/>
+    </row>
+    <row r="68" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J68" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K68" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M68" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O68" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P68" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q68" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AMJ68" s="0"/>
+    </row>
+    <row r="69" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J69" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="K69" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M69" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O69" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P69" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q69" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AMJ69" s="0"/>
+    </row>
+    <row r="70" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J70" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="K70" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M70" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O70" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P70" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q70" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AMJ70" s="0"/>
+    </row>
+    <row r="71" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J71" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="K71" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M71" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O71" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P71" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q71" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AMJ71" s="0"/>
+    </row>
+    <row r="72" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="J72" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="K72" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M72" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O72" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q72" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AMJ72" s="0"/>
+    </row>
+    <row r="73" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J73" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="K73" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M73" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O73" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P73" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q73" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AMJ73" s="0"/>
+    </row>
+    <row r="74" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J74" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="K74" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M74" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O74" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P74" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q74" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AMJ74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="J75" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M75" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O75" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P75" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q75" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J76" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M76" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O76" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P76" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q76" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J77" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="K77" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L77" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M77" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O77" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P77" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q77" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="K78" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M78" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O78" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P78" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q78" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J79" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="K79" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L79" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M79" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O79" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P79" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q79" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J80" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K80" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M80" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O80" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P80" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q80" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J81" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K81" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M81" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O81" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P81" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q81" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J82" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="K82" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M82" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O82" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P82" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q82" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J83" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="K83" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M83" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O83" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P83" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q83" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J84" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="K84" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M84" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O84" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P84" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q84" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="J85" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="K85" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M85" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O85" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P85" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q85" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J86" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="K86" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M86" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O86" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P86" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q86" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J87" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="K87" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M87" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P87" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q87" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="J88" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M88" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O88" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P88" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q88" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J89" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M89" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O89" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P89" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q89" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J90" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="K90" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L90" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M90" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O90" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P90" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q90" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J91" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="K91" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L91" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M91" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O91" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P91" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q91" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J92" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="K92" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L92" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M92" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O92" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P92" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q92" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q66"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4183,7 +5269,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4193,23 +5278,22 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.2046511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.6418604651163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.6372093023256"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.8558139534884"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.9209302325581"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4220,10 +5304,10 @@
         <v>40</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>55</v>
@@ -4243,10 +5327,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D2" s="11" t="n">
         <v>22</v>
@@ -4266,10 +5350,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D3" s="11" t="n">
         <v>22</v>
@@ -4289,10 +5373,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>22</v>
@@ -4312,10 +5396,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D5" s="11" t="n">
         <v>22</v>
@@ -4335,19 +5419,22 @@
         <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D6" s="11" t="n">
         <v>22</v>
       </c>
+      <c r="E6" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="F6" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4355,19 +5442,22 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D7" s="11" t="n">
         <v>22</v>
       </c>
+      <c r="E7" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="F7" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4375,10 +5465,10 @@
         <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D8" s="11" t="n">
         <v>3</v>
@@ -4396,10 +5486,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D9" s="11" t="n">
         <v>4</v>
@@ -4419,10 +5509,10 @@
         <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D10" s="11" t="n">
         <v>2</v>
@@ -4440,10 +5530,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D11" s="11" t="n">
         <v>34</v>
@@ -4460,10 +5550,10 @@
         <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D12" s="11" t="n">
         <v>4</v>
@@ -4483,10 +5573,10 @@
         <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D13" s="11" t="n">
         <v>5</v>
@@ -4506,10 +5596,10 @@
         <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>111</v>
       </c>
       <c r="D14" s="11" t="n">
         <v>8</v>
@@ -4529,10 +5619,10 @@
         <v>38</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D15" s="11" t="n">
         <v>34</v>
@@ -4548,12 +5638,12 @@
       <c r="A16" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="17"/>
+      <c r="B16" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="17" t="n">
+      <c r="E16" s="20" t="n">
         <v>2</v>
       </c>
       <c r="F16" s="11" t="s">
@@ -4567,12 +5657,12 @@
       <c r="A17" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="17"/>
+      <c r="B17" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="20"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="17" t="n">
+      <c r="E17" s="20" t="n">
         <v>2</v>
       </c>
       <c r="F17" s="11" t="s">
@@ -4580,6 +5670,371 @@
       </c>
       <c r="G17" s="11" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E22" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="E25" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E34" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4599,34 +6054,33 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="1:4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.9953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="132.046511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7023255813953"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.7767441860465"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.3488372093023"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="29.4139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.9488372093023"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="36.3023255813953"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="36.0558139534884"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.50697674418605"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="38.6418604651163"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.7488372093023"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.4837209302326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.4279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="65.4697674418605"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.3209302325581"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="31.1348837209302"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="38.3953488372093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="38.0279069767442"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.75348837209302"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="40.8558139534884"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.906976744186"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -4637,34 +6091,34 @@
         <v>48</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>43</v>
@@ -4685,27 +6139,27 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>65</v>
@@ -4723,21 +6177,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>62</v>
@@ -4761,15 +6215,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>62</v>
@@ -4778,10 +6232,10 @@
         <v>61</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H4" s="11" t="n">
         <v>50</v>
@@ -4795,9 +6249,8 @@
       <c r="S4" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="AMJ4" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4815,35 +6268,32 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6093023255814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.6418604651163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.2139534883721"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.8558139534884"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4139534883721"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="18" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -4868,15 +6318,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>143</v>
+      <c r="B2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4</v>
@@ -4899,16 +6349,17 @@
       <c r="J2" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>144</v>
+      <c r="B3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>3</v>
@@ -4932,15 +6383,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>145</v>
+      <c r="B4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -4955,7 +6406,7 @@
         <v>68</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>16</v>
@@ -4964,15 +6415,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>143</v>
+      <c r="B5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>4</v>
@@ -4996,15 +6447,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>144</v>
+      <c r="B6" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>3</v>
@@ -5028,15 +6479,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>145</v>
+      <c r="B7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -5051,7 +6502,7 @@
         <v>94</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>16</v>
@@ -5060,15 +6511,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>143</v>
+      <c r="B8" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4</v>
@@ -5092,15 +6543,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>144</v>
+      <c r="B9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>3</v>
@@ -5124,15 +6575,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>145</v>
+      <c r="B10" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -5147,7 +6598,7 @@
         <v>95</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>16</v>
@@ -5156,15 +6607,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>143</v>
+      <c r="B11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -5188,15 +6639,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>144</v>
+      <c r="B12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>3</v>
@@ -5220,15 +6671,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>145</v>
+      <c r="B13" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
@@ -5243,12 +6694,204 @@
         <v>107</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5269,37 +6912,35 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R76"/>
+  <dimension ref="1:116"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="93.5255813953488"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="193.944186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="35.4418604651163"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="82.3302325581395"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="25.9674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.1441860465116"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.3023255813953"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3209302325581"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="206.004651162791"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.98139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.98139534883721"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="37.5348837209302"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="87.2511627906977"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="27.5674418604651"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -5307,7 +6948,7 @@
         <v>40</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>48</v>
@@ -5355,27 +6996,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>151</v>
+        <v>160</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>161</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -5398,18 +7039,18 @@
         <v>15</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>60</v>
@@ -5431,19 +7072,19 @@
       <c r="Q3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" s="11" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R3" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>60</v>
@@ -5451,8 +7092,8 @@
       <c r="E4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>158</v>
+      <c r="F4" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="K4" s="11" t="n">
         <v>2</v>
@@ -5476,18 +7117,19 @@
         <v>15</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" s="11" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>60</v>
@@ -5495,8 +7137,8 @@
       <c r="E5" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>158</v>
+      <c r="F5" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="K5" s="11" t="n">
         <v>2</v>
@@ -5520,18 +7162,19 @@
         <v>15</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>60</v>
@@ -5539,8 +7182,8 @@
       <c r="E6" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>161</v>
+      <c r="F6" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="K6" s="11" t="n">
         <v>2</v>
@@ -5555,7 +7198,7 @@
         <v>68</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>16</v>
@@ -5564,18 +7207,18 @@
         <v>15</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>60</v>
@@ -5583,8 +7226,8 @@
       <c r="E7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>163</v>
+      <c r="F7" s="25" t="s">
+        <v>173</v>
       </c>
       <c r="K7" s="11" t="n">
         <v>2</v>
@@ -5608,18 +7251,18 @@
         <v>15</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>60</v>
@@ -5627,8 +7270,8 @@
       <c r="E8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>163</v>
+      <c r="F8" s="25" t="s">
+        <v>173</v>
       </c>
       <c r="K8" s="11" t="n">
         <v>2</v>
@@ -5652,18 +7295,18 @@
         <v>15</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>60</v>
@@ -5671,8 +7314,8 @@
       <c r="E9" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>165</v>
+      <c r="F9" s="25" t="s">
+        <v>175</v>
       </c>
       <c r="K9" s="11" t="n">
         <v>2</v>
@@ -5687,7 +7330,7 @@
         <v>68</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>16</v>
@@ -5696,18 +7339,18 @@
         <v>15</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>60</v>
@@ -5715,8 +7358,8 @@
       <c r="E10" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>167</v>
+      <c r="F10" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -5741,18 +7384,18 @@
         <v>15</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>60</v>
@@ -5760,7 +7403,7 @@
       <c r="E11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="25" t="s">
         <v>85</v>
       </c>
       <c r="K11" s="11" t="n">
@@ -5782,24 +7425,26 @@
         <v>15</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="11"/>
+        <v>179</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="D12" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="25" t="s">
         <v>87</v>
       </c>
       <c r="K12" s="11" t="n">
@@ -5818,27 +7463,27 @@
         <v>15</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>173</v>
+        <v>182</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="K13" s="11" t="n">
         <v>1</v>
@@ -5859,18 +7504,18 @@
         <v>15</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>60</v>
@@ -5879,7 +7524,7 @@
         <v>66</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>2</v>
@@ -5900,18 +7545,18 @@
         <v>15</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>60</v>
@@ -5920,7 +7565,7 @@
         <v>66</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>2</v>
@@ -5941,18 +7586,18 @@
         <v>15</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>60</v>
@@ -5961,7 +7606,7 @@
         <v>66</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>2</v>
@@ -5982,18 +7627,18 @@
         <v>15</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>60</v>
@@ -6002,7 +7647,7 @@
         <v>66</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>2</v>
@@ -6023,27 +7668,27 @@
         <v>15</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>194</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>1</v>
@@ -6067,27 +7712,27 @@
         <v>15</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>194</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>1</v>
@@ -6111,27 +7756,27 @@
         <v>15</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>1</v>
@@ -6146,7 +7791,7 @@
         <v>68</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P20" s="11" t="s">
         <v>16</v>
@@ -6155,18 +7800,18 @@
         <v>15</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" s="11" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>60</v>
@@ -6174,8 +7819,8 @@
       <c r="E21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>158</v>
+      <c r="F21" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="K21" s="11" t="n">
         <v>2</v>
@@ -6199,18 +7844,19 @@
         <v>15</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" s="11" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+      <c r="AMJ21" s="0"/>
+    </row>
+    <row r="22" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>60</v>
@@ -6218,8 +7864,8 @@
       <c r="E22" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>158</v>
+      <c r="F22" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="K22" s="11" t="n">
         <v>2</v>
@@ -6243,18 +7889,19 @@
         <v>15</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+      <c r="AMJ22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>60</v>
@@ -6262,8 +7909,8 @@
       <c r="E23" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="22" t="s">
-        <v>161</v>
+      <c r="F23" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="K23" s="11" t="n">
         <v>2</v>
@@ -6278,7 +7925,7 @@
         <v>94</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>16</v>
@@ -6287,18 +7934,18 @@
         <v>15</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>60</v>
@@ -6306,8 +7953,8 @@
       <c r="E24" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>163</v>
+      <c r="F24" s="25" t="s">
+        <v>173</v>
       </c>
       <c r="K24" s="11" t="n">
         <v>2</v>
@@ -6331,18 +7978,18 @@
         <v>15</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>60</v>
@@ -6350,8 +7997,8 @@
       <c r="E25" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>163</v>
+      <c r="F25" s="25" t="s">
+        <v>173</v>
       </c>
       <c r="K25" s="11" t="n">
         <v>2</v>
@@ -6375,18 +8022,18 @@
         <v>15</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>60</v>
@@ -6394,8 +8041,8 @@
       <c r="E26" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="22" t="s">
-        <v>165</v>
+      <c r="F26" s="25" t="s">
+        <v>175</v>
       </c>
       <c r="K26" s="11" t="n">
         <v>2</v>
@@ -6410,7 +8057,7 @@
         <v>94</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P26" s="11" t="s">
         <v>16</v>
@@ -6419,18 +8066,18 @@
         <v>15</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>60</v>
@@ -6438,8 +8085,8 @@
       <c r="E27" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>167</v>
+      <c r="F27" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -6464,18 +8111,18 @@
         <v>15</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>60</v>
@@ -6483,7 +8130,7 @@
       <c r="E28" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="25" t="s">
         <v>85</v>
       </c>
       <c r="K28" s="11" t="n">
@@ -6505,24 +8152,26 @@
         <v>15</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="11"/>
+        <v>179</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="D29" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="25" t="s">
         <v>87</v>
       </c>
       <c r="K29" s="11" t="n">
@@ -6541,27 +8190,27 @@
         <v>15</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>173</v>
+        <v>182</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="K30" s="11" t="n">
         <v>1</v>
@@ -6582,18 +8231,18 @@
         <v>15</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>60</v>
@@ -6602,7 +8251,7 @@
         <v>66</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>2</v>
@@ -6623,18 +8272,18 @@
         <v>15</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>60</v>
@@ -6643,7 +8292,7 @@
         <v>66</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>2</v>
@@ -6664,18 +8313,18 @@
         <v>15</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>60</v>
@@ -6684,7 +8333,7 @@
         <v>66</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>2</v>
@@ -6705,18 +8354,18 @@
         <v>15</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>60</v>
@@ -6725,7 +8374,7 @@
         <v>66</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>2</v>
@@ -6746,27 +8395,27 @@
         <v>15</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>189</v>
+        <v>181</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>198</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>1</v>
@@ -6787,27 +8436,27 @@
         <v>15</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>194</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>1</v>
@@ -6831,27 +8480,27 @@
         <v>15</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>194</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>1</v>
@@ -6875,27 +8524,27 @@
         <v>15</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>1</v>
@@ -6910,7 +8559,7 @@
         <v>94</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>16</v>
@@ -6919,18 +8568,18 @@
         <v>15</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>60</v>
@@ -6939,7 +8588,7 @@
         <v>66</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>2</v>
@@ -6963,18 +8612,18 @@
         <v>15</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>60</v>
@@ -6983,7 +8632,7 @@
         <v>66</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>2</v>
@@ -7007,18 +8656,18 @@
         <v>15</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>60</v>
@@ -7027,7 +8676,7 @@
         <v>66</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>2</v>
@@ -7042,7 +8691,7 @@
         <v>95</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>16</v>
@@ -7051,18 +8700,18 @@
         <v>15</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>60</v>
@@ -7071,7 +8720,7 @@
         <v>66</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>2</v>
@@ -7095,18 +8744,18 @@
         <v>15</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>60</v>
@@ -7115,7 +8764,7 @@
         <v>66</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>2</v>
@@ -7139,18 +8788,18 @@
         <v>15</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>60</v>
@@ -7159,7 +8808,7 @@
         <v>66</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>2</v>
@@ -7174,7 +8823,7 @@
         <v>95</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P44" s="11" t="s">
         <v>16</v>
@@ -7183,18 +8832,18 @@
         <v>15</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>60</v>
@@ -7203,7 +8852,7 @@
         <v>66</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>2</v>
@@ -7227,18 +8876,18 @@
         <v>15</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>60</v>
@@ -7247,7 +8896,7 @@
         <v>66</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>2</v>
@@ -7271,18 +8920,18 @@
         <v>15</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>60</v>
@@ -7291,7 +8940,7 @@
         <v>66</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>2</v>
@@ -7306,7 +8955,7 @@
         <v>95</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P47" s="11" t="s">
         <v>16</v>
@@ -7315,18 +8964,18 @@
         <v>15</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>60</v>
@@ -7335,7 +8984,7 @@
         <v>66</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>2</v>
@@ -7359,18 +9008,18 @@
         <v>15</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>60</v>
@@ -7379,7 +9028,7 @@
         <v>66</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>2</v>
@@ -7403,18 +9052,18 @@
         <v>15</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>60</v>
@@ -7438,7 +9087,7 @@
         <v>95</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P50" s="11" t="s">
         <v>16</v>
@@ -7447,7 +9096,7 @@
         <v>15</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7455,10 +9104,10 @@
         <v>23</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>60</v>
@@ -7467,7 +9116,7 @@
         <v>66</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>2</v>
@@ -7485,27 +9134,27 @@
         <v>15</v>
       </c>
       <c r="R51" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>173</v>
+        <v>182</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="K52" s="11" t="n">
         <v>1</v>
@@ -7526,18 +9175,18 @@
         <v>15</v>
       </c>
       <c r="R52" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>60</v>
@@ -7546,7 +9195,7 @@
         <v>66</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>2</v>
@@ -7567,18 +9216,18 @@
         <v>15</v>
       </c>
       <c r="R53" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>60</v>
@@ -7587,7 +9236,7 @@
         <v>66</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>2</v>
@@ -7608,18 +9257,18 @@
         <v>15</v>
       </c>
       <c r="R54" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>60</v>
@@ -7628,7 +9277,7 @@
         <v>66</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>2</v>
@@ -7649,18 +9298,18 @@
         <v>15</v>
       </c>
       <c r="R55" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>60</v>
@@ -7669,7 +9318,7 @@
         <v>66</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>2</v>
@@ -7690,18 +9339,18 @@
         <v>15</v>
       </c>
       <c r="R56" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>60</v>
@@ -7710,7 +9359,7 @@
         <v>66</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>2</v>
@@ -7731,18 +9380,18 @@
         <v>15</v>
       </c>
       <c r="R57" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>60</v>
@@ -7751,7 +9400,7 @@
         <v>66</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>2</v>
@@ -7775,18 +9424,18 @@
         <v>15</v>
       </c>
       <c r="R58" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>60</v>
@@ -7795,7 +9444,7 @@
         <v>66</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>2</v>
@@ -7819,18 +9468,18 @@
         <v>15</v>
       </c>
       <c r="R59" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>60</v>
@@ -7839,7 +9488,7 @@
         <v>66</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>2</v>
@@ -7854,7 +9503,7 @@
         <v>107</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P60" s="11" t="s">
         <v>16</v>
@@ -7863,18 +9512,18 @@
         <v>15</v>
       </c>
       <c r="R60" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>60</v>
@@ -7883,7 +9532,7 @@
         <v>66</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>2</v>
@@ -7907,18 +9556,18 @@
         <v>15</v>
       </c>
       <c r="R61" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>60</v>
@@ -7927,7 +9576,7 @@
         <v>66</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>2</v>
@@ -7951,18 +9600,18 @@
         <v>15</v>
       </c>
       <c r="R62" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>60</v>
@@ -7971,7 +9620,7 @@
         <v>66</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>2</v>
@@ -7986,7 +9635,7 @@
         <v>107</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P63" s="11" t="s">
         <v>16</v>
@@ -7995,18 +9644,18 @@
         <v>15</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>60</v>
@@ -8015,7 +9664,7 @@
         <v>66</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>2</v>
@@ -8039,18 +9688,18 @@
         <v>15</v>
       </c>
       <c r="R64" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>60</v>
@@ -8059,7 +9708,7 @@
         <v>66</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="K65" s="0" t="n">
         <v>2</v>
@@ -8083,18 +9732,18 @@
         <v>15</v>
       </c>
       <c r="R65" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>60</v>
@@ -8103,7 +9752,7 @@
         <v>66</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>2</v>
@@ -8118,7 +9767,7 @@
         <v>107</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P66" s="11" t="s">
         <v>16</v>
@@ -8127,18 +9776,18 @@
         <v>15</v>
       </c>
       <c r="R66" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>60</v>
@@ -8147,7 +9796,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>2</v>
@@ -8171,18 +9820,18 @@
         <v>15</v>
       </c>
       <c r="R67" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>60</v>
@@ -8191,7 +9840,7 @@
         <v>66</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>2</v>
@@ -8215,18 +9864,18 @@
         <v>15</v>
       </c>
       <c r="R68" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>60</v>
@@ -8250,7 +9899,7 @@
         <v>107</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P69" s="11" t="s">
         <v>16</v>
@@ -8259,7 +9908,7 @@
         <v>15</v>
       </c>
       <c r="R69" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8267,10 +9916,10 @@
         <v>23</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>60</v>
@@ -8279,7 +9928,7 @@
         <v>66</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="K70" s="0" t="n">
         <v>2</v>
@@ -8297,27 +9946,27 @@
         <v>15</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F71" s="22" t="s">
-        <v>173</v>
+        <v>182</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="K71" s="11" t="n">
         <v>1</v>
@@ -8338,18 +9987,18 @@
         <v>15</v>
       </c>
       <c r="R71" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>60</v>
@@ -8358,7 +10007,7 @@
         <v>66</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="K72" s="0" t="n">
         <v>2</v>
@@ -8379,18 +10028,18 @@
         <v>15</v>
       </c>
       <c r="R72" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>60</v>
@@ -8399,7 +10048,7 @@
         <v>66</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="K73" s="0" t="n">
         <v>2</v>
@@ -8420,18 +10069,18 @@
         <v>15</v>
       </c>
       <c r="R73" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>60</v>
@@ -8440,7 +10089,7 @@
         <v>66</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="K74" s="0" t="n">
         <v>2</v>
@@ -8461,18 +10110,18 @@
         <v>15</v>
       </c>
       <c r="R74" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>60</v>
@@ -8481,7 +10130,7 @@
         <v>66</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="K75" s="0" t="n">
         <v>2</v>
@@ -8502,18 +10151,18 @@
         <v>15</v>
       </c>
       <c r="R75" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>60</v>
@@ -8522,7 +10171,7 @@
         <v>66</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="K76" s="0" t="n">
         <v>2</v>
@@ -8543,11 +10192,1735 @@
         <v>15</v>
       </c>
       <c r="R76" s="8" t="s">
-        <v>177</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" s="15" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K77" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N77" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O77" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P77" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q77" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R77" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AMJ77" s="0"/>
+    </row>
+    <row r="78" s="15" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K78" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M78" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N78" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O78" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P78" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q78" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R78" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AMJ78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="K79" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M79" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N79" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O79" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="P79" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q79" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R79" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K80" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M80" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N80" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="O80" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P80" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q80" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R80" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K81" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M81" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N81" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="O81" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P81" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q81" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R81" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="K82" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N82" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="O82" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="P82" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q82" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R82" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="K83" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L83" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="M83" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N83" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P83" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q83" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R83" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="K84" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L84" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="M84" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N84" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O84" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P84" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q84" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R84" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="K85" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L85" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="M85" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N85" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O85" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P85" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q85" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R85" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="K86" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L86" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="M86" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N86" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O86" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="P86" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q86" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R86" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="K87" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L87" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="M87" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N87" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O87" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q87" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R87" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="K88" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L88" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="M88" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N88" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O88" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P88" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q88" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R88" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K89" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L89" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="M89" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N89" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O89" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="P89" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q89" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R89" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="K90" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L90" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="M90" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N90" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P90" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q90" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R90" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="K91" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M91" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N91" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P91" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q91" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R91" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" s="27"/>
+      <c r="K92" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M92" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N92" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P92" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q92" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R92" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K93" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L93" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N93" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P93" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q93" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R93" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="K94" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L94" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N94" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P94" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q94" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R94" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="K95" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L95" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N95" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P95" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q95" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R95" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="K96" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L96" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N96" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P96" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q96" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R96" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F97" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K97" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M97" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N97" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O97" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P97" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q97" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R97" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F98" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M98" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N98" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O98" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P98" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q98" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R98" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M99" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N99" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O99" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="P99" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q99" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R99" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F100" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="K100" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L100" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="M100" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N100" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="P100" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q100" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R100" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AMJ100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L101" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="M101" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N101" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O101" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P101" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q101" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R101" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="K102" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="M102" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N102" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O102" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P102" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q102" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R102" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="K103" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L103" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="M103" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N103" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O103" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="P103" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q103" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R103" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="K104" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="M104" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N104" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O104" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P104" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q104" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R104" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F105" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="K105" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="M105" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N105" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O105" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P105" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q105" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R105" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K106" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L106" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="M106" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N106" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O106" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="P106" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q106" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R106" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F107" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="K107" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L107" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="M107" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N107" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="P107" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q107" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R107" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F108" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="K108" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M108" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N108" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="P108" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q108" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R108" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F109" s="27"/>
+      <c r="K109" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M109" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N109" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="P109" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q109" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R109" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F110" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K110" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N110" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="P110" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q110" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R110" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="K111" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L111" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N111" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="P111" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q111" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R111" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F112" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="K112" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L112" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N112" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="P112" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q112" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R112" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F113" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="K113" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L113" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N113" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="P113" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q113" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R113" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F114" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K114" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M114" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N114" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O114" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P114" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q114" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R114" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F115" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M115" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N115" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O115" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P115" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q115" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R115" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N116" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O116" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="P116" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q116" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R116" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R76"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8555,6 +11928,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,11 +19,11 @@
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Price!$A$1:$Q$66</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Price!$A$1:$Q$66</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="dcsvx" vbProcedure="false">Availability!$A$1:$R$76</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$R$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$R$116</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$R$76</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$R$116</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$R$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$R$116</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$R$76</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="244">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -749,6 +749,9 @@
   </si>
   <si>
     <t xml:space="preserve">PP/Monster Energy pricing Poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Pack Monster and Powerplay</t>
   </si>
   <si>
     <t xml:space="preserve">Stills Availability of (JJ) Cold</t>
@@ -891,7 +894,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1000,10 +1003,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1083,11 +1082,11 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.1953488372093"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7813953488372"/>
@@ -1103,7 +1102,7 @@
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.3209302325581"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1393,7 +1392,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1417,7 +1416,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -1453,7 +1452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1502,8 +1501,8 @@
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1560,17 +1559,17 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:92"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F56" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="B78" activeCellId="0" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9674418604651"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4837209302326"/>
@@ -1591,7 +1590,7 @@
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="103.986046511628"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1644,7 +1643,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
@@ -1677,7 +1676,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
@@ -1719,7 +1718,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
@@ -1761,7 +1760,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
@@ -1806,7 +1805,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
@@ -1851,7 +1850,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
@@ -1896,7 +1895,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
@@ -1983,7 +1982,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
@@ -2025,7 +2024,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
@@ -2107,7 +2106,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -2142,7 +2141,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
         <v>29</v>
       </c>
@@ -2180,7 +2179,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>31</v>
       </c>
@@ -2218,7 +2217,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>31</v>
       </c>
@@ -2256,7 +2255,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
@@ -2298,7 +2297,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
@@ -2385,7 +2384,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
@@ -2430,7 +2429,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
@@ -2475,7 +2474,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
@@ -2520,7 +2519,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
@@ -2562,7 +2561,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -2646,7 +2645,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -2686,7 +2685,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
@@ -2721,7 +2720,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
         <v>29</v>
       </c>
@@ -2759,7 +2758,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>31</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>31</v>
       </c>
@@ -2835,7 +2834,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
         <v>18</v>
       </c>
@@ -2877,7 +2876,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
         <v>18</v>
       </c>
@@ -2919,7 +2918,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
         <v>18</v>
       </c>
@@ -2964,7 +2963,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
         <v>18</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
         <v>20</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
         <v>21</v>
       </c>
@@ -3090,7 +3089,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
         <v>21</v>
       </c>
@@ -3131,7 +3130,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
         <v>21</v>
       </c>
@@ -3169,7 +3168,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
         <v>22</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
         <v>21</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
         <v>22</v>
       </c>
@@ -3286,7 +3285,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
         <v>21</v>
       </c>
@@ -3327,7 +3326,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
         <v>22</v>
       </c>
@@ -3368,7 +3367,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>23</v>
       </c>
@@ -3404,7 +3403,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>23</v>
       </c>
@@ -3440,7 +3439,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
         <v>29</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>31</v>
       </c>
@@ -3516,7 +3515,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>31</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
         <v>18</v>
       </c>
@@ -3596,7 +3595,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
         <v>18</v>
       </c>
@@ -3638,7 +3637,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
         <v>18</v>
       </c>
@@ -3683,7 +3682,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
         <v>18</v>
       </c>
@@ -3728,7 +3727,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
         <v>20</v>
       </c>
@@ -3771,7 +3770,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
         <v>21</v>
       </c>
@@ -3809,7 +3808,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
         <v>21</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
         <v>21</v>
       </c>
@@ -3888,7 +3887,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
         <v>22</v>
       </c>
@@ -3926,7 +3925,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
         <v>21</v>
       </c>
@@ -3964,7 +3963,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="11" t="s">
         <v>22</v>
       </c>
@@ -4005,7 +4004,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="s">
         <v>21</v>
       </c>
@@ -4046,7 +4045,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
         <v>22</v>
       </c>
@@ -4087,7 +4086,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>23</v>
       </c>
@@ -4123,7 +4122,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>23</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="15" t="s">
         <v>29</v>
       </c>
@@ -4197,7 +4196,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>31</v>
       </c>
@@ -4235,7 +4234,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>31</v>
       </c>
@@ -4273,7 +4272,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
         <v>18</v>
       </c>
@@ -4310,9 +4309,8 @@
       <c r="Q67" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AMJ67" s="0"/>
-    </row>
-    <row r="68" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="68" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
         <v>18</v>
       </c>
@@ -4349,9 +4347,8 @@
       <c r="Q68" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AMJ68" s="0"/>
-    </row>
-    <row r="69" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="69" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
         <v>20</v>
       </c>
@@ -4388,9 +4385,8 @@
       <c r="Q69" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AMJ69" s="0"/>
-    </row>
-    <row r="70" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="70" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
         <v>21</v>
       </c>
@@ -4427,9 +4423,8 @@
       <c r="Q70" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AMJ70" s="0"/>
-    </row>
-    <row r="71" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="71" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
         <v>21</v>
       </c>
@@ -4466,9 +4461,8 @@
       <c r="Q71" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AMJ71" s="0"/>
-    </row>
-    <row r="72" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="72" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
         <v>21</v>
       </c>
@@ -4505,9 +4499,8 @@
       <c r="Q72" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AMJ72" s="0"/>
-    </row>
-    <row r="73" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="73" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
         <v>22</v>
       </c>
@@ -4544,9 +4537,8 @@
       <c r="Q73" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AMJ73" s="0"/>
-    </row>
-    <row r="74" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="74" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="15" t="s">
         <v>22</v>
       </c>
@@ -4583,9 +4575,8 @@
       <c r="Q74" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AMJ74" s="0"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>23</v>
       </c>
@@ -4621,7 +4612,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>23</v>
       </c>
@@ -4657,7 +4648,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="s">
         <v>29</v>
       </c>
@@ -4695,7 +4686,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
         <v>31</v>
       </c>
@@ -4733,7 +4724,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15" t="s">
         <v>31</v>
       </c>
@@ -4771,7 +4762,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
         <v>18</v>
       </c>
@@ -4809,7 +4800,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15" t="s">
         <v>18</v>
       </c>
@@ -4847,7 +4838,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="15" t="s">
         <v>20</v>
       </c>
@@ -4885,7 +4876,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
         <v>21</v>
       </c>
@@ -4923,7 +4914,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="15" t="s">
         <v>21</v>
       </c>
@@ -4961,7 +4952,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="15" t="s">
         <v>21</v>
       </c>
@@ -4999,7 +4990,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="15" t="s">
         <v>22</v>
       </c>
@@ -5037,7 +5028,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="15" t="s">
         <v>22</v>
       </c>
@@ -5075,7 +5066,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
         <v>23</v>
       </c>
@@ -5111,7 +5102,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
         <v>23</v>
       </c>
@@ -5147,7 +5138,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="15" t="s">
         <v>29</v>
       </c>
@@ -5185,7 +5176,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="15" t="s">
         <v>31</v>
       </c>
@@ -5223,7 +5214,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="15" t="s">
         <v>31</v>
       </c>
@@ -5280,7 +5271,7 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -6054,13 +6045,13 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.7488372093023"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.4837209302326"/>
@@ -6080,7 +6071,7 @@
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.906976744186"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -6139,7 +6130,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>13</v>
       </c>
@@ -6177,7 +6168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
@@ -6215,7 +6206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
@@ -6249,7 +6240,6 @@
       <c r="S4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AMJ4" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6270,11 +6260,11 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9674418604651"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5813953488372"/>
@@ -6286,7 +6276,7 @@
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4139534883721"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
@@ -6318,7 +6308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
@@ -6351,7 +6341,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
@@ -6383,7 +6373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
@@ -6415,7 +6405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
@@ -6447,7 +6437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
         <v>13</v>
       </c>
@@ -6479,7 +6469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
         <v>13</v>
       </c>
@@ -6511,7 +6501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
@@ -6543,7 +6533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
         <v>13</v>
       </c>
@@ -6575,7 +6565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
         <v>13</v>
       </c>
@@ -6607,7 +6597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
         <v>13</v>
       </c>
@@ -6639,7 +6629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
         <v>13</v>
       </c>
@@ -6671,7 +6661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
         <v>13</v>
       </c>
@@ -6703,7 +6693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
         <v>13</v>
       </c>
@@ -6735,7 +6725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
         <v>13</v>
       </c>
@@ -6767,7 +6757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
         <v>13</v>
       </c>
@@ -6799,7 +6789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="s">
         <v>13</v>
       </c>
@@ -6831,7 +6821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
         <v>13</v>
       </c>
@@ -6863,7 +6853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
         <v>13</v>
       </c>
@@ -6912,13 +6902,13 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:116"/>
+  <dimension ref="A1:R116"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L91" activeCellId="0" sqref="L91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2744186046512"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.1441860465116"/>
@@ -6940,7 +6930,7 @@
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="27.5674418604651"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -6996,7 +6986,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
@@ -7042,7 +7032,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
@@ -7076,7 +7066,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
@@ -7119,9 +7109,8 @@
       <c r="R4" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="AMJ4" s="0"/>
-    </row>
-    <row r="5" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
@@ -7164,9 +7153,8 @@
       <c r="R5" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="AMJ5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
@@ -7210,7 +7198,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
@@ -7254,7 +7242,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
@@ -7298,7 +7286,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
@@ -7342,7 +7330,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
@@ -7387,7 +7375,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
@@ -7428,7 +7416,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -7466,7 +7454,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>24</v>
       </c>
@@ -7507,7 +7495,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>27</v>
       </c>
@@ -7548,7 +7536,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>27</v>
       </c>
@@ -7589,7 +7577,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>27</v>
       </c>
@@ -7630,7 +7618,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>27</v>
       </c>
@@ -7671,7 +7659,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>33</v>
       </c>
@@ -7715,7 +7703,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>33</v>
       </c>
@@ -7759,7 +7747,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>33</v>
       </c>
@@ -7803,7 +7791,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
@@ -7846,9 +7834,8 @@
       <c r="R21" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="AMJ21" s="0"/>
-    </row>
-    <row r="22" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
@@ -7891,9 +7878,8 @@
       <c r="R22" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="AMJ22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>18</v>
       </c>
@@ -7937,7 +7923,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
@@ -7981,7 +7967,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
         <v>20</v>
       </c>
@@ -8025,7 +8011,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
         <v>20</v>
       </c>
@@ -8069,7 +8055,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
@@ -8114,7 +8100,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
         <v>22</v>
       </c>
@@ -8155,7 +8141,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -8193,7 +8179,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>24</v>
       </c>
@@ -8234,7 +8220,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>27</v>
       </c>
@@ -8275,7 +8261,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>27</v>
       </c>
@@ -8316,7 +8302,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>27</v>
       </c>
@@ -8357,7 +8343,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>27</v>
       </c>
@@ -8398,7 +8384,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>33</v>
       </c>
@@ -8439,7 +8425,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>33</v>
       </c>
@@ -8483,7 +8469,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>33</v>
       </c>
@@ -8527,7 +8513,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>33</v>
       </c>
@@ -8571,7 +8557,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>200</v>
       </c>
@@ -8615,7 +8601,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>200</v>
       </c>
@@ -8659,7 +8645,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>200</v>
       </c>
@@ -8703,7 +8689,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>20</v>
       </c>
@@ -8747,7 +8733,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>20</v>
       </c>
@@ -8791,7 +8777,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>20</v>
       </c>
@@ -8835,7 +8821,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>21</v>
       </c>
@@ -8879,7 +8865,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>21</v>
       </c>
@@ -8923,7 +8909,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>21</v>
       </c>
@@ -8967,7 +8953,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>22</v>
       </c>
@@ -9011,7 +8997,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>22</v>
       </c>
@@ -9055,7 +9041,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>22</v>
       </c>
@@ -9099,7 +9085,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>23</v>
       </c>
@@ -9137,7 +9123,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>24</v>
       </c>
@@ -9178,7 +9164,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>27</v>
       </c>
@@ -9219,7 +9205,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>27</v>
       </c>
@@ -9260,7 +9246,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>27</v>
       </c>
@@ -9301,7 +9287,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>27</v>
       </c>
@@ -9342,7 +9328,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>27</v>
       </c>
@@ -9383,7 +9369,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>200</v>
       </c>
@@ -9427,7 +9413,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>200</v>
       </c>
@@ -9471,7 +9457,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>200</v>
       </c>
@@ -9515,7 +9501,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>20</v>
       </c>
@@ -9559,7 +9545,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>20</v>
       </c>
@@ -9603,7 +9589,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>20</v>
       </c>
@@ -9647,7 +9633,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>21</v>
       </c>
@@ -9691,7 +9677,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>21</v>
       </c>
@@ -9735,7 +9721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>21</v>
       </c>
@@ -9779,7 +9765,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>22</v>
       </c>
@@ -9823,7 +9809,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>22</v>
       </c>
@@ -9867,7 +9853,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>22</v>
       </c>
@@ -9911,7 +9897,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>23</v>
       </c>
@@ -9949,7 +9935,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>24</v>
       </c>
@@ -9990,7 +9976,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>27</v>
       </c>
@@ -10031,7 +10017,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>27</v>
       </c>
@@ -10072,7 +10058,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>27</v>
       </c>
@@ -10113,7 +10099,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>27</v>
       </c>
@@ -10154,7 +10140,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>27</v>
       </c>
@@ -10195,7 +10181,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="77" s="15" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="s">
         <v>33</v>
       </c>
@@ -10238,9 +10224,8 @@
       <c r="R77" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="AMJ77" s="0"/>
-    </row>
-    <row r="78" s="15" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="78" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
         <v>33</v>
       </c>
@@ -10283,9 +10268,8 @@
       <c r="R78" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="AMJ78" s="0"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15" t="s">
         <v>33</v>
       </c>
@@ -10329,7 +10313,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
         <v>33</v>
       </c>
@@ -10373,7 +10357,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15" t="s">
         <v>33</v>
       </c>
@@ -10417,7 +10401,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="15" t="s">
         <v>33</v>
       </c>
@@ -10461,7 +10445,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
         <v>18</v>
       </c>
@@ -10502,7 +10486,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="15" t="s">
         <v>20</v>
       </c>
@@ -10546,7 +10530,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="15" t="s">
         <v>20</v>
       </c>
@@ -10590,7 +10574,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="15" t="s">
         <v>20</v>
       </c>
@@ -10634,7 +10618,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="15" t="s">
         <v>21</v>
       </c>
@@ -10678,7 +10662,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="15" t="s">
         <v>21</v>
       </c>
@@ -10722,7 +10706,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="15" t="s">
         <v>21</v>
       </c>
@@ -10766,7 +10750,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="15" t="s">
         <v>22</v>
       </c>
@@ -10807,7 +10791,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
         <v>23</v>
       </c>
@@ -10845,7 +10829,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="15" t="s">
         <v>24</v>
       </c>
@@ -10861,7 +10845,9 @@
       <c r="E92" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="F92" s="27"/>
+      <c r="F92" s="14" t="s">
+        <v>238</v>
+      </c>
       <c r="K92" s="15" t="n">
         <v>1</v>
       </c>
@@ -10884,12 +10870,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>165</v>
@@ -10925,12 +10911,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>165</v>
@@ -10942,7 +10928,7 @@
         <v>66</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K94" s="15" t="n">
         <v>2</v>
@@ -10966,12 +10952,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>165</v>
@@ -11007,12 +10993,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>165</v>
@@ -11048,7 +11034,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="15" t="s">
         <v>33</v>
       </c>
@@ -11092,7 +11078,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="15" t="s">
         <v>33</v>
       </c>
@@ -11140,7 +11126,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="15" t="s">
         <v>33</v>
       </c>
@@ -11188,7 +11174,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="100" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="15" t="s">
         <v>18</v>
       </c>
@@ -11228,9 +11214,8 @@
       <c r="R100" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AMJ100" s="0"/>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="15" t="s">
         <v>20</v>
       </c>
@@ -11278,7 +11263,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="15" t="s">
         <v>20</v>
       </c>
@@ -11322,7 +11307,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="15" t="s">
         <v>20</v>
       </c>
@@ -11366,7 +11351,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="15" t="s">
         <v>21</v>
       </c>
@@ -11410,7 +11395,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="15" t="s">
         <v>21</v>
       </c>
@@ -11454,7 +11439,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="15" t="s">
         <v>21</v>
       </c>
@@ -11498,7 +11483,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="15" t="s">
         <v>22</v>
       </c>
@@ -11539,7 +11524,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
         <v>23</v>
       </c>
@@ -11577,7 +11562,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="15" t="s">
         <v>24</v>
       </c>
@@ -11593,7 +11578,9 @@
       <c r="E109" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="F109" s="27"/>
+      <c r="F109" s="14" t="s">
+        <v>238</v>
+      </c>
       <c r="K109" s="15" t="n">
         <v>1</v>
       </c>
@@ -11616,12 +11603,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>165</v>
@@ -11657,12 +11644,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>165</v>
@@ -11674,7 +11661,7 @@
         <v>66</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K111" s="15" t="n">
         <v>2</v>
@@ -11698,12 +11685,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>165</v>
@@ -11739,12 +11726,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>165</v>
@@ -11780,7 +11767,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="15" t="s">
         <v>33</v>
       </c>
@@ -11824,7 +11811,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="15" t="s">
         <v>33</v>
       </c>
@@ -11872,7 +11859,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="15" t="s">
         <v>33</v>
       </c>

--- a/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,8 @@
     <sheet name="Availability" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$R$116</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Price!$A$1:$Q$92</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Price!$A$1:$Q$66</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Price!$A$1:$Q$66</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="dcsvx" vbProcedure="false">Availability!$A$1:$R$76</definedName>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="246">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -391,10 +393,16 @@
     <t xml:space="preserve">Survey Q CODE</t>
   </si>
   <si>
+    <t xml:space="preserve">Question type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cooler Outside or 1st Inside</t>
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text</t>
   </si>
   <si>
     <t xml:space="preserve">Signage available and in good condition</t>
@@ -894,7 +902,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -968,6 +976,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1075,6 +1087,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1088,18 +1108,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.1953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.7813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.9813953488372"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.1953488372093"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="45.4093023255814"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.4883720930233"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.3209302325581"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.5488372093023"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.8883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.7209302325581"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.0604651162791"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="46.7627906976744"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.2279069767442"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="36.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,10 +1528,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.1348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,39 +1575,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F56" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
-      <selection pane="bottomRight" activeCell="B78" activeCellId="0" sqref="B78"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.8883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="93.7720930232558"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="60.7906976744186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.2139534883721"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="40.8558139534884"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="103.986046511628"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.1255813953488"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.9953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="96.6046511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="62.5162790697674"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.9488372093023"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="42.0883720930233"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="107.186046511628"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,7 +1781,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
@@ -1805,7 +1826,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
@@ -1850,7 +1871,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
@@ -1895,7 +1916,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
@@ -2255,7 +2276,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
@@ -2297,7 +2318,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -2339,7 +2360,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
@@ -2384,7 +2405,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
@@ -2429,7 +2450,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
@@ -2474,7 +2495,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
@@ -2519,7 +2540,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
@@ -2561,7 +2582,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
@@ -2603,7 +2624,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -2645,7 +2666,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -2685,7 +2706,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
@@ -2720,7 +2741,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
         <v>29</v>
       </c>
@@ -2758,7 +2779,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>31</v>
       </c>
@@ -2796,7 +2817,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>31</v>
       </c>
@@ -2834,7 +2855,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
         <v>18</v>
       </c>
@@ -2876,7 +2897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
         <v>18</v>
       </c>
@@ -2918,7 +2939,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
         <v>18</v>
       </c>
@@ -2963,7 +2984,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
         <v>18</v>
       </c>
@@ -3008,7 +3029,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
         <v>20</v>
       </c>
@@ -3051,7 +3072,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
         <v>21</v>
       </c>
@@ -3089,7 +3110,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
         <v>21</v>
       </c>
@@ -3130,7 +3151,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
         <v>21</v>
       </c>
@@ -3168,7 +3189,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
         <v>22</v>
       </c>
@@ -3206,7 +3227,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
         <v>21</v>
       </c>
@@ -3244,7 +3265,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
         <v>22</v>
       </c>
@@ -3285,7 +3306,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
         <v>21</v>
       </c>
@@ -3326,7 +3347,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
         <v>22</v>
       </c>
@@ -3367,7 +3388,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>23</v>
       </c>
@@ -3403,7 +3424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>23</v>
       </c>
@@ -3439,7 +3460,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
         <v>29</v>
       </c>
@@ -3477,7 +3498,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>31</v>
       </c>
@@ -3515,7 +3536,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>31</v>
       </c>
@@ -3553,7 +3574,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
         <v>18</v>
       </c>
@@ -3595,7 +3616,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
         <v>18</v>
       </c>
@@ -3637,7 +3658,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
         <v>18</v>
       </c>
@@ -3682,7 +3703,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
         <v>18</v>
       </c>
@@ -3727,7 +3748,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
         <v>20</v>
       </c>
@@ -3770,7 +3791,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
         <v>21</v>
       </c>
@@ -3808,7 +3829,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
         <v>21</v>
       </c>
@@ -3849,7 +3870,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
         <v>21</v>
       </c>
@@ -3887,7 +3908,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
         <v>22</v>
       </c>
@@ -3925,7 +3946,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
         <v>21</v>
       </c>
@@ -3963,7 +3984,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="11" t="s">
         <v>22</v>
       </c>
@@ -4004,7 +4025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="s">
         <v>21</v>
       </c>
@@ -4045,7 +4066,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
         <v>22</v>
       </c>
@@ -4086,7 +4107,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>23</v>
       </c>
@@ -4122,7 +4143,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>23</v>
       </c>
@@ -4158,7 +4179,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="15" t="s">
         <v>29</v>
       </c>
@@ -4196,7 +4217,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>31</v>
       </c>
@@ -4234,7 +4255,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>31</v>
       </c>
@@ -4272,7 +4293,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="15" customFormat="true" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
         <v>18</v>
       </c>
@@ -4310,7 +4331,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="15" customFormat="true" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
         <v>18</v>
       </c>
@@ -4348,7 +4369,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="15" customFormat="true" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
         <v>20</v>
       </c>
@@ -4386,7 +4407,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="15" customFormat="true" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
         <v>21</v>
       </c>
@@ -4424,7 +4445,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="15" customFormat="true" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
         <v>21</v>
       </c>
@@ -4462,7 +4483,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="15" customFormat="true" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
         <v>21</v>
       </c>
@@ -4500,7 +4521,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="15" customFormat="true" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
         <v>22</v>
       </c>
@@ -4538,7 +4559,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" s="15" customFormat="true" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="15" t="s">
         <v>22</v>
       </c>
@@ -4576,7 +4597,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>23</v>
       </c>
@@ -4612,7 +4633,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>23</v>
       </c>
@@ -4648,7 +4669,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="s">
         <v>29</v>
       </c>
@@ -4686,7 +4707,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
         <v>31</v>
       </c>
@@ -4724,7 +4745,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15" t="s">
         <v>31</v>
       </c>
@@ -4762,7 +4783,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
         <v>18</v>
       </c>
@@ -4800,7 +4821,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15" t="s">
         <v>18</v>
       </c>
@@ -4838,7 +4859,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="15" t="s">
         <v>20</v>
       </c>
@@ -4876,7 +4897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
         <v>21</v>
       </c>
@@ -4914,7 +4935,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="15" t="s">
         <v>21</v>
       </c>
@@ -4952,7 +4973,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="15" t="s">
         <v>21</v>
       </c>
@@ -4990,7 +5011,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="15" t="s">
         <v>22</v>
       </c>
@@ -5028,7 +5049,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="15" t="s">
         <v>22</v>
       </c>
@@ -5066,7 +5087,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
         <v>23</v>
       </c>
@@ -5102,7 +5123,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
         <v>23</v>
       </c>
@@ -5138,7 +5159,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="15" t="s">
         <v>29</v>
       </c>
@@ -5176,7 +5197,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="15" t="s">
         <v>31</v>
       </c>
@@ -5214,7 +5235,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="15" t="s">
         <v>31</v>
       </c>
@@ -5253,6 +5274,19 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q92">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="SPAZA AFFORDABLE"/>
+        <filter val=""/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <customFilters and="true">
+        <customFilter operator="equal" val="0"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5260,6 +5294,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5269,25 +5304,26 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.6372093023256"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.8558139534884"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.9767441860465"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="42.0883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -5301,730 +5337,832 @@
         <v>117</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="G2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D3" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="G3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="G4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="G5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D6" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="G6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D7" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="G7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="D8" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D9" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="G9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>63</v>
+      <c r="E11" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="G11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D12" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>63</v>
+      <c r="E12" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="G12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D13" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>63</v>
+      <c r="E13" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="G13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D14" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>63</v>
+      <c r="E14" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="G14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>63</v>
+      <c r="E15" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="G15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="20"/>
+      <c r="B16" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="21"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>63</v>
+      <c r="E16" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="21" t="n">
+        <v>2</v>
       </c>
       <c r="G16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="20"/>
+      <c r="B17" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="21"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>63</v>
+      <c r="E17" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="21" t="n">
+        <v>2</v>
       </c>
       <c r="G17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="20"/>
+      <c r="B18" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="21"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>63</v>
+      <c r="E18" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="21" t="n">
+        <v>2</v>
       </c>
       <c r="G18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="20"/>
+      <c r="B19" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="21"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>63</v>
+      <c r="E19" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="21" t="n">
+        <v>2</v>
       </c>
       <c r="G19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D20" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E20" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>63</v>
+      <c r="E20" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D21" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E21" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>63</v>
+      <c r="E21" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D22" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E22" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>63</v>
+      <c r="E22" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D23" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="E23" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>63</v>
+      <c r="E23" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D24" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11" t="s">
-        <v>63</v>
-      </c>
+      <c r="E24" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D25" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="E25" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>63</v>
+      <c r="E25" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>63</v>
+      <c r="B26" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>63</v>
+      <c r="B27" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D28" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E28" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>63</v>
+      <c r="E28" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>63</v>
+      <c r="B29" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>63</v>
+      <c r="B30" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D31" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E31" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>63</v>
+      <c r="E31" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G31" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E32" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>63</v>
+      <c r="E32" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G32" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E33" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>63</v>
+      <c r="E33" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G33" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E34" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>63</v>
+      <c r="E34" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G34" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6053,22 +6191,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.7488372093023"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.4837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.4279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="65.4697674418605"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.3209302325581"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="38.3953488372093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.5023255813953"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="38.0279069767442"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.75348837209302"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="40.8558139534884"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.8558139534884"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.6976744186047"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.4372093023256"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.4279069767442"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.4139534883721"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.5023255813953"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.3674418604651"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.1348837209302"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.87441860465116"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="42.0883720930233"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6082,34 +6221,34 @@
         <v>48</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>43</v>
@@ -6135,22 +6274,22 @@
         <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>65</v>
@@ -6173,16 +6312,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>62</v>
@@ -6211,10 +6350,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>62</v>
@@ -6223,10 +6362,10 @@
         <v>61</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H4" s="11" t="n">
         <v>50</v>
@@ -6266,24 +6405,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.2139534883721"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.8558139534884"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.9488372093023"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.0883720930233"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -6309,14 +6451,14 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>153</v>
+      <c r="B2" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4</v>
@@ -6342,14 +6484,14 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>154</v>
+      <c r="B3" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>3</v>
@@ -6374,14 +6516,14 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>155</v>
+      <c r="B4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -6396,7 +6538,7 @@
         <v>68</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>16</v>
@@ -6406,14 +6548,14 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>153</v>
+      <c r="B5" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>4</v>
@@ -6438,14 +6580,14 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>154</v>
+      <c r="B6" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>3</v>
@@ -6470,14 +6612,14 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>155</v>
+      <c r="B7" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -6492,7 +6634,7 @@
         <v>94</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>16</v>
@@ -6502,14 +6644,14 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>153</v>
+      <c r="B8" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4</v>
@@ -6534,14 +6676,14 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>154</v>
+      <c r="B9" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>3</v>
@@ -6566,14 +6708,14 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>155</v>
+      <c r="B10" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -6588,7 +6730,7 @@
         <v>95</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>16</v>
@@ -6598,14 +6740,14 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>153</v>
+      <c r="B11" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -6630,14 +6772,14 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>154</v>
+      <c r="B12" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>3</v>
@@ -6662,14 +6804,14 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>155</v>
+      <c r="B13" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
@@ -6684,7 +6826,7 @@
         <v>107</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>16</v>
@@ -6694,14 +6836,14 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>153</v>
+      <c r="B14" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4</v>
@@ -6726,14 +6868,14 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>154</v>
+      <c r="B15" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>3</v>
@@ -6758,14 +6900,14 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>155</v>
+      <c r="B16" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
@@ -6780,7 +6922,7 @@
         <v>108</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>16</v>
@@ -6790,14 +6932,14 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>153</v>
+      <c r="B17" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>4</v>
@@ -6822,14 +6964,14 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>154</v>
+      <c r="B18" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>3</v>
@@ -6854,14 +6996,14 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>155</v>
+      <c r="B19" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1</v>
@@ -6876,7 +7018,7 @@
         <v>115</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>16</v>
@@ -6898,36 +7040,38 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:R116"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L91" activeCellId="0" sqref="L91"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.1441860465116"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.3023255813953"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="206.004651162791"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="37.5348837209302"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="87.2511627906977"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="27.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.2372093023256"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0418604651163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.4279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="212.283720930233"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="38.6418604651163"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="89.8372093023256"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="28.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6938,7 +7082,7 @@
         <v>40</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>48</v>
@@ -6991,22 +7135,22 @@
         <v>13</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -7029,7 +7173,7 @@
         <v>15</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7037,10 +7181,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>60</v>
@@ -7062,28 +7206,28 @@
       <c r="Q3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R3" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" s="11" customFormat="true" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>165</v>
-      </c>
       <c r="D4" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>168</v>
+      <c r="F4" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="K4" s="11" t="n">
         <v>2</v>
@@ -7107,27 +7251,27 @@
         <v>15</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" s="11" customFormat="true" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>165</v>
-      </c>
       <c r="D5" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>168</v>
+      <c r="F5" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="K5" s="11" t="n">
         <v>2</v>
@@ -7151,7 +7295,7 @@
         <v>15</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7159,10 +7303,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>60</v>
@@ -7170,8 +7314,8 @@
       <c r="E6" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>171</v>
+      <c r="F6" s="26" t="s">
+        <v>173</v>
       </c>
       <c r="K6" s="11" t="n">
         <v>2</v>
@@ -7186,7 +7330,7 @@
         <v>68</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>16</v>
@@ -7195,18 +7339,18 @@
         <v>15</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>60</v>
@@ -7214,8 +7358,8 @@
       <c r="E7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>173</v>
+      <c r="F7" s="26" t="s">
+        <v>175</v>
       </c>
       <c r="K7" s="11" t="n">
         <v>2</v>
@@ -7239,18 +7383,18 @@
         <v>15</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>60</v>
@@ -7258,8 +7402,8 @@
       <c r="E8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>173</v>
+      <c r="F8" s="26" t="s">
+        <v>175</v>
       </c>
       <c r="K8" s="11" t="n">
         <v>2</v>
@@ -7283,7 +7427,7 @@
         <v>15</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7291,10 +7435,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>60</v>
@@ -7302,8 +7446,8 @@
       <c r="E9" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>175</v>
+      <c r="F9" s="26" t="s">
+        <v>177</v>
       </c>
       <c r="K9" s="11" t="n">
         <v>2</v>
@@ -7318,7 +7462,7 @@
         <v>68</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>16</v>
@@ -7327,7 +7471,7 @@
         <v>15</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7335,10 +7479,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>60</v>
@@ -7346,8 +7490,8 @@
       <c r="E10" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>177</v>
+      <c r="F10" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -7372,7 +7516,7 @@
         <v>15</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7380,10 +7524,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>60</v>
@@ -7391,7 +7535,7 @@
       <c r="E11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="26" t="s">
         <v>85</v>
       </c>
       <c r="K11" s="11" t="n">
@@ -7413,7 +7557,7 @@
         <v>15</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7421,10 +7565,10 @@
         <v>23</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>60</v>
@@ -7432,7 +7576,7 @@
       <c r="E12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="26" t="s">
         <v>87</v>
       </c>
       <c r="K12" s="11" t="n">
@@ -7451,7 +7595,7 @@
         <v>15</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7459,19 +7603,19 @@
         <v>24</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="K13" s="11" t="n">
         <v>1</v>
@@ -7492,7 +7636,7 @@
         <v>15</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7500,10 +7644,10 @@
         <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>60</v>
@@ -7512,7 +7656,7 @@
         <v>66</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>2</v>
@@ -7533,7 +7677,7 @@
         <v>15</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7541,10 +7685,10 @@
         <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>60</v>
@@ -7553,7 +7697,7 @@
         <v>66</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>2</v>
@@ -7574,7 +7718,7 @@
         <v>15</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7582,10 +7726,10 @@
         <v>27</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>60</v>
@@ -7615,7 +7759,7 @@
         <v>15</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7623,10 +7767,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>60</v>
@@ -7635,7 +7779,7 @@
         <v>66</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>2</v>
@@ -7656,27 +7800,27 @@
         <v>15</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>196</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>1</v>
@@ -7700,27 +7844,27 @@
         <v>15</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>196</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>1</v>
@@ -7744,7 +7888,7 @@
         <v>15</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7752,19 +7896,19 @@
         <v>33</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>1</v>
@@ -7779,7 +7923,7 @@
         <v>68</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P20" s="11" t="s">
         <v>16</v>
@@ -7788,27 +7932,27 @@
         <v>15</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" s="11" customFormat="true" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>165</v>
-      </c>
       <c r="D21" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="25" t="s">
-        <v>168</v>
+      <c r="F21" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="K21" s="11" t="n">
         <v>2</v>
@@ -7832,27 +7976,27 @@
         <v>15</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" s="11" customFormat="true" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>165</v>
-      </c>
       <c r="D22" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>168</v>
+      <c r="F22" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="K22" s="11" t="n">
         <v>2</v>
@@ -7876,18 +8020,18 @@
         <v>15</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>60</v>
@@ -7895,8 +8039,8 @@
       <c r="E23" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>171</v>
+      <c r="F23" s="26" t="s">
+        <v>173</v>
       </c>
       <c r="K23" s="11" t="n">
         <v>2</v>
@@ -7911,7 +8055,7 @@
         <v>94</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>16</v>
@@ -7920,18 +8064,18 @@
         <v>15</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>60</v>
@@ -7939,8 +8083,8 @@
       <c r="E24" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="25" t="s">
-        <v>173</v>
+      <c r="F24" s="26" t="s">
+        <v>175</v>
       </c>
       <c r="K24" s="11" t="n">
         <v>2</v>
@@ -7964,18 +8108,18 @@
         <v>15</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>60</v>
@@ -7983,8 +8127,8 @@
       <c r="E25" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="25" t="s">
-        <v>173</v>
+      <c r="F25" s="26" t="s">
+        <v>175</v>
       </c>
       <c r="K25" s="11" t="n">
         <v>2</v>
@@ -8008,18 +8152,18 @@
         <v>15</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>60</v>
@@ -8027,8 +8171,8 @@
       <c r="E26" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="25" t="s">
-        <v>175</v>
+      <c r="F26" s="26" t="s">
+        <v>177</v>
       </c>
       <c r="K26" s="11" t="n">
         <v>2</v>
@@ -8043,7 +8187,7 @@
         <v>94</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P26" s="11" t="s">
         <v>16</v>
@@ -8052,18 +8196,18 @@
         <v>15</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>60</v>
@@ -8071,8 +8215,8 @@
       <c r="E27" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="25" t="s">
-        <v>177</v>
+      <c r="F27" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -8097,18 +8241,18 @@
         <v>15</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>60</v>
@@ -8116,7 +8260,7 @@
       <c r="E28" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="26" t="s">
         <v>85</v>
       </c>
       <c r="K28" s="11" t="n">
@@ -8138,18 +8282,18 @@
         <v>15</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>60</v>
@@ -8157,7 +8301,7 @@
       <c r="E29" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="26" t="s">
         <v>87</v>
       </c>
       <c r="K29" s="11" t="n">
@@ -8176,27 +8320,27 @@
         <v>15</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="K30" s="11" t="n">
         <v>1</v>
@@ -8217,18 +8361,18 @@
         <v>15</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>60</v>
@@ -8237,7 +8381,7 @@
         <v>66</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>2</v>
@@ -8258,18 +8402,18 @@
         <v>15</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>60</v>
@@ -8278,7 +8422,7 @@
         <v>66</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>2</v>
@@ -8299,18 +8443,18 @@
         <v>15</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>60</v>
@@ -8340,18 +8484,18 @@
         <v>15</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>60</v>
@@ -8360,7 +8504,7 @@
         <v>66</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>2</v>
@@ -8381,27 +8525,27 @@
         <v>15</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>198</v>
+        <v>183</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>1</v>
@@ -8422,27 +8566,27 @@
         <v>15</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>196</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>1</v>
@@ -8466,27 +8610,27 @@
         <v>15</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>196</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>1</v>
@@ -8510,27 +8654,27 @@
         <v>15</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>1</v>
@@ -8545,7 +8689,7 @@
         <v>94</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>16</v>
@@ -8554,18 +8698,18 @@
         <v>15</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>60</v>
@@ -8574,7 +8718,7 @@
         <v>66</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>2</v>
@@ -8598,18 +8742,18 @@
         <v>15</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>60</v>
@@ -8618,7 +8762,7 @@
         <v>66</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>2</v>
@@ -8642,18 +8786,18 @@
         <v>15</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>60</v>
@@ -8662,7 +8806,7 @@
         <v>66</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>2</v>
@@ -8677,7 +8821,7 @@
         <v>95</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>16</v>
@@ -8686,18 +8830,18 @@
         <v>15</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>60</v>
@@ -8706,7 +8850,7 @@
         <v>66</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>2</v>
@@ -8730,18 +8874,18 @@
         <v>15</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>60</v>
@@ -8750,7 +8894,7 @@
         <v>66</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>2</v>
@@ -8774,18 +8918,18 @@
         <v>15</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>60</v>
@@ -8794,7 +8938,7 @@
         <v>66</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>2</v>
@@ -8809,7 +8953,7 @@
         <v>95</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P44" s="11" t="s">
         <v>16</v>
@@ -8818,18 +8962,18 @@
         <v>15</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>60</v>
@@ -8838,7 +8982,7 @@
         <v>66</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>2</v>
@@ -8862,18 +9006,18 @@
         <v>15</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>60</v>
@@ -8882,7 +9026,7 @@
         <v>66</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>2</v>
@@ -8906,18 +9050,18 @@
         <v>15</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>60</v>
@@ -8926,7 +9070,7 @@
         <v>66</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>2</v>
@@ -8941,7 +9085,7 @@
         <v>95</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P47" s="11" t="s">
         <v>16</v>
@@ -8950,18 +9094,18 @@
         <v>15</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>60</v>
@@ -8970,7 +9114,7 @@
         <v>66</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>2</v>
@@ -8994,18 +9138,18 @@
         <v>15</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>60</v>
@@ -9014,7 +9158,7 @@
         <v>66</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>2</v>
@@ -9038,18 +9182,18 @@
         <v>15</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>60</v>
@@ -9073,7 +9217,7 @@
         <v>95</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P50" s="11" t="s">
         <v>16</v>
@@ -9082,18 +9226,18 @@
         <v>15</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>60</v>
@@ -9102,7 +9246,7 @@
         <v>66</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>2</v>
@@ -9120,27 +9264,27 @@
         <v>15</v>
       </c>
       <c r="R51" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="K52" s="11" t="n">
         <v>1</v>
@@ -9161,18 +9305,18 @@
         <v>15</v>
       </c>
       <c r="R52" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>60</v>
@@ -9181,7 +9325,7 @@
         <v>66</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>2</v>
@@ -9202,18 +9346,18 @@
         <v>15</v>
       </c>
       <c r="R53" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>60</v>
@@ -9222,7 +9366,7 @@
         <v>66</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>2</v>
@@ -9243,18 +9387,18 @@
         <v>15</v>
       </c>
       <c r="R54" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>60</v>
@@ -9263,7 +9407,7 @@
         <v>66</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>2</v>
@@ -9284,18 +9428,18 @@
         <v>15</v>
       </c>
       <c r="R55" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>60</v>
@@ -9304,7 +9448,7 @@
         <v>66</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>2</v>
@@ -9325,18 +9469,18 @@
         <v>15</v>
       </c>
       <c r="R56" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>60</v>
@@ -9345,7 +9489,7 @@
         <v>66</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>2</v>
@@ -9366,18 +9510,18 @@
         <v>15</v>
       </c>
       <c r="R57" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>60</v>
@@ -9386,7 +9530,7 @@
         <v>66</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>2</v>
@@ -9410,18 +9554,18 @@
         <v>15</v>
       </c>
       <c r="R58" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>60</v>
@@ -9430,7 +9574,7 @@
         <v>66</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>2</v>
@@ -9454,18 +9598,18 @@
         <v>15</v>
       </c>
       <c r="R59" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>60</v>
@@ -9474,7 +9618,7 @@
         <v>66</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>2</v>
@@ -9489,7 +9633,7 @@
         <v>107</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P60" s="11" t="s">
         <v>16</v>
@@ -9498,18 +9642,18 @@
         <v>15</v>
       </c>
       <c r="R60" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>60</v>
@@ -9518,7 +9662,7 @@
         <v>66</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>2</v>
@@ -9542,18 +9686,18 @@
         <v>15</v>
       </c>
       <c r="R61" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>60</v>
@@ -9562,7 +9706,7 @@
         <v>66</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>2</v>
@@ -9586,18 +9730,18 @@
         <v>15</v>
       </c>
       <c r="R62" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>60</v>
@@ -9606,7 +9750,7 @@
         <v>66</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>2</v>
@@ -9621,7 +9765,7 @@
         <v>107</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P63" s="11" t="s">
         <v>16</v>
@@ -9630,18 +9774,18 @@
         <v>15</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>60</v>
@@ -9650,7 +9794,7 @@
         <v>66</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>2</v>
@@ -9674,18 +9818,18 @@
         <v>15</v>
       </c>
       <c r="R64" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>60</v>
@@ -9694,7 +9838,7 @@
         <v>66</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K65" s="0" t="n">
         <v>2</v>
@@ -9718,18 +9862,18 @@
         <v>15</v>
       </c>
       <c r="R65" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>60</v>
@@ -9738,7 +9882,7 @@
         <v>66</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>2</v>
@@ -9753,7 +9897,7 @@
         <v>107</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P66" s="11" t="s">
         <v>16</v>
@@ -9762,18 +9906,18 @@
         <v>15</v>
       </c>
       <c r="R66" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>60</v>
@@ -9782,7 +9926,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>2</v>
@@ -9806,18 +9950,18 @@
         <v>15</v>
       </c>
       <c r="R67" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>60</v>
@@ -9826,7 +9970,7 @@
         <v>66</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>2</v>
@@ -9850,18 +9994,18 @@
         <v>15</v>
       </c>
       <c r="R68" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>60</v>
@@ -9885,7 +10029,7 @@
         <v>107</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P69" s="11" t="s">
         <v>16</v>
@@ -9894,18 +10038,18 @@
         <v>15</v>
       </c>
       <c r="R69" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>60</v>
@@ -9914,7 +10058,7 @@
         <v>66</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K70" s="0" t="n">
         <v>2</v>
@@ -9932,27 +10076,27 @@
         <v>15</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F71" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="K71" s="11" t="n">
         <v>1</v>
@@ -9973,18 +10117,18 @@
         <v>15</v>
       </c>
       <c r="R71" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>60</v>
@@ -9993,7 +10137,7 @@
         <v>66</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K72" s="0" t="n">
         <v>2</v>
@@ -10014,18 +10158,18 @@
         <v>15</v>
       </c>
       <c r="R72" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>60</v>
@@ -10034,7 +10178,7 @@
         <v>66</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K73" s="0" t="n">
         <v>2</v>
@@ -10055,18 +10199,18 @@
         <v>15</v>
       </c>
       <c r="R73" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>60</v>
@@ -10075,7 +10219,7 @@
         <v>66</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K74" s="0" t="n">
         <v>2</v>
@@ -10096,18 +10240,18 @@
         <v>15</v>
       </c>
       <c r="R74" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>60</v>
@@ -10116,7 +10260,7 @@
         <v>66</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K75" s="0" t="n">
         <v>2</v>
@@ -10137,18 +10281,18 @@
         <v>15</v>
       </c>
       <c r="R75" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>60</v>
@@ -10157,7 +10301,7 @@
         <v>66</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K76" s="0" t="n">
         <v>2</v>
@@ -10178,27 +10322,27 @@
         <v>15</v>
       </c>
       <c r="R76" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" s="15" customFormat="true" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F77" s="26" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="K77" s="15" t="n">
         <v>1</v>
@@ -10222,27 +10366,27 @@
         <v>15</v>
       </c>
       <c r="R77" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="78" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" s="15" customFormat="true" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F78" s="26" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="K78" s="15" t="n">
         <v>1</v>
@@ -10266,27 +10410,27 @@
         <v>15</v>
       </c>
       <c r="R78" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K79" s="15" t="n">
         <v>1</v>
@@ -10301,7 +10445,7 @@
         <v>95</v>
       </c>
       <c r="O79" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P79" s="15" t="s">
         <v>16</v>
@@ -10310,27 +10454,27 @@
         <v>15</v>
       </c>
       <c r="R79" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F80" s="26" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="F80" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="K80" s="15" t="n">
         <v>1</v>
@@ -10354,27 +10498,27 @@
         <v>15</v>
       </c>
       <c r="R80" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F81" s="26" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="F81" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="K81" s="15" t="n">
         <v>1</v>
@@ -10398,27 +10542,27 @@
         <v>15</v>
       </c>
       <c r="R81" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K82" s="15" t="n">
         <v>1</v>
@@ -10433,7 +10577,7 @@
         <v>107</v>
       </c>
       <c r="O82" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P82" s="15" t="s">
         <v>16</v>
@@ -10442,18 +10586,18 @@
         <v>15</v>
       </c>
       <c r="R82" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>60</v>
@@ -10462,7 +10606,7 @@
         <v>66</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K83" s="15" t="n">
         <v>2</v>
@@ -10483,18 +10627,18 @@
         <v>15</v>
       </c>
       <c r="R83" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>60</v>
@@ -10503,7 +10647,7 @@
         <v>66</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K84" s="15" t="n">
         <v>2</v>
@@ -10527,18 +10671,18 @@
         <v>15</v>
       </c>
       <c r="R84" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>60</v>
@@ -10547,7 +10691,7 @@
         <v>66</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K85" s="15" t="n">
         <v>2</v>
@@ -10571,18 +10715,18 @@
         <v>15</v>
       </c>
       <c r="R85" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>60</v>
@@ -10591,7 +10735,7 @@
         <v>66</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K86" s="15" t="n">
         <v>2</v>
@@ -10606,7 +10750,7 @@
         <v>108</v>
       </c>
       <c r="O86" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P86" s="15" t="s">
         <v>16</v>
@@ -10615,18 +10759,18 @@
         <v>15</v>
       </c>
       <c r="R86" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>60</v>
@@ -10635,7 +10779,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K87" s="15" t="n">
         <v>2</v>
@@ -10659,18 +10803,18 @@
         <v>15</v>
       </c>
       <c r="R87" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>60</v>
@@ -10679,7 +10823,7 @@
         <v>66</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K88" s="15" t="n">
         <v>2</v>
@@ -10703,18 +10847,18 @@
         <v>15</v>
       </c>
       <c r="R88" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>60</v>
@@ -10723,7 +10867,7 @@
         <v>66</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K89" s="15" t="n">
         <v>2</v>
@@ -10738,7 +10882,7 @@
         <v>108</v>
       </c>
       <c r="O89" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P89" s="15" t="s">
         <v>16</v>
@@ -10747,18 +10891,18 @@
         <v>15</v>
       </c>
       <c r="R89" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>60</v>
@@ -10767,7 +10911,7 @@
         <v>66</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K90" s="15" t="n">
         <v>2</v>
@@ -10788,18 +10932,18 @@
         <v>15</v>
       </c>
       <c r="R90" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>60</v>
@@ -10808,7 +10952,7 @@
         <v>66</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K91" s="15" t="n">
         <v>2</v>
@@ -10826,27 +10970,27 @@
         <v>15</v>
       </c>
       <c r="R91" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K92" s="15" t="n">
         <v>1</v>
@@ -10867,18 +11011,18 @@
         <v>15</v>
       </c>
       <c r="R92" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>60</v>
@@ -10887,7 +11031,7 @@
         <v>66</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K93" s="15" t="n">
         <v>2</v>
@@ -10908,18 +11052,18 @@
         <v>15</v>
       </c>
       <c r="R93" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>60</v>
@@ -10928,7 +11072,7 @@
         <v>66</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K94" s="15" t="n">
         <v>2</v>
@@ -10949,18 +11093,18 @@
         <v>15</v>
       </c>
       <c r="R94" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>60</v>
@@ -10969,7 +11113,7 @@
         <v>66</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K95" s="15" t="n">
         <v>2</v>
@@ -10990,18 +11134,18 @@
         <v>15</v>
       </c>
       <c r="R95" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>60</v>
@@ -11010,7 +11154,7 @@
         <v>66</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K96" s="15" t="n">
         <v>2</v>
@@ -11031,27 +11175,27 @@
         <v>15</v>
       </c>
       <c r="R96" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F97" s="26" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="F97" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="K97" s="15" t="n">
         <v>1</v>
@@ -11075,27 +11219,27 @@
         <v>15</v>
       </c>
       <c r="R97" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F98" s="26" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="F98" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="15"/>
@@ -11123,27 +11267,27 @@
         <v>15</v>
       </c>
       <c r="R98" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G99" s="15"/>
       <c r="H99" s="15"/>
@@ -11162,7 +11306,7 @@
         <v>108</v>
       </c>
       <c r="O99" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P99" s="15" t="s">
         <v>16</v>
@@ -11171,18 +11315,18 @@
         <v>15</v>
       </c>
       <c r="R99" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="100" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100" s="15" customFormat="true" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>60</v>
@@ -11191,7 +11335,7 @@
         <v>66</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K100" s="15" t="n">
         <v>2</v>
@@ -11212,18 +11356,18 @@
         <v>15</v>
       </c>
       <c r="R100" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D101" s="15" t="s">
         <v>60</v>
@@ -11232,7 +11376,7 @@
         <v>66</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G101" s="15"/>
       <c r="H101" s="15"/>
@@ -11260,18 +11404,18 @@
         <v>15</v>
       </c>
       <c r="R101" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>60</v>
@@ -11280,7 +11424,7 @@
         <v>66</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K102" s="15" t="n">
         <v>2</v>
@@ -11304,18 +11448,18 @@
         <v>15</v>
       </c>
       <c r="R102" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D103" s="15" t="s">
         <v>60</v>
@@ -11324,7 +11468,7 @@
         <v>66</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K103" s="15" t="n">
         <v>2</v>
@@ -11339,7 +11483,7 @@
         <v>115</v>
       </c>
       <c r="O103" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P103" s="15" t="s">
         <v>16</v>
@@ -11348,18 +11492,18 @@
         <v>15</v>
       </c>
       <c r="R103" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D104" s="15" t="s">
         <v>60</v>
@@ -11368,7 +11512,7 @@
         <v>66</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K104" s="15" t="n">
         <v>2</v>
@@ -11392,18 +11536,18 @@
         <v>15</v>
       </c>
       <c r="R104" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D105" s="15" t="s">
         <v>60</v>
@@ -11412,7 +11556,7 @@
         <v>66</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K105" s="15" t="n">
         <v>2</v>
@@ -11436,18 +11580,18 @@
         <v>15</v>
       </c>
       <c r="R105" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>60</v>
@@ -11456,7 +11600,7 @@
         <v>66</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K106" s="15" t="n">
         <v>2</v>
@@ -11471,7 +11615,7 @@
         <v>115</v>
       </c>
       <c r="O106" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P106" s="15" t="s">
         <v>16</v>
@@ -11480,18 +11624,18 @@
         <v>15</v>
       </c>
       <c r="R106" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D107" s="15" t="s">
         <v>60</v>
@@ -11500,7 +11644,7 @@
         <v>66</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K107" s="15" t="n">
         <v>2</v>
@@ -11521,18 +11665,18 @@
         <v>15</v>
       </c>
       <c r="R107" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>60</v>
@@ -11541,7 +11685,7 @@
         <v>66</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K108" s="15" t="n">
         <v>2</v>
@@ -11559,27 +11703,27 @@
         <v>15</v>
       </c>
       <c r="R108" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K109" s="15" t="n">
         <v>1</v>
@@ -11600,18 +11744,18 @@
         <v>15</v>
       </c>
       <c r="R109" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D110" s="15" t="s">
         <v>60</v>
@@ -11620,7 +11764,7 @@
         <v>66</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K110" s="15" t="n">
         <v>2</v>
@@ -11641,18 +11785,18 @@
         <v>15</v>
       </c>
       <c r="R110" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D111" s="15" t="s">
         <v>60</v>
@@ -11661,7 +11805,7 @@
         <v>66</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K111" s="15" t="n">
         <v>2</v>
@@ -11682,18 +11826,18 @@
         <v>15</v>
       </c>
       <c r="R111" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D112" s="15" t="s">
         <v>60</v>
@@ -11702,7 +11846,7 @@
         <v>66</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K112" s="15" t="n">
         <v>2</v>
@@ -11723,18 +11867,18 @@
         <v>15</v>
       </c>
       <c r="R112" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D113" s="15" t="s">
         <v>60</v>
@@ -11743,7 +11887,7 @@
         <v>66</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K113" s="15" t="n">
         <v>2</v>
@@ -11764,27 +11908,27 @@
         <v>15</v>
       </c>
       <c r="R113" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F114" s="26" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="F114" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="K114" s="15" t="n">
         <v>1</v>
@@ -11808,27 +11952,27 @@
         <v>15</v>
       </c>
       <c r="R114" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F115" s="26" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="F115" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
@@ -11856,27 +12000,27 @@
         <v>15</v>
       </c>
       <c r="R115" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
@@ -11895,7 +12039,7 @@
         <v>115</v>
       </c>
       <c r="O116" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P116" s="15" t="s">
         <v>16</v>
@@ -11904,10 +12048,24 @@
         <v>15</v>
       </c>
       <c r="R116" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R116">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="SPAZA AFFORDABLE"/>
+        <filter val=""/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <filters>
+        <filter val="BRONZE"/>
+        <filter val=""/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -11915,5 +12073,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
@@ -640,76 +640,76 @@
     <t xml:space="preserve">Sparletta Call Out Pricing Poster 1,Sparletta Call Out Pricing Poster 2,Sparletta Call Out Pricing Poster 3,Sparletta Call Out Pricing Poster 4,Sparletta Call Out Pricing Poster 5</t>
   </si>
   <si>
+    <t xml:space="preserve">SSD IC Availability of: 300 ml PET,440ml Can (CC, SP,FA, ST), 440ml PET (CC, SP, FA or ST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87126037,54492691,40822921,40822327,5449000140906,5449000106476,5449000234605,5449000195715,5449000664686,5449000664754,5449000234643,5449000664808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC pack sizes: 300 ml PET,440ml can (CC, SP,FA or ST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87126037,54492691,40822921,40822327,5449000140906,5449000106476,5449000234605,5449000195715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Diets Brands/Packs: 300ml PET  (CZ), 440 ml Can, 440ml PET (CZ,STZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90375149,5449000157751,5449000230188,5449000664716,5449000664709,5449000664693,5449000664761,5449000664785,5449000664792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Diets Brands/Packs: 300ml PET  (CZ), 440 ml Can (CZ,STZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90375149,5449000157751,5449000230188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD FC pack sizes:1.25L(CC),1.5L,2L  (CC, SP,FA, ST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000009746,5449000025234,5449000027559,6001134705506,5449000000439,5449000234629,5449000052926,5449000180919,5449000009067,5449000010049,5449000234636,6001134707302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD FC pack sizes: 1.25L (CC),1.5L  (CC, SP, ST or FA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD FC Diets Brands/Packs: 1.5L in (CZ/STZ),  2L (CZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000180896,5449000133335,5449000037978,5449000061768,5449000202048,5449000172167,5449000202147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD FC Diets Brands/Packs: 1.5L in (CZ/SZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills Availability of Burn in 500ml Can &amp; PP in 440ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5060466519237,5060466515819,5060466513204,5060466513112,5060466513174,5060466513051,5060466513082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills Brands/Packs: 200ml/330ml/ 440ml/500ml (BA) Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills Brands/Packs: 200ml/330ml/ 440ml/500ml (BAFW) Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills Brands/Packs: 200ml/330ml/ 440ml/500ml (JJ) Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills Brands/Packs: 200ml/330ml/ 440ml/500ml (PA) Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90331725,90492488,54490482,90492501,54490345,5449000665195,5449000665744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills Brands/Packs: 200ml/330ml/ 440ml/500ml  (Tiser) Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6001048003323,6001048000902,6001048004481,6001048001640,6001048001763,6001048003385,6001048000933,6001048004511,6001048003354,6001048000988,6001048004542,6001048004573</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSD IC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Availability of: 300 ml PET,440ml Can (CC, SP,FA, ST), 440ml PET (CC, SP, FA or ST)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87126037,54492691,40822921,40822327,5449000140906,5449000106476,5449000234605,5449000195715,5449000664686,5449000664754,5449000234643,5449000664808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC pack sizes: 300 ml PET,440ml can (CC, SP,FA or ST)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87126037,54492691,40822921,40822327,5449000140906,5449000106476,5449000234605,5449000195715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Diets Brands/Packs: 300ml PET  (CZ), 440 ml Can, 440ml PET (CZ,STZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90375149,5449000157751,5449000230188,5449000664716,5449000664709,5449000664693,5449000664761,5449000664785,5449000664792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Diets Brands/Packs: 300ml PET  (CZ), 440 ml Can (CZ,STZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90375149,5449000157751,5449000230188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD FC pack sizes:1.25L(CC),1.5L,2L  (CC, SP,FA, ST)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000009746,5449000025234,5449000027559,6001134705506,5449000000439,5449000234629,5449000052926,5449000180919,5449000009067,5449000010049,5449000234636,6001134707302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD FC pack sizes: 1.25L (CC),1.5L  (CC, SP, ST or FA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD FC Diets Brands/Packs: 1.5L in (CZ/STZ),  2L (CZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000180896,5449000133335,5449000037978,5449000061768,5449000202048,5449000172167,5449000202147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD FC Diets Brands/Packs: 1.5L in (CZ/SZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills Availability of Burn in 500ml Can &amp; PP in 440ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5060466519237,5060466515819,5060466513204,5060466513112,5060466513174,5060466513051,5060466513082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills Brands/Packs: 200ml/330ml/ 440ml/500ml (BA) Cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills Brands/Packs: 200ml/330ml/ 440ml/500ml (BAFW) Cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills Brands/Packs: 200ml/330ml/ 440ml/500ml (JJ) Cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills Brands/Packs: 200ml/330ml/ 440ml/500ml (PA) Cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90331725,90492488,54490482,90492501,54490345,5449000665195,5449000665744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills Brands/Packs: 200ml/330ml/ 440ml/500ml  (Tiser) Cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6001048003323,6001048000902,6001048004481,6001048001640,6001048001763,6001048003385,6001048000933,6001048004511,6001048003354,6001048000988,6001048004542,6001048004573</t>
   </si>
   <si>
     <t xml:space="preserve">SSD FC Diets Brands/Packs: 1.5L, 2L in (CZ,STZ)</t>
@@ -1084,8 +1084,8 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1505,7 +1505,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1564,11 +1564,11 @@
   <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5274,8 +5274,8 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6084,7 +6084,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6297,7 +6297,7 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -6944,11 +6944,11 @@
   </sheetPr>
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C106" activeCellId="0" sqref="C106"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8883720930233"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.5302325581395"/>
@@ -6956,9 +6956,9 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.4279069767442"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4279069767442"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="9" width="212.283720930233"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.86046511627907"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.86046511627907"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="0" width="10.093023255814"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.72093023255814"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.153488372093"/>
@@ -6972,7 +6972,7 @@
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>24</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>27</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>27</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>27</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>27</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>33</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>33</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>33</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>18</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
         <v>20</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
         <v>20</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
         <v>22</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>24</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>27</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>27</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>27</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>27</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>33</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>33</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>33</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>33</v>
       </c>
@@ -8605,12 +8605,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>202</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>166</v>
@@ -8622,7 +8622,7 @@
         <v>66</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L39" s="0" t="n">
         <v>2</v>
@@ -8649,12 +8649,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>166</v>
@@ -8666,7 +8666,7 @@
         <v>66</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L40" s="0" t="n">
         <v>2</v>
@@ -8693,12 +8693,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>166</v>
@@ -8710,7 +8710,7 @@
         <v>66</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L41" s="0" t="n">
         <v>2</v>
@@ -8737,12 +8737,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>166</v>
@@ -8754,7 +8754,7 @@
         <v>66</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L42" s="0" t="n">
         <v>2</v>
@@ -8781,12 +8781,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>166</v>
@@ -8798,7 +8798,7 @@
         <v>66</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L43" s="0" t="n">
         <v>2</v>
@@ -8825,12 +8825,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>166</v>
@@ -8842,7 +8842,7 @@
         <v>66</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L44" s="0" t="n">
         <v>2</v>
@@ -8869,12 +8869,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>166</v>
@@ -8886,7 +8886,7 @@
         <v>66</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L45" s="0" t="n">
         <v>2</v>
@@ -8913,12 +8913,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>166</v>
@@ -8957,12 +8957,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>166</v>
@@ -9001,12 +9001,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>166</v>
@@ -9018,7 +9018,7 @@
         <v>66</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L48" s="0" t="n">
         <v>2</v>
@@ -9045,12 +9045,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>166</v>
@@ -9089,12 +9089,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>166</v>
@@ -9133,12 +9133,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>166</v>
@@ -9150,7 +9150,7 @@
         <v>66</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L51" s="0" t="n">
         <v>2</v>
@@ -9171,7 +9171,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>24</v>
       </c>
@@ -9212,12 +9212,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>166</v>
@@ -9253,12 +9253,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>166</v>
@@ -9294,12 +9294,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>166</v>
@@ -9335,12 +9335,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>166</v>
@@ -9352,7 +9352,7 @@
         <v>66</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L56" s="0" t="n">
         <v>2</v>
@@ -9376,12 +9376,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>166</v>
@@ -9393,7 +9393,7 @@
         <v>66</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L57" s="0" t="n">
         <v>2</v>
@@ -9417,12 +9417,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>202</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>166</v>
@@ -9434,7 +9434,7 @@
         <v>66</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L58" s="0" t="n">
         <v>2</v>
@@ -9461,12 +9461,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>166</v>
@@ -9478,7 +9478,7 @@
         <v>66</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L59" s="0" t="n">
         <v>2</v>
@@ -9505,12 +9505,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>166</v>
@@ -9522,7 +9522,7 @@
         <v>66</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L60" s="0" t="n">
         <v>2</v>
@@ -9549,12 +9549,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>166</v>
@@ -9566,7 +9566,7 @@
         <v>66</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L61" s="0" t="n">
         <v>2</v>
@@ -9593,12 +9593,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>166</v>
@@ -9610,7 +9610,7 @@
         <v>66</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L62" s="0" t="n">
         <v>2</v>
@@ -9637,12 +9637,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>166</v>
@@ -9654,7 +9654,7 @@
         <v>66</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L63" s="0" t="n">
         <v>2</v>
@@ -9681,12 +9681,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>166</v>
@@ -9698,7 +9698,7 @@
         <v>66</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L64" s="0" t="n">
         <v>2</v>
@@ -9725,12 +9725,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>166</v>
@@ -9769,12 +9769,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>166</v>
@@ -9813,7 +9813,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>22</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L67" s="0" t="n">
         <v>2</v>
@@ -9857,7 +9857,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>22</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>22</v>
       </c>
@@ -9945,12 +9945,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>166</v>
@@ -9962,7 +9962,7 @@
         <v>66</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L70" s="0" t="n">
         <v>2</v>
@@ -9983,7 +9983,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>24</v>
       </c>
@@ -10024,12 +10024,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>166</v>
@@ -10065,12 +10065,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>166</v>
@@ -10106,12 +10106,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>166</v>
@@ -10147,12 +10147,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>166</v>
@@ -10164,7 +10164,7 @@
         <v>66</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L75" s="0" t="n">
         <v>2</v>
@@ -10188,12 +10188,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>166</v>
@@ -10205,7 +10205,7 @@
         <v>66</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L76" s="0" t="n">
         <v>2</v>
@@ -10229,7 +10229,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="77" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="11" t="s">
         <v>33</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="78" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="11" t="s">
         <v>33</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="11" t="s">
         <v>33</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="11" t="s">
         <v>33</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="11" t="s">
         <v>33</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="11" t="s">
         <v>33</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="11" t="s">
         <v>18</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="11" t="s">
         <v>20</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="11" t="s">
         <v>21</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="11" t="s">
         <v>21</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="11" t="s">
         <v>21</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="11" t="s">
         <v>22</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>66</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L88" s="11" t="n">
         <v>2</v>
@@ -10752,7 +10752,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="11" t="s">
         <v>22</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>66</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L89" s="11" t="n">
         <v>2</v>
@@ -10796,7 +10796,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="s">
         <v>22</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
         <v>23</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
         <v>24</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="11" t="s">
         <v>27</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="s">
         <v>27</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="11" t="s">
         <v>27</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>66</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L95" s="11" t="n">
         <v>2</v>
@@ -11042,7 +11042,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="11" t="s">
         <v>27</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>66</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L96" s="11" t="n">
         <v>2</v>
@@ -11083,7 +11083,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="11" t="s">
         <v>33</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="11" t="s">
         <v>33</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="11" t="s">
         <v>33</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="100" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="11" t="s">
         <v>18</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="11" t="s">
         <v>20</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="11" t="s">
         <v>21</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="11" t="s">
         <v>22</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>66</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L103" s="11" t="n">
         <v>2</v>
@@ -11396,7 +11396,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="11" t="s">
         <v>22</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>66</v>
       </c>
       <c r="F104" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L104" s="11" t="n">
         <v>2</v>
@@ -11437,7 +11437,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="11" t="s">
         <v>22</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
         <v>23</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="11" t="s">
         <v>24</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="11" t="s">
         <v>27</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="11" t="s">
         <v>27</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="11" t="s">
         <v>27</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>66</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L110" s="11" t="n">
         <v>2</v>
@@ -11680,7 +11680,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="11" t="s">
         <v>27</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>66</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L111" s="11" t="n">
         <v>2</v>
@@ -11721,7 +11721,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="11" t="s">
         <v>33</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="11" t="s">
         <v>33</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="11" t="s">
         <v>33</v>
       </c>

--- a/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
+++ b/Projects/CCBZA_SAND/Data/Template_L&T.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="248">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -391,12 +391,18 @@
     <t xml:space="preserve">Survey Q CODE</t>
   </si>
   <si>
+    <t xml:space="preserve">Question type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cooler Outside or 1st Inside</t>
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
     <t xml:space="preserve">Signage available and in good condition</t>
   </si>
   <si>
@@ -640,6 +646,9 @@
     <t xml:space="preserve">Sparletta Call Out Pricing Poster 1,Sparletta Call Out Pricing Poster 2,Sparletta Call Out Pricing Poster 3,Sparletta Call Out Pricing Poster 4,Sparletta Call Out Pricing Poster 5</t>
   </si>
   <si>
+    <t xml:space="preserve">SSD IC </t>
+  </si>
+  <si>
     <t xml:space="preserve">SSD IC Availability of: 300 ml PET,440ml Can (CC, SP,FA, ST), 440ml PET (CC, SP, FA or ST)</t>
   </si>
   <si>
@@ -707,9 +716,6 @@
   </si>
   <si>
     <t xml:space="preserve">6001048003323,6001048000902,6001048004481,6001048001640,6001048001763,6001048003385,6001048000933,6001048004511,6001048003354,6001048000988,6001048004542,6001048004573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC </t>
   </si>
   <si>
     <t xml:space="preserve">SSD FC Diets Brands/Packs: 1.5L, 2L in (CZ,STZ)</t>
@@ -1084,8 +1090,8 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1505,7 +1511,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1564,11 +1570,11 @@
   <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5272,26 +5278,26 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.106976744186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.9767441860465"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6418604651163"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.0883720930233"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="42.0883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -5305,762 +5311,864 @@
         <v>117</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="G2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D3" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="G3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="G4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="G5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D6" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="G6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D7" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="G7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="D8" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D9" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="G9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>63</v>
+      <c r="E11" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="G11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D12" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>63</v>
+      <c r="E12" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="G12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D13" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>63</v>
+      <c r="E13" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="G13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D14" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>63</v>
+      <c r="E14" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="G14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>63</v>
+      <c r="E15" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="G15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D16" s="11" t="n">
         <v>41</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>63</v>
+      <c r="E16" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="G16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D17" s="11" t="n">
         <v>42</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>63</v>
+      <c r="E17" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="G17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D18" s="11" t="n">
         <v>41</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>63</v>
+      <c r="E18" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="G18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D19" s="11" t="n">
         <v>42</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>63</v>
+      <c r="E19" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="G19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D20" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E20" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>63</v>
+      <c r="E20" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D21" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E21" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>63</v>
+      <c r="E21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D22" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E22" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>63</v>
+      <c r="E22" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D23" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="E23" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>63</v>
+      <c r="E23" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D24" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11" t="s">
-        <v>63</v>
-      </c>
+      <c r="E24" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D25" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="E25" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>63</v>
+      <c r="E25" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D26" s="11" t="n">
         <v>41</v>
       </c>
-      <c r="E26" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>63</v>
+      <c r="E26" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D27" s="11" t="n">
         <v>42</v>
       </c>
-      <c r="E27" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>63</v>
+      <c r="E27" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D28" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E28" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>63</v>
+      <c r="E28" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D29" s="11" t="n">
         <v>41</v>
       </c>
-      <c r="E29" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>63</v>
+      <c r="E29" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" s="11" t="n">
         <v>42</v>
       </c>
-      <c r="E30" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>63</v>
+      <c r="E30" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D31" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E31" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>63</v>
+      <c r="E31" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G31" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E32" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>63</v>
+      <c r="E32" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G32" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E33" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>63</v>
+      <c r="E33" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G33" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E34" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>63</v>
+      <c r="E34" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G34" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6084,7 +6192,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6119,34 +6227,34 @@
         <v>48</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>43</v>
@@ -6172,22 +6280,22 @@
         <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>65</v>
@@ -6210,16 +6318,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>62</v>
@@ -6248,10 +6356,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>62</v>
@@ -6260,10 +6368,10 @@
         <v>61</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H4" s="11" t="n">
         <v>50</v>
@@ -6297,7 +6405,7 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -6356,7 +6464,7 @@
         <v>60</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4</v>
@@ -6389,7 +6497,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>3</v>
@@ -6421,7 +6529,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -6436,7 +6544,7 @@
         <v>68</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>16</v>
@@ -6453,7 +6561,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>4</v>
@@ -6485,7 +6593,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>3</v>
@@ -6517,7 +6625,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -6532,7 +6640,7 @@
         <v>94</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>16</v>
@@ -6549,7 +6657,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4</v>
@@ -6581,7 +6689,7 @@
         <v>60</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>3</v>
@@ -6613,7 +6721,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -6628,7 +6736,7 @@
         <v>95</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>16</v>
@@ -6645,7 +6753,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -6677,7 +6785,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>3</v>
@@ -6709,7 +6817,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
@@ -6724,7 +6832,7 @@
         <v>107</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>16</v>
@@ -6741,7 +6849,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4</v>
@@ -6773,7 +6881,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>3</v>
@@ -6805,7 +6913,7 @@
         <v>60</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
@@ -6820,7 +6928,7 @@
         <v>108</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>16</v>
@@ -6837,7 +6945,7 @@
         <v>60</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>4</v>
@@ -6869,7 +6977,7 @@
         <v>60</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>3</v>
@@ -6901,7 +7009,7 @@
         <v>60</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1</v>
@@ -6916,7 +7024,7 @@
         <v>115</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>16</v>
@@ -6944,11 +7052,11 @@
   </sheetPr>
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8883720930233"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.5302325581395"/>
@@ -6956,9 +7064,9 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.4279069767442"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4279069767442"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="9" width="212.283720930233"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.22790697674419"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.22790697674419"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="0" width="10.093023255814"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.72093023255814"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.153488372093"/>
@@ -6972,7 +7080,7 @@
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -6980,7 +7088,7 @@
         <v>40</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>48</v>
@@ -7004,7 +7112,7 @@
         <v>54</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>42</v>
@@ -7031,27 +7139,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -7075,18 +7183,18 @@
         <v>15</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>60</v>
@@ -7109,19 +7217,19 @@
         <v>15</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>166</v>
-      </c>
       <c r="D4" s="11" t="s">
         <v>60</v>
       </c>
@@ -7129,7 +7237,7 @@
         <v>66</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L4" s="11" t="n">
         <v>2</v>
@@ -7153,19 +7261,19 @@
         <v>15</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>166</v>
-      </c>
       <c r="D5" s="11" t="s">
         <v>60</v>
       </c>
@@ -7173,7 +7281,7 @@
         <v>66</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L5" s="11" t="n">
         <v>2</v>
@@ -7197,18 +7305,18 @@
         <v>15</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>60</v>
@@ -7217,7 +7325,7 @@
         <v>66</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L6" s="11" t="n">
         <v>2</v>
@@ -7232,7 +7340,7 @@
         <v>68</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q6" s="11" t="s">
         <v>16</v>
@@ -7241,18 +7349,18 @@
         <v>15</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>60</v>
@@ -7261,7 +7369,7 @@
         <v>66</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L7" s="11" t="n">
         <v>2</v>
@@ -7285,18 +7393,18 @@
         <v>15</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>60</v>
@@ -7305,7 +7413,7 @@
         <v>66</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L8" s="11" t="n">
         <v>2</v>
@@ -7329,18 +7437,18 @@
         <v>15</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>60</v>
@@ -7349,7 +7457,7 @@
         <v>66</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L9" s="11" t="n">
         <v>2</v>
@@ -7364,7 +7472,7 @@
         <v>68</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q9" s="11" t="s">
         <v>16</v>
@@ -7373,18 +7481,18 @@
         <v>15</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>60</v>
@@ -7393,7 +7501,7 @@
         <v>66</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -7419,18 +7527,18 @@
         <v>15</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>60</v>
@@ -7460,18 +7568,18 @@
         <v>15</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>60</v>
@@ -7498,27 +7606,27 @@
         <v>15</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L13" s="11" t="n">
         <v>1</v>
@@ -7539,18 +7647,18 @@
         <v>15</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>60</v>
@@ -7559,7 +7667,7 @@
         <v>66</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>2</v>
@@ -7580,18 +7688,18 @@
         <v>15</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>60</v>
@@ -7600,7 +7708,7 @@
         <v>66</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>2</v>
@@ -7621,18 +7729,18 @@
         <v>15</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>60</v>
@@ -7662,18 +7770,18 @@
         <v>15</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>60</v>
@@ -7682,7 +7790,7 @@
         <v>66</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>2</v>
@@ -7703,27 +7811,27 @@
         <v>15</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>1</v>
@@ -7747,27 +7855,27 @@
         <v>15</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>1</v>
@@ -7791,27 +7899,27 @@
         <v>15</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>1</v>
@@ -7826,7 +7934,7 @@
         <v>68</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="11" t="s">
         <v>16</v>
@@ -7835,19 +7943,19 @@
         <v>15</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>166</v>
-      </c>
       <c r="D21" s="11" t="s">
         <v>60</v>
       </c>
@@ -7855,7 +7963,7 @@
         <v>66</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L21" s="11" t="n">
         <v>2</v>
@@ -7879,19 +7987,19 @@
         <v>15</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>166</v>
-      </c>
       <c r="D22" s="11" t="s">
         <v>60</v>
       </c>
@@ -7899,7 +8007,7 @@
         <v>66</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L22" s="11" t="n">
         <v>2</v>
@@ -7923,18 +8031,18 @@
         <v>15</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>60</v>
@@ -7943,7 +8051,7 @@
         <v>66</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L23" s="11" t="n">
         <v>2</v>
@@ -7958,7 +8066,7 @@
         <v>94</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="11" t="s">
         <v>16</v>
@@ -7967,18 +8075,18 @@
         <v>15</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>60</v>
@@ -7987,7 +8095,7 @@
         <v>66</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L24" s="11" t="n">
         <v>2</v>
@@ -8011,18 +8119,18 @@
         <v>15</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>60</v>
@@ -8031,7 +8139,7 @@
         <v>66</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L25" s="11" t="n">
         <v>2</v>
@@ -8055,18 +8163,18 @@
         <v>15</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>60</v>
@@ -8075,7 +8183,7 @@
         <v>66</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L26" s="11" t="n">
         <v>2</v>
@@ -8090,7 +8198,7 @@
         <v>94</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="11" t="s">
         <v>16</v>
@@ -8099,18 +8207,18 @@
         <v>15</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>60</v>
@@ -8119,7 +8227,7 @@
         <v>66</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -8145,18 +8253,18 @@
         <v>15</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>60</v>
@@ -8186,18 +8294,18 @@
         <v>15</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>60</v>
@@ -8224,27 +8332,27 @@
         <v>15</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L30" s="11" t="n">
         <v>1</v>
@@ -8265,18 +8373,18 @@
         <v>15</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>60</v>
@@ -8285,7 +8393,7 @@
         <v>66</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L31" s="0" t="n">
         <v>2</v>
@@ -8306,18 +8414,18 @@
         <v>15</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>60</v>
@@ -8326,7 +8434,7 @@
         <v>66</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L32" s="0" t="n">
         <v>2</v>
@@ -8347,18 +8455,18 @@
         <v>15</v>
       </c>
       <c r="S32" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>60</v>
@@ -8388,18 +8496,18 @@
         <v>15</v>
       </c>
       <c r="S33" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>60</v>
@@ -8408,7 +8516,7 @@
         <v>66</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L34" s="0" t="n">
         <v>2</v>
@@ -8429,27 +8537,27 @@
         <v>15</v>
       </c>
       <c r="S34" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L35" s="0" t="n">
         <v>1</v>
@@ -8470,27 +8578,27 @@
         <v>15</v>
       </c>
       <c r="S35" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L36" s="0" t="n">
         <v>1</v>
@@ -8514,27 +8622,27 @@
         <v>15</v>
       </c>
       <c r="S36" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L37" s="0" t="n">
         <v>1</v>
@@ -8558,27 +8666,27 @@
         <v>15</v>
       </c>
       <c r="S37" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L38" s="0" t="n">
         <v>1</v>
@@ -8593,7 +8701,7 @@
         <v>94</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q38" s="11" t="s">
         <v>16</v>
@@ -8602,18 +8710,18 @@
         <v>15</v>
       </c>
       <c r="S38" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>60</v>
@@ -8622,7 +8730,7 @@
         <v>66</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L39" s="0" t="n">
         <v>2</v>
@@ -8646,18 +8754,18 @@
         <v>15</v>
       </c>
       <c r="S39" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>60</v>
@@ -8666,7 +8774,7 @@
         <v>66</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L40" s="0" t="n">
         <v>2</v>
@@ -8690,18 +8798,18 @@
         <v>15</v>
       </c>
       <c r="S40" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>60</v>
@@ -8710,7 +8818,7 @@
         <v>66</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L41" s="0" t="n">
         <v>2</v>
@@ -8725,7 +8833,7 @@
         <v>95</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q41" s="11" t="s">
         <v>16</v>
@@ -8734,18 +8842,18 @@
         <v>15</v>
       </c>
       <c r="S41" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>60</v>
@@ -8754,7 +8862,7 @@
         <v>66</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L42" s="0" t="n">
         <v>2</v>
@@ -8778,18 +8886,18 @@
         <v>15</v>
       </c>
       <c r="S42" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>60</v>
@@ -8798,7 +8906,7 @@
         <v>66</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L43" s="0" t="n">
         <v>2</v>
@@ -8822,18 +8930,18 @@
         <v>15</v>
       </c>
       <c r="S43" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>60</v>
@@ -8842,7 +8950,7 @@
         <v>66</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L44" s="0" t="n">
         <v>2</v>
@@ -8857,7 +8965,7 @@
         <v>95</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q44" s="11" t="s">
         <v>16</v>
@@ -8866,18 +8974,18 @@
         <v>15</v>
       </c>
       <c r="S44" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>60</v>
@@ -8886,7 +8994,7 @@
         <v>66</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L45" s="0" t="n">
         <v>2</v>
@@ -8910,18 +9018,18 @@
         <v>15</v>
       </c>
       <c r="S45" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>60</v>
@@ -8930,7 +9038,7 @@
         <v>66</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L46" s="0" t="n">
         <v>2</v>
@@ -8954,18 +9062,18 @@
         <v>15</v>
       </c>
       <c r="S46" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>60</v>
@@ -8974,7 +9082,7 @@
         <v>66</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L47" s="0" t="n">
         <v>2</v>
@@ -8989,7 +9097,7 @@
         <v>95</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q47" s="11" t="s">
         <v>16</v>
@@ -8998,18 +9106,18 @@
         <v>15</v>
       </c>
       <c r="S47" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>60</v>
@@ -9018,7 +9126,7 @@
         <v>66</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L48" s="0" t="n">
         <v>2</v>
@@ -9042,18 +9150,18 @@
         <v>15</v>
       </c>
       <c r="S48" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>60</v>
@@ -9086,18 +9194,18 @@
         <v>15</v>
       </c>
       <c r="S49" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>60</v>
@@ -9121,7 +9229,7 @@
         <v>95</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q50" s="11" t="s">
         <v>16</v>
@@ -9130,18 +9238,18 @@
         <v>15</v>
       </c>
       <c r="S50" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>60</v>
@@ -9150,7 +9258,7 @@
         <v>66</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L51" s="0" t="n">
         <v>2</v>
@@ -9168,27 +9276,27 @@
         <v>15</v>
       </c>
       <c r="S51" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L52" s="11" t="n">
         <v>1</v>
@@ -9209,18 +9317,18 @@
         <v>15</v>
       </c>
       <c r="S52" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>60</v>
@@ -9229,7 +9337,7 @@
         <v>66</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L53" s="0" t="n">
         <v>2</v>
@@ -9250,18 +9358,18 @@
         <v>15</v>
       </c>
       <c r="S53" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>60</v>
@@ -9270,7 +9378,7 @@
         <v>66</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L54" s="0" t="n">
         <v>2</v>
@@ -9291,18 +9399,18 @@
         <v>15</v>
       </c>
       <c r="S54" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>60</v>
@@ -9311,7 +9419,7 @@
         <v>66</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L55" s="0" t="n">
         <v>2</v>
@@ -9332,18 +9440,18 @@
         <v>15</v>
       </c>
       <c r="S55" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>60</v>
@@ -9352,7 +9460,7 @@
         <v>66</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L56" s="0" t="n">
         <v>2</v>
@@ -9373,18 +9481,18 @@
         <v>15</v>
       </c>
       <c r="S56" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>60</v>
@@ -9393,7 +9501,7 @@
         <v>66</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L57" s="0" t="n">
         <v>2</v>
@@ -9414,18 +9522,18 @@
         <v>15</v>
       </c>
       <c r="S57" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>60</v>
@@ -9434,7 +9542,7 @@
         <v>66</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L58" s="0" t="n">
         <v>2</v>
@@ -9458,18 +9566,18 @@
         <v>15</v>
       </c>
       <c r="S58" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>60</v>
@@ -9478,7 +9586,7 @@
         <v>66</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L59" s="0" t="n">
         <v>2</v>
@@ -9502,18 +9610,18 @@
         <v>15</v>
       </c>
       <c r="S59" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>60</v>
@@ -9522,7 +9630,7 @@
         <v>66</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L60" s="0" t="n">
         <v>2</v>
@@ -9537,7 +9645,7 @@
         <v>107</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q60" s="11" t="s">
         <v>16</v>
@@ -9546,18 +9654,18 @@
         <v>15</v>
       </c>
       <c r="S60" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>60</v>
@@ -9566,7 +9674,7 @@
         <v>66</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L61" s="0" t="n">
         <v>2</v>
@@ -9590,18 +9698,18 @@
         <v>15</v>
       </c>
       <c r="S61" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>60</v>
@@ -9610,7 +9718,7 @@
         <v>66</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L62" s="0" t="n">
         <v>2</v>
@@ -9634,18 +9742,18 @@
         <v>15</v>
       </c>
       <c r="S62" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>60</v>
@@ -9654,7 +9762,7 @@
         <v>66</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L63" s="0" t="n">
         <v>2</v>
@@ -9669,7 +9777,7 @@
         <v>107</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q63" s="11" t="s">
         <v>16</v>
@@ -9678,18 +9786,18 @@
         <v>15</v>
       </c>
       <c r="S63" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>60</v>
@@ -9698,7 +9806,7 @@
         <v>66</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L64" s="0" t="n">
         <v>2</v>
@@ -9722,18 +9830,18 @@
         <v>15</v>
       </c>
       <c r="S64" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>60</v>
@@ -9742,7 +9850,7 @@
         <v>66</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L65" s="0" t="n">
         <v>2</v>
@@ -9766,18 +9874,18 @@
         <v>15</v>
       </c>
       <c r="S65" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>60</v>
@@ -9786,7 +9894,7 @@
         <v>66</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L66" s="0" t="n">
         <v>2</v>
@@ -9801,7 +9909,7 @@
         <v>107</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q66" s="11" t="s">
         <v>16</v>
@@ -9810,18 +9918,18 @@
         <v>15</v>
       </c>
       <c r="S66" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>60</v>
@@ -9830,7 +9938,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L67" s="0" t="n">
         <v>2</v>
@@ -9854,18 +9962,18 @@
         <v>15</v>
       </c>
       <c r="S67" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>60</v>
@@ -9898,18 +10006,18 @@
         <v>15</v>
       </c>
       <c r="S68" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>60</v>
@@ -9933,7 +10041,7 @@
         <v>107</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q69" s="11" t="s">
         <v>16</v>
@@ -9942,18 +10050,18 @@
         <v>15</v>
       </c>
       <c r="S69" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>60</v>
@@ -9962,7 +10070,7 @@
         <v>66</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L70" s="0" t="n">
         <v>2</v>
@@ -9980,27 +10088,27 @@
         <v>15</v>
       </c>
       <c r="S70" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L71" s="11" t="n">
         <v>1</v>
@@ -10021,18 +10129,18 @@
         <v>15</v>
       </c>
       <c r="S71" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>60</v>
@@ -10041,7 +10149,7 @@
         <v>66</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L72" s="0" t="n">
         <v>2</v>
@@ -10062,18 +10170,18 @@
         <v>15</v>
       </c>
       <c r="S72" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>60</v>
@@ -10082,7 +10190,7 @@
         <v>66</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L73" s="0" t="n">
         <v>2</v>
@@ -10103,18 +10211,18 @@
         <v>15</v>
       </c>
       <c r="S73" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>60</v>
@@ -10123,7 +10231,7 @@
         <v>66</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L74" s="0" t="n">
         <v>2</v>
@@ -10144,18 +10252,18 @@
         <v>15</v>
       </c>
       <c r="S74" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>60</v>
@@ -10164,7 +10272,7 @@
         <v>66</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L75" s="0" t="n">
         <v>2</v>
@@ -10185,18 +10293,18 @@
         <v>15</v>
       </c>
       <c r="S75" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>60</v>
@@ -10205,7 +10313,7 @@
         <v>66</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L76" s="0" t="n">
         <v>2</v>
@@ -10226,27 +10334,27 @@
         <v>15</v>
       </c>
       <c r="S76" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="77" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L77" s="11" t="n">
         <v>1</v>
@@ -10270,27 +10378,27 @@
         <v>15</v>
       </c>
       <c r="S77" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="78" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" s="11" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L78" s="11" t="n">
         <v>1</v>
@@ -10314,27 +10422,27 @@
         <v>15</v>
       </c>
       <c r="S78" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L79" s="11" t="n">
         <v>1</v>
@@ -10349,7 +10457,7 @@
         <v>95</v>
       </c>
       <c r="P79" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q79" s="11" t="s">
         <v>16</v>
@@ -10358,27 +10466,27 @@
         <v>15</v>
       </c>
       <c r="S79" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L80" s="11" t="n">
         <v>1</v>
@@ -10402,27 +10510,27 @@
         <v>15</v>
       </c>
       <c r="S80" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L81" s="11" t="n">
         <v>1</v>
@@ -10446,27 +10554,27 @@
         <v>15</v>
       </c>
       <c r="S81" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L82" s="11" t="n">
         <v>1</v>
@@ -10481,7 +10589,7 @@
         <v>107</v>
       </c>
       <c r="P82" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q82" s="11" t="s">
         <v>16</v>
@@ -10490,18 +10598,18 @@
         <v>15</v>
       </c>
       <c r="S82" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>60</v>
@@ -10510,7 +10618,7 @@
         <v>66</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L83" s="11" t="n">
         <v>2</v>
@@ -10531,18 +10639,18 @@
         <v>15</v>
       </c>
       <c r="S83" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>60</v>
@@ -10551,7 +10659,7 @@
         <v>66</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L84" s="11" t="n">
         <v>2</v>
@@ -10573,18 +10681,18 @@
         <v>15</v>
       </c>
       <c r="S84" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>60</v>
@@ -10593,7 +10701,7 @@
         <v>66</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L85" s="11" t="n">
         <v>2</v>
@@ -10617,18 +10725,18 @@
         <v>15</v>
       </c>
       <c r="S85" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>60</v>
@@ -10637,7 +10745,7 @@
         <v>66</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L86" s="11" t="n">
         <v>2</v>
@@ -10661,18 +10769,18 @@
         <v>15</v>
       </c>
       <c r="S86" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>60</v>
@@ -10681,7 +10789,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L87" s="11" t="n">
         <v>2</v>
@@ -10696,7 +10804,7 @@
         <v>108</v>
       </c>
       <c r="P87" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q87" s="11" t="s">
         <v>16</v>
@@ -10705,18 +10813,18 @@
         <v>15</v>
       </c>
       <c r="S87" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>60</v>
@@ -10725,7 +10833,7 @@
         <v>66</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L88" s="11" t="n">
         <v>2</v>
@@ -10749,18 +10857,18 @@
         <v>15</v>
       </c>
       <c r="S88" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>60</v>
@@ -10769,7 +10877,7 @@
         <v>66</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L89" s="11" t="n">
         <v>2</v>
@@ -10793,18 +10901,18 @@
         <v>15</v>
       </c>
       <c r="S89" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>60</v>
@@ -10828,7 +10936,7 @@
         <v>108</v>
       </c>
       <c r="P90" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q90" s="11" t="s">
         <v>16</v>
@@ -10837,18 +10945,18 @@
         <v>15</v>
       </c>
       <c r="S90" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>60</v>
@@ -10857,7 +10965,7 @@
         <v>66</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L91" s="11" t="n">
         <v>2</v>
@@ -10875,27 +10983,27 @@
         <v>15</v>
       </c>
       <c r="S91" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L92" s="11" t="n">
         <v>1</v>
@@ -10916,18 +11024,18 @@
         <v>15</v>
       </c>
       <c r="S92" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>60</v>
@@ -10936,7 +11044,7 @@
         <v>66</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L93" s="11" t="n">
         <v>2</v>
@@ -10957,18 +11065,18 @@
         <v>15</v>
       </c>
       <c r="S93" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>60</v>
@@ -10977,7 +11085,7 @@
         <v>66</v>
       </c>
       <c r="F94" s="22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L94" s="11" t="n">
         <v>2</v>
@@ -10998,18 +11106,18 @@
         <v>15</v>
       </c>
       <c r="S94" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>60</v>
@@ -11018,7 +11126,7 @@
         <v>66</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L95" s="11" t="n">
         <v>2</v>
@@ -11039,18 +11147,18 @@
         <v>15</v>
       </c>
       <c r="S95" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>60</v>
@@ -11059,7 +11167,7 @@
         <v>66</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L96" s="11" t="n">
         <v>2</v>
@@ -11080,27 +11188,27 @@
         <v>15</v>
       </c>
       <c r="S96" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L97" s="11" t="n">
         <v>1</v>
@@ -11124,27 +11232,27 @@
         <v>15</v>
       </c>
       <c r="S97" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
@@ -11173,27 +11281,27 @@
         <v>15</v>
       </c>
       <c r="S98" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -11213,7 +11321,7 @@
         <v>108</v>
       </c>
       <c r="P99" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q99" s="11" t="s">
         <v>16</v>
@@ -11222,18 +11330,18 @@
         <v>15</v>
       </c>
       <c r="S99" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="100" s="11" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>60</v>
@@ -11242,7 +11350,7 @@
         <v>66</v>
       </c>
       <c r="F100" s="22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L100" s="11" t="n">
         <v>2</v>
@@ -11263,18 +11371,18 @@
         <v>15</v>
       </c>
       <c r="S100" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>60</v>
@@ -11283,7 +11391,7 @@
         <v>66</v>
       </c>
       <c r="F101" s="22" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
@@ -11310,18 +11418,18 @@
         <v>15</v>
       </c>
       <c r="S101" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>60</v>
@@ -11330,7 +11438,7 @@
         <v>66</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L102" s="11" t="n">
         <v>2</v>
@@ -11352,18 +11460,18 @@
         <v>15</v>
       </c>
       <c r="S102" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>60</v>
@@ -11372,7 +11480,7 @@
         <v>66</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L103" s="11" t="n">
         <v>2</v>
@@ -11393,18 +11501,18 @@
         <v>15</v>
       </c>
       <c r="S103" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>60</v>
@@ -11413,7 +11521,7 @@
         <v>66</v>
       </c>
       <c r="F104" s="22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L104" s="11" t="n">
         <v>2</v>
@@ -11434,18 +11542,18 @@
         <v>15</v>
       </c>
       <c r="S104" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>60</v>
@@ -11475,18 +11583,18 @@
         <v>15</v>
       </c>
       <c r="S105" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>60</v>
@@ -11495,7 +11603,7 @@
         <v>66</v>
       </c>
       <c r="F106" s="22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L106" s="11" t="n">
         <v>2</v>
@@ -11513,27 +11621,27 @@
         <v>15</v>
       </c>
       <c r="S106" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F107" s="22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L107" s="11" t="n">
         <v>1</v>
@@ -11554,18 +11662,18 @@
         <v>15</v>
       </c>
       <c r="S107" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>60</v>
@@ -11574,7 +11682,7 @@
         <v>66</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L108" s="11" t="n">
         <v>2</v>
@@ -11595,18 +11703,18 @@
         <v>15</v>
       </c>
       <c r="S108" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>60</v>
@@ -11615,7 +11723,7 @@
         <v>66</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L109" s="11" t="n">
         <v>2</v>
@@ -11636,18 +11744,18 @@
         <v>15</v>
       </c>
       <c r="S109" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>60</v>
@@ -11656,7 +11764,7 @@
         <v>66</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L110" s="11" t="n">
         <v>2</v>
@@ -11677,18 +11785,18 @@
         <v>15</v>
       </c>
       <c r="S110" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>60</v>
@@ -11697,7 +11805,7 @@
         <v>66</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L111" s="11" t="n">
         <v>2</v>
@@ -11718,27 +11826,27 @@
         <v>15</v>
       </c>
       <c r="S111" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L112" s="11" t="n">
         <v>1</v>
@@ -11762,27 +11870,27 @@
         <v>15</v>
       </c>
       <c r="S112" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F113" s="25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
@@ -11811,27 +11919,27 @@
         <v>15</v>
       </c>
       <c r="S113" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
@@ -11851,7 +11959,7 @@
         <v>115</v>
       </c>
       <c r="P114" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q114" s="11" t="s">
         <v>16</v>
@@ -11860,7 +11968,7 @@
         <v>15</v>
       </c>
       <c r="S114" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
